--- a/congress_bills.xlsx
+++ b/congress_bills.xlsx
@@ -13159,7 +13159,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3608/text?s=1&amp;r=58&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13197,7 +13201,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/2673/text?s=1&amp;r=59&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13235,7 +13243,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5462/text?s=1&amp;r=60&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13273,7 +13285,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2901/text?s=1&amp;r=61&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13311,7 +13327,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5771/text?s=1&amp;r=62&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13349,7 +13369,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2754/text?s=1&amp;r=63&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13387,7 +13411,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4030/text?s=1&amp;r=64&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13617,7 +13645,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4681/text?s=1&amp;r=67&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13655,7 +13687,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1068/text?s=1&amp;r=68&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14259,7 +14295,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3979/text?s=1&amp;r=70&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14297,7 +14337,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/2519/text?s=1&amp;r=71&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14335,7 +14379,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1204/text?s=1&amp;r=72&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14942,7 +14990,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3044/text?s=1&amp;r=74&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14980,7 +15032,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/2651/text?s=1&amp;r=75&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15018,7 +15074,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1378/text?s=1&amp;r=76&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15056,7 +15116,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4199/text?s=1&amp;r=77&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15094,7 +15158,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1206/text?s=1&amp;r=78&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15132,7 +15200,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5562/text?s=1&amp;r=79&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -15170,7 +15242,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5331/text?s=1&amp;r=80&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -15208,7 +15284,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2719/text?s=1&amp;r=81&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -15246,7 +15326,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2952/text?s=1&amp;r=82&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -15284,7 +15368,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5739/text?s=1&amp;r=83&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -15322,7 +15410,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2591/text?s=1&amp;r=84&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -15360,7 +15452,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5069/text?s=1&amp;r=85&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -15398,7 +15494,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4926/text?s=1&amp;r=86&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15436,7 +15536,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4416/text?s=1&amp;r=87&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -15474,7 +15578,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/1000/text?s=1&amp;r=88&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15512,7 +15620,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/1683/text?s=1&amp;r=89&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15550,7 +15662,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/3008/text?s=1&amp;r=90&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15588,7 +15704,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3468/text?s=1&amp;r=91&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -15626,7 +15746,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3027/text?s=1&amp;r=92&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -15664,7 +15788,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3572/text?s=1&amp;r=93&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -15702,7 +15830,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1281/text?s=1&amp;r=94&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -15740,7 +15872,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/1474/text?s=1&amp;r=95&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -15778,7 +15914,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2640/text?s=1&amp;r=96&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15816,7 +15956,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3096/text?s=1&amp;r=97&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15854,7 +15998,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5687/text?s=1&amp;r=98&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -15892,7 +16040,11 @@
           <t>Became Law</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5859/text?s=1&amp;r=99&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">

--- a/congress_bills.xlsx
+++ b/congress_bills.xlsx
@@ -13161,7 +13161,35 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3608/text?s=1&amp;r=58&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 290]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 3291]]
+Public Law 113-290
+113th Congress
+                                 An Act
+   To amend the Act of October 19, 1973, concerning taxable income to 
+      members of the Grand Portage Band of Lake Superior Chippewa 
+            Indians. &lt;&lt;NOTE: Dec. 19, 2014 -  [H.R. 3608]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Grand Portage 
+Band Per Capita Adjustment Act.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 25 USC 1401 note.&gt;&gt; SHORT TITLE.
+    This Act may be cited as the ``Grand Portage Band Per Capita 
+Adjustment Act''.
+SEC. 2. EQUAL TREATMENT OF CERTAIN PER CAPITA INCOME FOR PURPOSES 
+                    OF FEDERAL ASSISTANCE.
+    Paragraph (4) of section 7 of the Act of October 19, 1973 (25 U.S.C. 
+1407(4)) is amended by striking ``pursuant to the agreements of such 
+Band'' and inserting ``or the Grand Portage Band of Lake Superior 
+Chippewa Indians, or both, pursuant to the agreements of each Band''.
+    Approved December 19, 2014.
+LEGISLATIVE HISTORY--H.R. 3608:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-625, Pt. 1 (Comm. on Natural Resources).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Nov. 17, considered and passed House.
+            Dec. 16, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13231,386 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/2673/text?s=1&amp;r=59&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 296]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 4075]]
+Public Law 113-296
+113th Congress
+                                 An Act
+   To enhance the strategic partnership between the United States and 
+              Israel. &lt;&lt;NOTE: Dec. 19, 2014 -  [S. 2673]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: United States-
+Israel Strategic Partnership Act of 2014.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 22 USC 8601 note.&gt;&gt; SHORT TITLE.
+    This Act may be cited as the ``United States-Israel Strategic 
+Partnership Act of 2014''.
+SEC. 2. &lt;&lt;NOTE: 22 USC 8601 note.&gt;&gt; FINDINGS.
+    Congress makes the following findings:
+            (1) The people and the Governments of the United States and 
+        of Israel share a deep and unbreakable bond, forged by over 60 
+        years of shared interests and shared values.
+            (2) Today, the people and Governments of the United States 
+        and of Israel are facing a dynamic and rapidly changing security 
+        environment in the Middle East and North Africa, necessitating 
+        deeper cooperation on a range of defense, security, and 
+        intelligence matters.
+            (3) From Gaza, Hamas continues to deny Israel's right to 
+        exist and persists in firing rockets indiscriminately at 
+        population centers in Israel.
+            (4) Hezbollah--with support from Iran--continues to 
+        stockpile rockets and may be seeking to exploit the tragic and 
+        volatile security situation within Syria.
+            (5) The Government of Iran continues to pose a grave threat 
+        to the region and the world at large with its reckless pursuit 
+        of nuclear weapons.
+            (6) Given these challenges, it is imperative that the United 
+        States continues to deepen cooperation with allies like Israel 
+        in pursuit of shared policy objectives.
+SEC. 3. &lt;&lt;NOTE: 22 USC 8602 note.&gt;&gt; STATEMENT OF POLICY.
+    It is the policy of the United States--
+            (1) to reaffirm the unwavering support of the people and the 
+        Government of the United States for the security of Israel as a 
+        Jewish state;
+            (2) to reaffirm the principles and objectives enshrined in 
+        the United States-Israel Enhanced Security Cooperation Act of 
+        2012 (Public Law 112-150) and ensure its implementation to the 
+        fullest extent;
+            (3) to reaffirm the importance of the 2007 United States-
+        Israel Memorandum of Understanding on United States assistance 
+        to Israel and the semi-annual Strategic Dialogue between the 
+        United States and Israel;
+[[Page 128 STAT. 4076]]
+            (4) to pursue every opportunity to deepen cooperation with 
+        Israel on a range of critical issues including defense, homeland 
+        security, energy, and cybersecurity;
+            (5) to continue to provide Israel with robust security 
+        assistance, including for the procurement of the Iron Dome 
+        Missile Defense System; and
+            (6) to support the Government of Israel in its ongoing 
+        efforts to reach a negotiated political settlement with the 
+        Palestinian people that results in two states living side-by-
+        side in peace and security.
+SEC. 4. SENSE OF CONGRESS ON ISRAEL AS A MAJOR STRATEGIC PARTNER.
+    It is the sense of Congress that Israel is a major strategic partner 
+of the United States.
+SEC. 5. EXTENSION OF WAR RESERVES STOCKPILE AUTHORITY.
+    (a) Department of Defense Appropriations Act, 2005.--Section 
+12001(d) of the Department of Defense Appropriations Act, 2005 (Public 
+Law 108-287; 118 Stat. 1011) is amended by striking ``more than 10 years 
+after'' and inserting ``more than 11 years after''.
+    (b) Foreign Assistance Act of 1961.--Section 514(b)(2)(A) of the 
+Foreign Assistance Act of 1961 (22 U.S.C. 2321h(b)(2)(A)) is amended by 
+striking ``and 2014'' and inserting ``, 2014, and 2015''.
+SEC. 6. &lt;&lt;NOTE: 22 USC 8603 note.&gt;&gt; ELIGIBILITY OF ISRAEL FOR THE 
+                    STRATEGIC TRADE AUTHORIZATION EXCEPTION TO 
+                    CERTAIN EXPORT CONTROL LICENSING REQUIREMENTS.
+    (a) Findings.--Congress finds that Israel--
+            (1) has adopted high standards in the field of export 
+        controls;
+            (2) has declared its unilateral adherence to the Missile 
+        Technology Control Regime, the Australia Group, and the Nuclear 
+        Suppliers Group; and
+            (3) is a party to--
+                    (A) the Convention on Prohibitions or Restrictions 
+                on the Use of Certain Conventional Weapons which may be 
+                Deemed to be Excessively Injurious or to Have 
+                Indiscriminate Effects, signed at Geneva October 10, 
+                1980;
+                    (B) the Protocol for the Prohibition of the Use in 
+                War of Asphyxiating, Poisonous or Other Gases, and of 
+                Bacteriological Methods of Warfare, signed at Geneva 
+                June 17, 1925; and
+                    (C) the Convention on the Physical Protection of 
+                Nuclear Material, adopted at Vienna on October 26, 1979.
+    (b) Eligibility for Strategic Trade Authorization 
+Exception. &lt;&lt;NOTE: President.&gt;&gt; --The President, consistent with the 
+commitments of the United States under international arrangements, shall 
+take steps so that Israel may be included in the list of countries 
+eligible for the strategic trade authorization exception under section 
+740.20(c)(1) of title 15, Code of Federal Regulations, to the 
+requirement for a license for the export, reexport, or in-country 
+transfer of an item subject to controls under the Export Administration 
+Regulations.
+[[Page 128 STAT. 4077]]
+SEC. 7. &lt;&lt;NOTE: President. 22 USC 8606.&gt;&gt; UNITED STATES-ISRAEL 
+                    COOPERATION ON ENERGY, WATER, HOMELAND 
+                    SECURITY, AGRICULTURE, AND ALTERNATIVE FUEL 
+                    TECHNOLOGIES.
+    (a) In General.--The President is authorized, subject to existing 
+law--
+            (1) to undertake activities in cooperation with Israel; and
+            (2) to provide assistance promoting cooperation in the 
+        fields of energy, water, agriculture, and alternative fuel 
+        technologies.
+    (b) Requirements.--In carrying out subsection (a), the President is 
+authorized, subject to existing requirements of law and any applicable 
+agreements or understandings between the United States and Israel--
+            (1) to share and exchange with Israel research, technology, 
+        intelligence, information, equipment, and personnel, including 
+        through sales, leases, or exchanges in kind, that the President 
+        determines will advance the national security interests of the 
+        United States and are consistent with the Strategic Dialogue and 
+        pertinent provisions of law; and
+            (2) to enhance scientific cooperation between Israel and the 
+        United States.
+    (c) Cooperative Research Pilot Programs.--The Secretary of Homeland 
+Security, acting through the Director of the Homeland Security Advanced 
+Research Projects Agency and with the concurrence of the Secretary of 
+State, is authorized, subject to existing law, to enter into cooperative 
+research pilot programs with Israel to enhance Israel's capabilities 
+in--
+            (1) border, maritime, and aviation security;
+            (2) explosives detection; and
+            (3) emergency services.
+SEC. 8. &lt;&lt;NOTE: President. Classified information.&gt;&gt; REPORT ON 
+                    INCREASED UNITED STATES-ISRAEL COOPERATION ON 
+                    CYBERSECURITY.
+    Not later than 180 days after the date of the enactment of this Act, 
+the President shall submit to Congress a report, in a classified format 
+or including a classified annex, as appropriate, on the feasibility and 
+advisability of expanding United States-Israeli cooperation on cyber 
+issues, including sharing and advancing technologies related to the 
+prevention of cybercrimes.
+SEC. 9. &lt;&lt;NOTE: 22 USC 8602 note.&gt;&gt; STATEMENT OF POLICY REGARDING 
+                    THE VISA WAIVER PROGRAM.
+    It shall be the policy of the United States to include Israel in the 
+list of countries that participate in the visa waiver program under 
+section 217 of the Immigration and Nationality Act (8 U.S.C. 1187) when 
+Israel satisfies, and as long as Israel continues to satisfy, the 
+requirements for inclusion in such program specified in such section.
+SEC. 10. &lt;&lt;NOTE: President. Deadline.&gt;&gt; STATUS OF IMPLEMENTATION 
+                      OF SECTION 4 OF THE UNITED STATES-ISRAEL 
+                      ENHANCED SECURITY COOPERATION ACT OF 2012.
+    Not later than 180 days after the date of the enactment of this Act, 
+the President shall, to the extent practicable and in an appropriate 
+manner, provide an update to the Committee on Foreign Relations of the 
+Senate, the Committee on Foreign Affairs of the House of 
+Representatives, the Committee on Armed Services of the Senate, and the 
+Committee on Armed Services of the House of Representatives on current 
+and future efforts undertaken by
+[[Page 128 STAT. 4078]]
+the President to fulfill the objectives of section 4 of the United 
+States-Israel Enhanced Security Cooperation Act (22 U.S.C. 8603).
+SEC. 11. IMPROVED REPORTING ON ENHANCING ISRAEL'S QUALITATIVE 
+                      MILITARY EDGE AND SECURITY POSTURE.
+    (a) Biennial Assessment Reevaluations.--Section 201(c) of the Naval 
+Vessel Transfer Act of 2008 (22 U.S.C. 2776 note) is amended by adding 
+at the end the following:
+            ``(3) Biennial updates. &lt;&lt;NOTE: President.&gt;&gt; --Two years 
+        after the date on which each quadrennial report is transmitted 
+        to Congress, the President shall--
+                    ``(A) reevaluate the assessment required under 
+                subsection (a); and
+                    ``(B) &lt;&lt;NOTE: Consultation.&gt;&gt; inform and consult 
+                with the appropriate congressional committees on the 
+                results of the reevaluation conducted pursuant to 
+                subparagraph (A).''.
+    (b) Certification Requirements for Major Defense Equipment.--Section 
+36(h) of the Arms Export Control Act (22 U.S.C. 2776(h)) is amended--
+            (1) by redesignating paragraph (2) as paragraph (3); and
+            (2) by inserting after paragraph (1) the following:
+            ``(2) Requirements with respect to determination for major 
+        defense equipment.--A determination under paragraph (1) relating 
+        to the sale or export of major defense equipment shall include--
+                    ``(A) a detailed explanation of Israel's capacity to 
+                address the improved capabilities provided by such sale 
+                or export;
+                    ``(B) a detailed evaluation of--
+                          ``(i) how such sale or export alters the 
+                      strategic and tactical balance in the region, 
+                      including relative capabilities; and
+                          ``(ii) Israel's capacity to respond to the 
+                      improved regional capabilities provided by such 
+                      sale or export;
+                    ``(C) an identification of any specific new 
+                capacity, capabilities, or training that Israel may 
+                require to address the regional or country-specific 
+                capabilities provided by such sale or export; and
+                    ``(D) a description of any additional United States 
+                security assurances to Israel made, or requested to be 
+                made, in connection with, or as a result of, such sale 
+                or export.''.
+SEC. 12. UNITED STATES-ISRAEL ENERGY COOPERATION.
+    (a) Findings.--Section 917(a) of the Energy Independence and 
+Security Act of 2007 (42 U.S.C. 17337(a)) is amended--
+            (1) in paragraph (1), by striking ``renewable'' and 
+        inserting ``covered'';
+            (2) in paragraph (4)--
+                    (A) by striking ``possible many'' and inserting 
+                ``possible--
+                    ``(A) many''; and
+                    (B) by adding at the end the following: ``and
+                    ``(B) significant contributions to the development 
+                of renewable energy and energy efficiency through the 
+                established programs of the United States-Israel 
+                Binational Industrial Research and Development 
+                Foundation and the United States-Israel Binational 
+                Science Foundation;'';
+            (3) in paragraph (6)--
+[[Page 128 STAT. 4079]]
+                    (A) by striking ``renewable'' and inserting 
+                ``covered''; and
+                    (B) by striking ``and'' at the end;
+            (4) in paragraph (7)--
+                    (A) by striking ``renewable'' and inserting 
+                ``covered''; and
+                    (B) by striking the period at the end and inserting 
+                a semicolon; and
+            (5) by adding at the end the following:
+            ``(8) United States-Israel energy cooperation and the 
+        development of natural resources by Israel are in the strategic 
+        interest of the United States;
+            ``(9) Israel is a strategic partner of the United States in 
+        water technology;
+            ``(10) the United States can play a role in assisting Israel 
+        with regional safety and security issues;
+            ``(11) the National Science Foundation of the United States, 
+        to the extent consistent with the National Science Foundation's 
+        mission, should collaborate with the Israel Science Foundation 
+        and the United States-Israel Binational Science Foundation;
+            ``(12) the United States and Israel should strive to develop 
+        more robust academic cooperation in--
+                    ``(A) energy innovation technology and engineering;
+                    ``(B) water science;
+                    ``(C) technology transfer; and
+                    ``(D) analysis of emerging geopolitical 
+                implications, crises and threats from foreign natural 
+                resource and energy acquisitions, and the development of 
+                domestic resources as a response;
+            ``(13) the United States supports the goals of the 
+        Alternative Fuels Administration of Israel with respect to 
+        expanding the use of alternative fuels;
+            ``(14) the United States strongly urges open dialogue and 
+        continued mechanisms for regular engagement and encourages 
+        further cooperation between applicable departments, agencies, 
+        ministries, institutions of higher education, and the private 
+        sector of the United States and Israel on energy security 
+        issues, including--
+                    ``(A) identifying policy priorities associated with 
+                the development of natural resources of Israel;
+                    ``(B) discussing and sharing best practices to 
+                secure cyber energy infrastructure and other energy 
+                security matters;
+                    ``(C) leveraging natural gas to positively impact 
+                regional stability;
+                    ``(D) issues relating to the energy-water nexus, 
+                including improving energy efficiency and the overall 
+                performance of water technologies through research and 
+                development in water desalination, wastewater treatment 
+                and reclamation, water treatment in gas and oil 
+                production processes, and other water treatment 
+                refiners;
+                    ``(E) technical and environmental management of 
+                deep-water exploration and production;
+                    ``(F) emergency response and coastal protection and 
+                restoration;
+                    ``(G) academic outreach and engagement;
+[[Page 128 STAT. 4080]]
+                    ``(H) private sector and business development 
+                engagement;
+                    ``(I) regulatory consultations;
+                    ``(J) leveraging alternative transportation fuels 
+                and technologies; and
+                    ``(K) any other areas determined appropriate by the 
+                United States and Israel;
+            ``(15) the United States--
+                    ``(A) acknowledges the achievements and importance 
+                of the Binational Industrial Research and Development 
+                Foundation and the United States-Israel Binational 
+                Science Foundation; and
+                    ``(B) supports continued multiyear funding to ensure 
+                the continuity of the programs of the foundations 
+                specified in subparagraph (A); and
+            ``(16) the United States and Israel have a shared interest 
+        in addressing immediate, near-term, and long-term energy, energy 
+        poverty, energy independence, and environmental challenges 
+        facing the United States and Israel, respectively.''.
+    (b) Grant Program.--Section 917(b) of the Energy Independence and 
+Security Act of 2007 (42 U.S.C. 17337(b)(1)) is amended--
+            (1) in paragraph (1), by striking ``renewable energy or 
+        energy efficiency'' and inserting ``covered energy'';
+            (2) in paragraph (2)--
+                    (A) in subparagraph (F), by striking ``and'' at the 
+                end;
+                    (B) in subparagraph (G), by striking the period at 
+                the end and inserting a semicolon; and
+                    (C) by adding at the end the following:
+                    ``(H) natural gas energy, including conventional and 
+                unconventional natural gas technologies and other 
+                associated technologies, and natural gas projects 
+                conducted by or in conjunction with the United States-
+                Israel Binational Science Foundation and the United 
+                States-Israel Binational Industrial Research and 
+                Development Foundation; and
+                    ``(I) improvement of energy efficiency and the 
+                overall performance of water technologies through 
+                research and development in water desalination, 
+                wastewater treatment and reclamation, and other water 
+                treatment refiners.''; and
+            (3) in paragraph (3)(A), by striking ``energy efficiency or 
+        renewable'' and inserting ``covered''.
+    (c) International Partnerships; Regional Energy Cooperation.--
+            (1) International partnerships.--Section 917 of the Energy 
+        Independence and Security Act of 2007 (42 U.S.C. 17337) is 
+        amended--
+                    (A) by striking subsection (d);
+                    (B) by redesignating subsection (c) as subsection 
+                (e);
+                    (C) by inserting after subsection (b) the following:
+    ``(c) International Partnerships.--
+            ``(1) &lt;&lt;NOTE: Contracts.&gt;&gt; In general.--The Secretary, 
+        subject to the availability of appropriations, may enter into 
+        cooperative agreements supporting and enhancing dialogue and 
+        planning involving international partnerships between the 
+        Department, including National Laboratories of the Department, 
+        and the Government of Israel and its ministries, offices, and 
+        institutions.
+            ``(2) Federal share.--The Secretary may not pay more than 50 
+        percent of Federal share of the costs of implementing
+[[Page 128 STAT. 4081]]
+        cooperative agreements entered into pursuant to paragraph (1).
+            ``(3) Annual reports.--If the Secretary enters into 
+        agreements authorized by paragraph (1), the Secretary shall 
+        submit an annual report to the Committee on Energy and Natural 
+        Resources of the Senate, the Committee on Foreign Relations of 
+        the Senate, the Committee on Appropriations of the Senate, the 
+        Committee on Energy and Commerce of the House of 
+        Representatives, the Committee on Science, Space, and Technology 
+        of the House of Representatives, the Committee on Foreign 
+        Affairs of the House of Representatives, and the Committee on 
+        Appropriations of the House of Representatives that describes--
+                    ``(A) actions taken to implement such agreements; 
+                and
+                    ``(B) any projects undertaken pursuant to such 
+                agreements.
+    ``(d) &lt;&lt;NOTE: Establishment.&gt;&gt; United States-Israel Energy Center.--
+The Secretary may establish a joint United States-Israel Energy Center 
+in the United States leveraging the experience, knowledge, and expertise 
+of institutions of higher education and entities in the private sector, 
+among others, in offshore energy development to further dialogue and 
+collaboration to develop more robust academic cooperation in energy 
+innovation technology and engineering, water science, technology 
+transfer, and analysis of emerging geopolitical implications, crises and 
+threats from foreign natural resource and energy acquisitions, and the 
+development of domestic resources as a response.''; and
+                    (D) in subsection (e), as redesignated, by striking 
+                ``the date that is 7 years after the date of enactment 
+                of this Act'' and inserting ``September 30, 2024''.
+            (2) &lt;&lt;NOTE: 22 USC 8606 note.&gt;&gt; Constructive regional energy 
+        cooperation.--The Secretary of State shall continue the ongoing 
+        diplomacy efforts of the Secretary of State in--
+                    (A) engaging and supporting the energy security of 
+                Israel; and
+                    (B) promoting constructive regional energy 
+                cooperation in the Eastern Mediterranean.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--S. 2673:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Sept. 18, considered and passed Senate.
+            Dec. 3, considered and passed House.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -13245,7 +13652,42 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5462/text?s=1&amp;r=60&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 294]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 4009]]
+Public Law 113-294
+113th Congress
+                                 An Act
+To amend title 49, United States Code, to provide for limitations on the 
+      fees charged to passengers of air carriers. &lt;&lt;NOTE: Dec. 19, 
+                         2014 -  [H.R. 5462]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. LIMITATION ON FEES CHARGED TO PASSENGERS OF AIR 
+                              CARRIERS.
+    (a) In General.--Subsection (c) of section 44940 of title 49, United 
+States Code, is amended to read as follows:
+    ``(c) Limitation on Fee.--
+            ``(1) Amount.--Fees imposed under subsection (a)(1) shall be 
+        $5.60 per one-way trip in air transportation or intrastate air 
+        transportation that originates at an airport in the United 
+        States, except that the fee imposed per round trip shall not 
+        exceed $11.20.
+            ``(2) Definition of round trip.--In this subsection, the 
+        term `round trip' means a trip on an air travel itinerary that 
+        terminates or has a stopover at the origin point (or co-
+        terminal).''.
+    (b) &lt;&lt;NOTE: 49 USC 44940 note.&gt;&gt; Applicability.--The amendment made 
+by subsection (a) shall apply with respect to a trip in air 
+transportation or intrastate air transportation that is purchased on or 
+after the date of the enactment of this Act.
+    Approved December 19, 2014.
+LEGISLATIVE HISTORY--H.R. 5462:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Sept. 16, 17, considered and passed House.
+            Dec. 4, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -13287,7 +13729,463 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2901/text?s=1&amp;r=61&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 289]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 3283]]
+Public Law 113-289
+113th Congress
+                                 An Act
+  To strengthen implementation of the Senator Paul Simon Water for the 
+    Poor Act of 2005 by improving the capacity of the United States 
+Government to implement, leverage, and monitor and evaluate programs to 
+     provide first-time or improved access to safe drinking water, 
+   sanitation, and hygiene to the world's poorest on an equitable and 
+      sustainable basis, and for other purposes. &lt;&lt;NOTE: Dec. 19, 
+                         2014 -  [H.R. 2901]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Senator Paul 
+Simon Water for the World Act of 2014.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 22 USC 2151 note.&gt;&gt;  SHORT TITLE.
+    This Act may be cited as the ``Senator Paul Simon Water for the 
+World Act of 2014''.
+SEC. 2. SENSE OF CONGRESS.
+    It is the sense of Congress that--
+            (1) water and sanitation are critically important resources 
+        that impact many other aspects of human life; and
+            (2) the United States should be a global leader in helping 
+        provide sustainable access to clean water and sanitation for the 
+        world's most vulnerable populations.
+SEC. 3. CLARIFICATION OF ASSISTANCE TO PROVIDE SAFE WATER AND 
+                    SANITATION TO INCLUDE HYGIENE.
+    Chapter 1 of part I of the Foreign Assistance Act of 1961 is 
+amended--
+            (1) by redesignating section 135 (22 U.S.C. 2152h), as added 
+        by section 5(a) of the Senator Paul Simon Water for the Poor Act 
+        of 2005 (Public Law 109-121; 22 U.S.C. 2152h note), as section 
+        136; and
+            (2) in section 136, as redesignated--
+                    (A) in the section heading, by striking ``and 
+                sanitation'' and inserting ``, sanitation, and 
+                hygiene''; and
+                    (B) in subsection (b), by striking ``and 
+                sanitation'' and inserting ``, sanitation, and 
+                hygiene''.
+SEC. 4. IMPROVING COORDINATION AND OVERSIGHT OF SAFE WATER, 
+                    SANITATION AND HYGIENE PROJECTS AND 
+                    ACTIVITIES.
+    Section 136 of the Foreign Assistance Act of 1961, as redesignated 
+and amended by this Act, is further amended by adding at the end the 
+following:
+    ``(e) Coordination and Oversight.--
+            ``(1) USAID global water coordinator.--
+                    ``(A) Designation.--The Administrator of the United 
+                States Agency for International Development (referred to 
+                in this paragraph as `USAID') or the Administrator's 
+                designee, who shall be a current USAID employee serving
+[[Page 128 STAT. 3284]]
+                in a career or non-career position in the Senior 
+                Executive Service or at the level of a Deputy Assistant 
+                Administrator or higher, shall serve concurrently as the 
+                USAID Global Water Coordinator (referred to in this 
+                subsection as the `Coordinator').
+                    ``(B) Specific duties.--The Coordinator shall--
+                          ``(i) provide direction and guidance to, 
+                      coordinate, and oversee the projects and programs 
+                      of USAID authorized under this section;
+                          ``(ii) lead the implementation and revision, 
+                      not less frequently than once every 5 years, of 
+                      USAID's portion of the Global Water Strategy 
+                      required under subsection (j);
+                          ``(iii) seek--
+                                    ``(I) to expand the capacity of 
+                                USAID, subject to the availability of 
+                                appropriations, including through the 
+                                designation of a lead subject matter 
+                                expert selected from among USAID staff 
+                                in each high priority country designated 
+                                pursuant to subsection (h);
+                                    ``(II) to implement such programs 
+                                and activities;
+                                    ``(III) to take advantage of 
+                                economies of scale; and
+                                    ``(IV) to conduct more efficient and 
+                                effective projects and programs;
+                          ``(iv) coordinate with the Department of State 
+                      and USAID staff in each high priority country 
+                      designated pursuant to subsection (h) to ensure 
+                      that USAID activities and projects, USAID program 
+                      planning and budgeting documents, and USAID 
+                      country development strategies reflect and seek to 
+                      implement--
+                                    ``(I) the safe water, sanitation, 
+                                and hygiene objectives established in 
+                                the strategy required under subsection 
+                                (j), including objectives relating to 
+                                the management of water resources; and
+                                    ``(II) international best practices 
+                                relating to--
+                                            ``(aa) increasing access to 
+                                        safe water and sanitation;
+                                            ``(bb) conducting hygiene-
+                                        related activities; and
+                                            ``(cc) ensuring appropriate 
+                                        management of water resources; 
+                                        and
+                          ``(v) develop appropriate benchmarks, 
+                      measurable goals, performance metrics, and 
+                      monitoring and evaluation plans for USAID projects 
+                      and programs authorized under this section.
+            ``(2) Department of state special coordinator for water 
+        resources.--
+                    ``(A) Designation.--The Secretary of State or the 
+                Secretary's designee, who shall be a current employee of 
+                the Department of State serving in a career or non-
+                career position in the Senior Executive Service or at 
+                the level of a Deputy Assistant Secretary or higher, 
+                shall serve concurrently as the Department of State 
+                Special Advisor for Water Resources (referred to in this 
+                paragraph as the `Special Advisor').
+[[Page 128 STAT. 3285]]
+                    ``(B) Specific duties.--The Special Advisor shall--
+                          ``(i) provide direction and guidance to, 
+                      coordinate, and oversee the projects and programs 
+                      of the Department of State authorized under this 
+                      section;
+                          ``(ii) lead the implementation and revision, 
+                      not less than every 5 years, of the Department of 
+                      State's portion of the Global Water Strategy 
+                      required under subsection (j);
+                          ``(iii) prioritize and coordinate the 
+                      Department of State's international engagement on 
+                      the allocation, distribution, and access to global 
+                      fresh water resources and policies related to such 
+                      matters;
+                          ``(iv) coordinate with United States Agency 
+                      for International Development and Department of 
+                      State staff in each high priority country 
+                      designated pursuant to subsection (h) to ensure 
+                      that United States diplomatic efforts related to 
+                      safe water, sanitation, and hygiene, including 
+                      efforts related to management of water resources 
+                      and watersheds and the resolution of intra- and 
+                      trans-boundary conflicts over water resources, are 
+                      consistent with United States national interests; 
+                      and
+                          ``(v) represent the views of the United States 
+                      Government on the allocation, distribution, and 
+                      access to global fresh water resources and 
+                      policies related to such matters in key 
+                      international fora, including key diplomatic, 
+                      development-related, and scientific organizations.
+            ``(3) Additional nature of duties and restriction on 
+        additional or supplemental compensation.--The responsibilities 
+        and specific duties of the Administrator of the United States 
+        Agency for International Development (or the Administrator's 
+        designee) and the Secretary of State (or the Secretary's 
+        designee) under paragraph (2) or (3), respectively, shall be in 
+        addition to any other responsibilities or specific duties 
+        assigned to such individuals. Such individuals shall receive no 
+        additional or supplemental compensation as a result of carrying 
+        out such responsibilities and specific duties under such 
+        paragraphs.''.
+SEC. 5. PROMOTING THE MAXIMUM IMPACT AND LONG-TERM SUSTAINABILITY 
+                    OF USAID SAFE WATER, SANITATION, AND HYGIENE-
+                    RELATED PROJECTS AND PROGRAMS.
+    Section 136 of the Foreign Assistance Act of 1961, as redesignated 
+and amended by this Act, is further amended by adding at the end the 
+following:
+    ``(f) Priorities and Criteria for Maximum Impact and Long-Term 
+Sustainability.--The Administrator of the United States Agency for 
+International Development shall ensure that the Agency for International 
+Development's projects and programs authorized under this section are 
+designed to achieve maximum impact and long-term sustainability by--
+            ``(1) prioritizing countries on the basis of the following 
+        clearly defined criteria and indicators, to the extent 
+        sufficient empirical data are available--
+                    ``(A) the proportion of the population using an 
+                unimproved drinking water source;
+[[Page 128 STAT. 3286]]
+                    ``(B) the total population using an unimproved 
+                drinking water source;
+                    ``(C) the proportion of the population without piped 
+                water access;
+                    ``(D) the proportion of the population using shared 
+                or other unimproved sanitation facilities;
+                    ``(E) the total population using shared or other 
+                unimproved sanitation facilities;
+                    ``(F) the proportion of the population practicing 
+                open defecation;
+                    ``(G) the total number of children younger than 5 
+                years of age who died from diarrheal disease;
+                    ``(H) the proportion of all deaths of children 
+                younger than 5 years of age resulting from diarrheal 
+                disease;
+                    ``(I) the national government's capacity, 
+                capability, and commitment to work with the United 
+                States to improve access to safe water, sanitation, and 
+                hygiene, including--
+                          ``(i) the government's capacity and commitment 
+                      to developing the indigenous capacity to provide 
+                      safe water and sanitation without the assistance 
+                      of outside donors; and
+                          ``(ii) the degree to which such government--
+                                    ``(I) identifies such efforts as a 
+                                priority; and
+                                    ``(II) allocates resources to such 
+                                efforts;
+                    ``(J) the availability of opportunities to leverage 
+                existing public, private, or other donor investments in 
+                the water, sanitation, and hygiene sectors, including 
+                investments in the management of water resources; and
+                    ``(K) the likelihood of making significant 
+                improvements on a per capita basis on the health and 
+                educational opportunities available to women as a result 
+                of increased access to safe water, sanitation, and 
+                hygiene, including access to appropriate facilities at 
+                primary and secondary educational institutions seeking 
+                to ensure that communities benefitting from such 
+                projects and activities develop the indigenous capacity 
+                to provide safe water and sanitation without the 
+                assistance of outside donors;
+            ``(2) prioritizing and measuring, including through rigorous 
+        monitoring and evaluating mechanisms, the extent to which such 
+        project or program--
+                    ``(A) furthers significant improvements in--
+                          ``(i) the criteria set forth in subparagraphs 
+                      (A) through (H) of paragraph (1);
+                          ``(ii) the health and educational 
+                      opportunities available to women as a result of 
+                      increased access to safe water, sanitation, and 
+                      hygiene, including access to appropriate 
+                      facilities at primary and secondary educational 
+                      institutions; and
+                          ``(iii) the indigenous capacity of the host 
+                      nation or community to provide safe water and 
+                      sanitation without the assistance of outside 
+                      donors;
+                    ``(B) is designed, as part of the provision of safe 
+                water and sanitation to the local community--
+                          ``(i) to be financially independent over the 
+                      long term, focusing on local ownership and 
+                      sustainability;
+                          ``(ii) to be undertaken in conjunction with 
+                      relevant public institutions or private 
+                      enterprises;
+[[Page 128 STAT. 3287]]
+                          ``(iii) to identify and empower local 
+                      individuals or institutions to be responsible for 
+                      the effective management and maintenance of such 
+                      project or program; and
+                          ``(iv) to provide safe water or expertise or 
+                      capacity building to those identified parties or 
+                      institutions for the purposes of developing a plan 
+                      and clear responsibilities for the effective 
+                      management and maintenance of such project or 
+                      program;
+                    ``(C) leverages existing public, private, or other 
+                donor investments in the water, sanitation, and hygiene 
+                sectors, including investments in the management of 
+                water resources;
+                    ``(D) avoids duplication of efforts with other 
+                United States Government agencies or departments or 
+                those of other nations or nongovernmental organizations;
+                    ``(E) coordinates such efforts with the efforts of 
+                other United States Government agencies or departments 
+                or those of other nations or nongovernmental 
+                organizations directed at assisting refugees and other 
+                displaced individuals; and
+                    ``(F) involves consultation with appropriate 
+                stakeholders, including communities directly affected by 
+                the lack of access to clean water, sanitation or 
+                hygiene, and other appropriate nongovernmental 
+                organizations; and
+            ``(3) seeking to further the strategy required under 
+        subsection (j) after 2018.
+    ``(g) Use of Current and Improved Empirical Data Collection and 
+Review of New Standardized Indicators.--
+            ``(1) In general.--The Administrator of the United States 
+        Agency for International Development is authorized to use 
+        current and improved empirical data collection--
+                    ``(A) to meet the health-based prioritization 
+                criteria established pursuant to subsection (f)(1); and
+                    ``(B) to review new standardized indicators in 
+                evaluating progress towards meeting such criteria.
+            ``(2) Consultation and notice.--The Administrator shall--
+                    ``(A) regularly consult with the appropriate 
+                congressional committees; and
+                    ``(B) &lt;&lt;NOTE: Deadline.&gt;&gt;  notify such committees 
+                not later than 30 days before using current or improved 
+                empirical data collection for the review of any new 
+                standardized indicators under paragraph (1) for the 
+                purposes of carrying out this section.
+    ``(h) Designation of High Priority Countries.--
+            ``(1) &lt;&lt;NOTE: Deadline. President.&gt;&gt;  Initial designation.--
+        Not later than October 1, 2015, the President shall--
+                    ``(A) designate, on the basis of the criteria set 
+                forth in subsection (f)(1) not fewer than 10 countries 
+                as high priority countries to be the primary recipients 
+                of United States Government assistance authorized under 
+                this section during fiscal year 2016; and
+                    ``(B) &lt;&lt;NOTE: Notification.&gt;&gt;  notify the 
+                appropriate congressional committees of such 
+                designations.
+            ``(2) Annual designations.--
+[[Page 128 STAT. 3288]]
+                    ``(A) In general.--Except as provided in 
+                subparagraph (B), the President shall annually make new 
+                designations pursuant to the criteria set forth in 
+                paragraph (1).
+                    ``(B) Designations after fiscal year 2018.--
+                Beginning with fiscal year 2019, designations under 
+                paragraph (1) shall be made--
+                          ``(i) based upon the criteria set forth in 
+                      subsection (f)(1); and
+                          ``(ii) in furtherance of the strategy required 
+                      under subsection (j).
+    ``(i) Targeting of Projects and Programs to Areas of Greatest 
+Need.--
+            ``(1) &lt;&lt;NOTE: Deadline. Notification.&gt;&gt;  In general.--Not 
+        later than 15 days before the obligation of any funds for water, 
+        sanitation, or hygiene projects or programs pursuant to this 
+        section in countries that are not ranked in the top 50 countries 
+        based upon the WASH Needs Index, the Administrator of the United 
+        States Agency for International Development shall notify the 
+        appropriate congressional committees of the planned obligation 
+        of such funds.
+            ``(2) Defined term.--In this subsection and in subsection 
+        (j), the term `WASH Needs Index' means the needs index for 
+        water, sanitation, or hygiene projects or programs authorized 
+        under this section that has been developed using the criteria 
+        and indicators described in subparagraphs (A) through (H) of 
+        subsection (f)(1).''.
+SEC. 6. UNITED STATES STRATEGY TO INCREASE APPROPRIATE LONG-TERM 
+                    SUSTAINABILITY AND ACCESS TO SAFE WATER, 
+                    SANITATION, AND HYGIENE.
+    (a) In General.--Section 136 of the Foreign Assistance Act of 1961, 
+as redesignated and amended by this Act, is further amended by adding at 
+the end the following:
+    ``(j) Global Water Strategy.--
+            ``(1) &lt;&lt;NOTE: Deadlines.&gt;&gt;  In general.--Not later than 
+        October 1, 2017, October 1, 2022, and October 1, 2027, the 
+        President, acting through the Secretary of State, the 
+        Administrator of the United States Agency for International 
+        Development, and the heads of other Federal departments and 
+        agencies, as appropriate, shall submit a single government-wide 
+        Global Water Strategy to the appropriate congressional 
+        committees that provides a detailed description of how the 
+        United States intends--
+                    ``(A) to increase access to safe water, sanitation, 
+                and hygiene in high priority countries designated 
+                pursuant to subsection (h), including a summary of the 
+                WASH Needs Index and the specific weighting of empirical 
+                data and other definitions used to develop and rank 
+                countries on the WASH Needs Index;
+                    ``(B) to improve the management of water resources 
+                and watersheds in such countries; and
+                    ``(C) to work to prevent and resolve, to the 
+                greatest degree possible, both intra- and trans-boundary 
+                conflicts over water resources in such countries.
+            ``(2) Agency-specific plans.--The Global Water Strategy 
+        shall include an agency-specific plan--
+[[Page 128 STAT. 3289]]
+                    ``(A) from the United States Agency for 
+                International Development that describes specifically 
+                how the Agency for International Development will--
+                          ``(i) carry out the duties and 
+                      responsibilities assigned to the Global Water 
+                      Coordinator under subsection (e)(1);
+                          ``(ii) ensure that the Agency for 
+                      International Development's projects and programs 
+                      authorized under this section are designed to 
+                      achieve maximum impact and long-term 
+                      sustainability, including by implementing the 
+                      requirements described in subsection (f); and
+                          ``(iii) increase access to safe water, 
+                      sanitation, and hygiene in high priority countries 
+                      designated pursuant to subsection (h);
+                    ``(B) from the Department of State that describes 
+                specifically how the Department of State will--
+                          ``(i) carry out the duties and 
+                      responsibilities assigned to the Special 
+                      Coordinator for Water Resources under subsection 
+                      (e)(2); and
+                          ``(ii) ensure that the Department's activities 
+                      authorized under this section are designed--
+                                    ``(I) to improve management of water 
+                                resources and watersheds in countries 
+                                designated pursuant to subsection (h); 
+                                and
+                                    ``(II) to prevent and resolve, to 
+                                the greatest degree possible, both 
+                                intra- and trans-boundary conflicts over 
+                                water resources in such countries; and
+                    ``(C) from other Federal departments and agencies, 
+                as appropriate, that describes the contributions of the 
+                departments and agencies to implementing the Global 
+                Water Strategy.
+            ``(3) Individualized plans for high priority countries.--For 
+        each high priority country designated pursuant to subsection 
+        (h), the Administrator of the United States Agency for 
+        International Development shall--
+                    ``(A) develop a costed, evidence-based, and results-
+                oriented plan that--
+                          ``(i) seeks to achieve the purposes of this 
+                      section; and
+                          ``(ii) meets the requirements under subsection 
+                      (f); and
+                    ``(B) include such plan in an appendix to the Global 
+                Water Strategy required under paragraph (1).
+            ``(4) First time access reporting requirement.--The Global 
+        Water Strategy shall specifically describe the target percentage 
+        of funding for each fiscal year covered by such strategy to be 
+        directed toward projects aimed at providing first-time access to 
+        safe water and sanitation.
+            ``(5) Performance indicators.--The Global Water Strategy 
+        shall include specific and measurable goals, benchmarks, 
+        performance metrics, timetables, and monitoring and evaluation 
+        plans required to be developed by the Administrator of the 
+        United States Agency for International Development pursuant to 
+        subsection (e)(1)(B)(v).
+[[Page 128 STAT. 3290]]
+            ``(6) Consultation and best practices.--The Global Water 
+        Strategy shall--
+                    ``(A) be developed in consultation with the heads of 
+                other appropriate Federal departments and agencies; and
+                    ``(B) incorporate best practices from the 
+                international development community.
+    ``(k) Definitions.--In this section--
+            ``(1) the term `appropriate congressional committees' 
+        means--
+                    ``(A) the Committee on Foreign Relations of the 
+                Senate;
+                    ``(B) the Committee on Appropriations of the Senate;
+                    ``(C) the Committee on Foreign Affairs of the House 
+                of Representatives; and
+                    ``(D) the Committee on Appropriations of the House 
+                of Representatives; and
+            ``(2) the term `long-term sustainability' refers to the 
+        ability of a service delivery system, community, partner, or 
+        beneficiary to maintain, over time, any water, sanitation, or 
+        hygiene project that receives funding pursuant to the amendments 
+        made by the Senator Paul Simon Water for the World Act of 
+        2014.''.
+    (b) &lt;&lt;NOTE: Deadline.&gt;&gt;  Department of State Agency-Specific Plan.--
+Not later than 180 days after the date of enactment of this Act, the 
+Secretary of State shall submit an agency-specific plan to the 
+appropriate congressional committees (as defined in section 136(k) of 
+the Foreign Assistance Act of 1961, as added by subsection (a)) that 
+meets the requirements of section 136(j)(2)(B) of such Act, as added by 
+subsection (a).
+    (c) &lt;&lt;NOTE: Repeal.&gt;&gt;  Conforming Amendment.--Section 6 of the 
+Senator Paul Simon Water for the Poor Act of 2005 (Public Law 109-121; 
+22 U.S.C. 2152h note) is repealed.
+    Approved December 19, 2014.
+LEGISLATIVE HISTORY--H.R. 2901:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 8, considered and passed House.
+            Dec. 15, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -13329,7 +14227,585 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5771/text?s=1&amp;r=62&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 295]
+[From the U.S. Government Publishing Office]
+[[Page 4009]]
+                   TAX INCREASE PREVENTION AMENDMENTS
+[[Page 128 STAT. 4010]]
+Public Law 113-295
+113th Congress
+                                 An Act
+ To amend the Internal Revenue Code of 1986 to extend certain expiring 
+provisions and make technical corrections, to amend the Internal Revenue 
+     Code of 1986 to provide for the tax treatment of ABLE accounts 
+  established under State programs for the care of family members with 
+  disabilities, and for other purposes. &lt;&lt;NOTE: Dec. 19, 2014 -  [H.R. 
+                                5771]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+DIVISION A-- &lt;&lt;NOTE: Tax Increase Prevention Act of 2014.&gt;&gt; TAX INCREASE 
+PREVENTION ACT OF 2014
+SECTION 1. SHORT TITLE, ETC.
+    (a) &lt;&lt;NOTE: 26 USC 1 note.&gt;&gt;  Short Title.--This division may be 
+cited as the ``Tax Increase Prevention Act of 2014''.
+    (b) Amendment of 1986 Code.--Except as otherwise expressly provided, 
+whenever in this Act an amendment or repeal is expressed in terms of an 
+amendment to, or repeal of, a section or other provision, the reference 
+shall be considered to be made to a section or other provision of the 
+Internal Revenue Code of 1986.
+    (c) Table of Contents.--The table of contents for this Act is as 
+follows:
+             DIVISION A--TAX INCREASE PREVENTION ACT OF 2014
+Sec. 1. Short title, etc.
+                  TITLE I--CERTAIN EXPIRING PROVISIONS
+                  Subtitle A--Individual Tax Extenders
+Sec. 101. Extension of deduction for certain expenses of elementary and 
+           secondary school teachers.
+Sec. 102. Extension of exclusion from gross income of discharge of 
+           qualified principal residence indebtedness.
+Sec. 103. Extension of parity for employer-provided mass transit and 
+           parking benefits.
+Sec. 104. Extension of mortgage insurance premiums treated as qualified 
+           residence interest.
+Sec. 105. Extension of deduction of State and local general sales taxes.
+Sec. 106. Extension of special rule for contributions of capital gain 
+           real property made for conservation purposes.
+Sec. 107. Extension of above-the-line deduction for qualified tuition 
+           and related expenses.
+Sec. 108. Extension of tax-free distributions from individual retirement 
+           plans for charitable purposes.
+                   Subtitle B--Business Tax Extenders
+Sec. 111. Extension of research credit.
+Sec. 112. Extension of temporary minimum low-income housing tax credit 
+           rate for non-federally subsidized buildings.
+Sec. 113. Extension of military housing allowance exclusion for 
+           determining whether a tenant in certain counties is low-
+           income.
+[[Page 128 STAT. 4011]]
+Sec. 114. Extension of Indian employment tax credit.
+Sec. 115. Extension of new markets tax credit.
+Sec. 116. Extension of railroad track maintenance credit.
+Sec. 117. Extension of mine rescue team training credit.
+Sec. 118. Extension of employer wage credit for employees who are active 
+           duty members of the uniformed services.
+Sec. 119. Extension of work opportunity tax credit.
+Sec. 120. Extension of qualified zone academy bonds.
+Sec. 121. Extension of classification of certain race horses as 3-year 
+           property.
+Sec. 122. Extension of 15-year straight-line cost recovery for qualified 
+           leasehold improvements, qualified restaurant buildings and 
+           improvements, and qualified retail improvements.
+Sec. 123. Extension of 7-year recovery period for motorsports 
+           entertainment complexes.
+Sec. 124. Extension of accelerated depreciation for business property on 
+           an Indian reservation.
+Sec. 125. Extension of bonus depreciation.
+Sec. 126. Extension of enhanced charitable deduction for contributions 
+           of food inventory.
+Sec. 127. Extension of increased expensing limitations and treatment of 
+           certain real property as section 179 property.
+Sec. 128. Extension of election to expense mine safety equipment.
+Sec. 129. Extension of special expensing rules for certain film and 
+           television productions.
+Sec. 130. Extension of deduction allowable with respect to income 
+           attributable to domestic production activities in Puerto 
+           Rico.
+Sec. 131. Extension of modification of tax treatment of certain payments 
+           to controlling exempt organizations.
+Sec. 132. Extension of treatment of certain dividends of regulated 
+           investment companies.
+Sec. 133. Extension of RIC qualified investment entity treatment under 
+           FIRPTA.
+Sec. 134. Extension of subpart F exception for active financing income.
+Sec. 135. Extension of look-thru treatment of payments between related 
+           controlled foreign corporations under foreign personal 
+           holding company rules.
+Sec. 136. Extension of temporary exclusion of 100 percent of gain on 
+           certain small business stock.
+Sec. 137. Extension of basis adjustment to stock of S corporations 
+           making charitable contributions of property.
+Sec. 138. Extension of reduction in S-corporation recognition period for 
+           built-in gains tax.
+Sec. 139. Extension of empowerment zone tax incentives.
+Sec. 140. Extension of temporary increase in limit on cover over of rum 
+           excise taxes to Puerto Rico and the Virgin Islands.
+Sec. 141. Extension of American Samoa economic development credit.
+                    Subtitle C--Energy Tax Extenders
+Sec. 151. Extension of credit for nonbusiness energy property.
+Sec. 152. Extension of second generation biofuel producer credit.
+Sec. 153. Extension of incentives for biodiesel and renewable diesel.
+Sec. 154. Extension of production credit for Indian coal facilities 
+           placed in service before 2009.
+Sec. 155. Extension of credits with respect to facilities producing 
+           energy from certain renewable resources.
+Sec. 156. Extension of credit for energy-efficient new homes.
+Sec. 157. Extension of special allowance for second generation biofuel 
+           plant property.
+Sec. 158. Extension of energy efficient commercial buildings deduction.
+Sec. 159. Extension of special rule for sales or dispositions to 
+           implement FERC or State electric restructuring policy for 
+           qualified electric utilities.
+Sec. 160. Extension of excise tax credits relating to certain fuels.
+Sec. 161. Extension of credit for alternative fuel vehicle refueling 
+           property.
+Subtitle D--Extenders Relating to Multiemployer Defined Benefit Pension 
+                                  Plans
+Sec. 171. Extension of automatic extension of amortization periods.
+Sec. 172. Extension of shortfall funding method and endangered and 
+           critical rules.
+                     TITLE II--TECHNICAL CORRECTIONS
+Sec. 201. Short title.
+Sec. 202. Amendments relating to American Taxpayer Relief Act of 2012.
+Sec. 203. Amendment relating to Middle Class Tax Relief and Job Creation 
+           Act of 2012.
+[[Page 128 STAT. 4012]]
+Sec. 204. Amendment relating to FAA Modernization and Reform Act of 
+           2012.
+Sec. 205. Amendments relating to Regulated Investment Company 
+           Modernization Act of 2010.
+Sec. 206. Amendments relating to Tax Relief, Unemployment Insurance 
+           Reauthorization, and Job Creation Act of 2010.
+Sec. 207. Amendments relating to Creating Small Business Jobs Act of 
+           2010.
+Sec. 208. Clerical amendment relating to Hiring Incentives to Restore 
+           Employment Act.
+Sec. 209. Amendments relating to American Recovery and Reinvestment Tax 
+           Act of 2009.
+Sec. 210. Amendments relating to Energy Improvement and Extension Act of 
+           2008.
+Sec. 211. Amendments relating to Tax Extenders and Alternative Minimum 
+           Tax Relief Act of 2008.
+Sec. 212. Clerical amendments relating to Housing Assistance Tax Act of 
+           2008.
+Sec. 213. Amendments and provision relating to Heroes Earnings 
+           Assistance and Relief Tax Act of 2008.
+Sec. 214. Amendments relating to Economic Stimulus Act of 2008.
+Sec. 215. Amendments relating to Tax Technical Corrections Act of 2007.
+Sec. 216. Amendment relating to Tax Relief and Health Care Act of 2006.
+Sec. 217. Amendment relating to Safe, Accountable, Flexible, Efficient 
+           Transportation Equity Act of 2005: A Legacy for Users.
+Sec. 218. Amendments relating to Energy Tax Incentives Act of 2005.
+Sec. 219. Amendments relating to American Jobs Creation Act of 2004.
+Sec. 220. Other clerical corrections.
+Sec. 221. Deadwood provisions.
+                 TITLE III--JOINT COMMITTEE ON TAXATION
+Sec. 301. Increased refund and credit threshold for Joint Committee on 
+           Taxation review of C corporation return.
+                       TITLE IV--BUDGETARY EFFECTS
+Sec. 401. Budgetary effects.
+       DIVISION B--ACHIEVING A BETTER LIFE EXPERIENCE ACT OF 2014
+Sec. 1. Short title; etc.
+                    TITLE I--QUALIFIED ABLE PROGRAMS
+Sec. 101. Purposes.
+Sec. 102. Qualified ABLE programs.
+Sec. 103. Treatment of ABLE accounts under certain Federal programs.
+Sec. 104. Treatment of ABLE accounts in bankruptcy.
+Sec. 105. Investment direction rule for 529 plans.
+                            TITLE II--OFFSETS
+Sec. 201. Correction to workers compensation offset age.
+Sec. 202. Accelerated application of relative value targets for 
+           misvalued services in the Medicare physician fee schedule.
+Sec. 203. Consistent treatment of vacuum erection systems in Medicare 
+           Parts B and D.
+Sec. 204. One-year delay of implementation of oral-only policy under 
+           Medicare ESRD prospective payment system.
+Sec. 205. Modification relating to Inland Waterways Trust Fund financing 
+           rate.
+Sec. 206. Certified professional employer organizations.
+Sec. 207. Exclusion of dividends from controlled foreign corporations 
+           from the definition of personal holding company income for 
+           purposes of the personal holding company rules.
+Sec. 208. Inflation adjustment for certain civil penalties under the 
+           Internal Revenue Code of 1986.
+Sec. 209. Increase in continuous levy.
+                  TITLE I--CERTAIN EXPIRING PROVISIONS
+                  Subtitle A--Individual Tax Extenders
+SEC. 101. EXTENSION OF DEDUCTION FOR CERTAIN EXPENSES OF 
+                        ELEMENTARY AND SECONDARY SCHOOL TEACHERS.
+    (a) In General.--Subparagraph (D) of section 62(a)(2) &lt;&lt;NOTE: 26 USC 
+62.&gt;&gt;  is amended by striking ``or 2013'' and inserting ``2013, or 
+2014''.
+[[Page 128 STAT. 4013]]
+    (b) &lt;&lt;NOTE: 26 USC 62 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to taxable years beginning after December 
+31, 2013.
+SEC. 102. EXTENSION OF EXCLUSION FROM GROSS INCOME OF DISCHARGE OF 
+                        QUALIFIED PRINCIPAL RESIDENCE 
+                        INDEBTEDNESS.
+    (a) In General.--Subparagraph (E) of section 108(a)(1) &lt;&lt;NOTE: 26 
+USC 108.&gt;&gt;  is amended by striking ``January 1, 2014'' and inserting 
+``January 1, 2015''.
+    (b) &lt;&lt;NOTE: 26 USC 108 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to indebtedness discharged after December 
+31, 2013.
+SEC. 103. EXTENSION OF PARITY FOR EMPLOYER-PROVIDED MASS TRANSIT 
+                        AND PARKING BENEFITS.
+    (a) In General.--Paragraph (2) of section 132(f) is amended by 
+striking ``January 1, 2014'' and inserting ``January 1, 2015''.
+    (b) &lt;&lt;NOTE: 26 USC 132 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to months after December 31, 2013.
+SEC. 104. EXTENSION OF MORTGAGE INSURANCE PREMIUMS TREATED AS 
+                        QUALIFIED RESIDENCE INTEREST.
+    (a) In General.--Subclause (I) of section 163(h)(3)(E)(iv) is 
+amended by striking ``December 31, 2013'' and inserting ``December 31, 
+2014''.
+    (b) &lt;&lt;NOTE: 26 USC 163 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to amounts paid or accrued after December 
+31, 2013.
+SEC. 105. EXTENSION OF DEDUCTION OF STATE AND LOCAL GENERAL SALES 
+                        TAXES.
+    (a) In General.--Subparagraph (I) of section 164(b)(5) is amended by 
+striking ``January 1, 2014'' and inserting ``January 1, 2015''.
+    (b) &lt;&lt;NOTE: 26 USC 164 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to taxable years beginning after December 
+31, 2013.
+SEC. 106. EXTENSION OF SPECIAL RULE FOR CONTRIBUTIONS OF CAPITAL 
+                        GAIN REAL PROPERTY MADE FOR CONSERVATION 
+                        PURPOSES.
+    (a) In General.--Clause (vi) of section 170(b)(1)(E) is amended by 
+striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+    (b) Contributions by Certain Corporate Farmers and Ranchers.--Clause 
+(iii) of section 170(b)(2)(B) is amended by striking ``December 31, 
+2013'' and inserting ``December 31, 2014''.
+    (c) &lt;&lt;NOTE: 26 USC 170 note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to contributions made in taxable years 
+beginning after December 31, 2013.
+SEC. 107. EXTENSION OF ABOVE-THE-LINE DEDUCTION FOR QUALIFIED 
+                        TUITION AND RELATED EXPENSES.
+    (a) In General.--Subsection (e) of section 222 is amended by 
+striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 222 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to taxable years beginning after December 
+31, 2013.
+SEC. 108. EXTENSION OF TAX-FREE DISTRIBUTIONS FROM INDIVIDUAL 
+                        RETIREMENT PLANS FOR CHARITABLE PURPOSES.
+    (a) In General.--Subparagraph (F) of section 408(d)(8) is amended by 
+striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+[[Page 128 STAT. 4014]]
+    (b) &lt;&lt;NOTE: 26 USC 408 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to distributions made in taxable years 
+beginning after December 31, 2013.
+                   Subtitle B--Business Tax Extenders
+SEC. 111. EXTENSION OF RESEARCH CREDIT.
+    (a) In General.--Paragraph (1) of section 41(h) &lt;&lt;NOTE: 26 USC 
+41.&gt;&gt;  is amended by striking ``paid or incurred'' and all that follows 
+and inserting ``paid or incurred after December 31, 2014.''.
+    (b) Conforming Amendment.--Subparagraph (D) of section 45C(b)(1) is 
+amended to read as follows:
+                    ``(D) Special rule.--If section 41 is not in effect 
+                for any period, such section shall be deemed to remain 
+                in effect for such period for purposes of this 
+                paragraph.''.
+    (c) &lt;&lt;NOTE: 26 USC 41 note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to amounts paid or incurred after December 
+31, 2013.
+SEC. 112. EXTENSION OF TEMPORARY MINIMUM LOW-INCOME HOUSING TAX 
+                        CREDIT RATE FOR NON-FEDERALLY SUBSIDIZED 
+                        BUILDINGS.
+    (a) In General.--Subparagraph (A) of section 42(b)(2) is amended by 
+striking ``January 1, 2014'' and inserting ``January 1, 2015''.
+    (b) &lt;&lt;NOTE: 26 USC 42 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall take effect on January 1, 2014.
+SEC. 113. EXTENSION OF MILITARY HOUSING ALLOWANCE EXCLUSION FOR 
+                        DETERMINING WHETHER A TENANT IN CERTAIN 
+                        COUNTIES IS LOW-INCOME.
+    (a) In General.--Subsection (b) of section 3005 of the Housing 
+Assistance Tax Act of 2008 &lt;&lt;NOTE: 26 USC 142 note.&gt;&gt;  is amended by 
+striking ``January 1, 2014'' each place it appears and inserting 
+``January 1, 2015''.
+    (b) &lt;&lt;NOTE: 26 USC 142 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall take effect as if included in the enactment of 
+section 3005 of the Housing Assistance Tax Act of 2008.
+SEC. 114. EXTENSION OF INDIAN EMPLOYMENT TAX CREDIT.
+    (a) In General.--Subsection (f) of section 45A is amended by 
+striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+    (b) Effective Date.--The amendment made by this section shall apply 
+to taxable years beginning after December 31, 2013.
+SEC. 115. EXTENSION OF NEW MARKETS TAX CREDIT.
+    (a) In General.--Subparagraph (G) of section 45D(f)(1) is amended by 
+striking ``and 2013'' and inserting ``2013, and 2014''.
+    (b) Carryover of Unused Limitation.--Paragraph (3) of section 45D(f) 
+is amended by striking ``2018'' and inserting ``2019''.
+    (c) &lt;&lt;NOTE: 26 USC 45D note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to calendar years beginning after December 
+31, 2013.
+SEC. 116. EXTENSION OF RAILROAD TRACK MAINTENANCE CREDIT.
+    (a) In General.--Subsection (f) of section 45G is amended by 
+striking ``January 1, 2014'' and inserting ``January 1, 2015''.
+    (b) &lt;&lt;NOTE: 26 USC 45G note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to expenditures paid or incurred in taxable 
+years beginning after December 31, 2013.
+[[Page 128 STAT. 4015]]
+SEC. 117. EXTENSION OF MINE RESCUE TEAM TRAINING CREDIT.
+    (a) In General.--Subsection (e) of section 45N &lt;&lt;NOTE: 26 USC 
+45N.&gt;&gt;  is amended by striking ``December 31, 2013'' and inserting 
+``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 45N note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to taxable years beginning after December 
+31, 2013.
+SEC. 118. EXTENSION OF EMPLOYER WAGE CREDIT FOR EMPLOYEES WHO ARE 
+                        ACTIVE DUTY MEMBERS OF THE UNIFORMED 
+                        SERVICES.
+    (a) In General.--Subsection (f) of section 45P is amended by 
+striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 45P.&gt;&gt;  Effective Date.--The amendment made by 
+this section shall apply to payments made after December 31, 2013.
+SEC. 119. EXTENSION OF WORK OPPORTUNITY TAX CREDIT.
+    (a) In General.--Paragraph (4) of section 51(c) is amended by 
+striking ``for the employer'' and all that follows and inserting ``for 
+the employer after December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 51 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to individuals who begin work for the 
+employer after December 31, 2013.
+SEC. 120. EXTENSION OF QUALIFIED ZONE ACADEMY BONDS.
+    (a) Extension.--Paragraph (1) of section 54E(c) is amended by 
+striking ``and 2013'' and inserting ``2013, and 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 54E note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to obligations issued after December 31, 
+2013.
+SEC. 121. EXTENSION OF CLASSIFICATION OF CERTAIN RACE HORSES AS 3-
+                        YEAR PROPERTY.
+    (a) In General.--Clause (i) of section 168(e)(3)(A) is amended--
+            (1) by striking ``January 1, 2014'' in subclause (I) and 
+        inserting ``January 1, 2015'', and
+            (2) by striking ``December 31, 2013'' in subclause (II) and 
+        inserting ``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 168 note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to property placed in service after December 
+31, 2013.
+SEC. 122. EXTENSION OF 15-YEAR STRAIGHT-LINE COST RECOVERY FOR 
+                        QUALIFIED LEASEHOLD IMPROVEMENTS, 
+                        QUALIFIED RESTAURANT BUILDINGS AND 
+                        IMPROVEMENTS, AND QUALIFIED RETAIL 
+                        IMPROVEMENTS.
+    (a) In General.--Clauses (iv), (v), and (ix) of section 168(e)(3)(E) 
+are each amended by striking ``January 1, 2014'' and inserting ``January 
+1, 2015''.
+    (b) &lt;&lt;NOTE: 26 USC 168 note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to property placed in service after December 
+31, 2013.
+SEC. 123. EXTENSION OF 7-YEAR RECOVERY PERIOD FOR MOTORSPORTS 
+                        ENTERTAINMENT COMPLEXES.
+    (a) In General.--Subparagraph (D) of section 168(i)(15) is amended 
+by striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 168 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to property placed in service after December 
+31, 2013.
+[[Page 128 STAT. 4016]]
+SEC. 124. EXTENSION OF ACCELERATED DEPRECIATION FOR BUSINESS 
+                        PROPERTY ON AN INDIAN RESERVATION.
+    (a) In General.--Paragraph (8) of section 168(j) &lt;&lt;NOTE: 26 USC 
+168.&gt;&gt;  is amended by striking ``December 31, 2013'' and inserting 
+``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 168 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to property placed in service after December 
+31, 2013.
+SEC. 125. EXTENSION OF BONUS DEPRECIATION.
+    (a) In General.--Paragraph (2) of section 168(k) is amended--
+            (1) by striking ``January 1, 2015'' in subparagraph (A)(iv) 
+        and inserting ``January 1, 2016'', and
+            (2) by striking ``January 1, 2014'' each place it appears 
+        and inserting ``January 1, 2015''.
+    (b) Special Rule for Federal Long-Term Contracts.--Clause (ii) of 
+section 460(c)(6)(B) is amended by striking ``January 1, 2014 (January 
+1, 2015'' and inserting ``January 1, 2015 (January 1, 2016''.
+    (c) Extension of Election To Accelerate the AMT Credit in Lieu of 
+Bonus Depreciation.--
+            (1) In general.--Subclause (II) of section 168(k)(4)(D)(iii) 
+        is amended by striking ``January 1, 2014'' and inserting 
+        ``January 1, 2015''.
+            (2) Round 4 extension property.--Paragraph (4) of section 
+        168(k) is amended by adding at the end the following new 
+        subparagraph:
+                    ``(K) Special rules for round 4 extension 
+                property.--
+                          ``(i) In general.--In the case of round 4 
+                      extension property, in applying this paragraph to 
+                      any taxpayer--
+                                    ``(I) the limitation described in 
+                                subparagraph (B)(i) and the business 
+                                credit increase amount under 
+                                subparagraph (E)(iii) thereof shall not 
+                                apply, and
+                                    ``(II) the bonus depreciation 
+                                amount, maximum amount, and maximum 
+                                increase amount shall be computed 
+                                separately from amounts computed with 
+                                respect to eligible qualified property 
+                                which is not round 4 extension property.
+                          ``(ii) Election.--
+                                    ``(I) A taxpayer who has an election 
+                                in effect under this paragraph for round 
+                                3 extension property shall be treated as 
+                                having an election in effect for round 4 
+                                extension property unless the taxpayer 
+                                elects to not have this paragraph apply 
+                                to round 4 extension property.
+                                    ``(II) A taxpayer who does not have 
+                                an election in effect under this 
+                                paragraph for round 3 extension property 
+                                may elect to have this paragraph apply 
+                                to round 4 extension property.
+                          ``(iii) Round 4 extension property.--For 
+                      purposes of this subparagraph, the term `round 4 
+                      extension property' means property which is 
+                      eligible qualified property solely by reason of 
+                      the extension of the application of the special 
+                      allowance under paragraph (1) pursuant to the 
+                      amendments made by section 125(a) of the Tax 
+                      Increase Prevention Act of 2014 (and the 
+                      application
+[[Page 128 STAT. 4017]]
+                      of such extension to this paragraph pursuant to 
+                      the amendment made by section 125(c) of such 
+                      Act).''.
+    (d) Conforming Amendments.--
+            (1) The heading for subsection (k) of section 168 &lt;&lt;NOTE: 26 
+        USC 168.&gt;&gt;  is amended by striking ``January 1, 2014'' and 
+        inserting ``January 1, 2015''.
+            (2) The heading for clause (ii) of section 168(k)(2)(B) is 
+        amended by striking ``pre-january 1, 2014'' and inserting ``pre-
+        january 1, 2015''.
+            (3) Subparagraph (C) of section 168(n)(2) is amended by 
+        striking ``January 1, 2014'' and inserting ``January 1, 2015''.
+            (4) Subparagraph (D) of section 1400L(b)(2) is amended by 
+        striking ``January 1, 2014'' and inserting ``January 1, 2015''.
+            (5) Subparagraph (B) of section 1400N(d)(3) is amended by 
+        striking ``January 1, 2014'' and inserting ``January 1, 2015''.
+    (e) &lt;&lt;NOTE: 26 USC 168 note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to property placed in service after December 
+31, 2013, in taxable years ending after such date.
+SEC. 126. EXTENSION OF ENHANCED CHARITABLE DEDUCTION FOR 
+                        CONTRIBUTIONS OF FOOD INVENTORY.
+    (a) In General.--Clause (iv) of section 170(e)(3)(C) is amended by 
+striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 170 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to contributions made after December 31, 
+2013.
+SEC. 127. EXTENSION OF INCREASED EXPENSING LIMITATIONS AND 
+                        TREATMENT OF CERTAIN REAL PROPERTY AS 
+                        SECTION 179 PROPERTY.
+    (a) In General.--
+            (1) Dollar limitation.--Section 179(b)(1) is amended--
+                    (A) by striking ``beginning in 2010, 2011, 2012, or 
+                2013'' in subparagraph (B) and inserting ``beginning 
+                after 2009 and before 2015'', and
+                    (B) by striking ``2013'' in subparagraph (C) and 
+                inserting ``2014''.
+            (2) Reduction in limitation.--Section 179(b)(2) is amended--
+                    (A) by striking ``beginning in 2010, 2011, 2012, or 
+                2013'' in subparagraph (B) and inserting ``beginning 
+                after 2009 and before 2015'', and
+                    (B) by striking ``2013'' in subparagraph (C) and 
+                inserting ``2014''.
+    (b) Computer Software.--Section 179(d)(1)(A)(ii) is amended by 
+striking ``2014'' and inserting ``2015''.
+    (c) Election.--Section 179(c)(2) is amended by striking ``2014'' and 
+inserting ``2015''.
+    (d) Special Rules for Treatment of Qualified Real Property.--
+            (1) In general.--Section 179(f)(1) is amended by striking 
+        ``beginning in 2010, 2011, 2012, or 2013'' and inserting 
+        ``beginning after 2009 and before 2015''.
+            (2) Carryover limitation.--
+                    (A) In general.--Section 179(f)(4) is amended by 
+                striking ``2013'' each place it appears and inserting 
+                ``2014''.
+                    (B) Conforming amendment.--The heading of 
+                subparagraph (C) of section 179(f)(4) is amended by 
+                striking ``2011 and 2012'' and inserting ``2011, 2012, 
+                and 2013''.
+[[Page 128 STAT. 4018]]
+    (e) &lt;&lt;NOTE: 26 USC 179 note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to taxable years beginning after December 
+31, 2013.
+SEC. 128. EXTENSION OF ELECTION TO EXPENSE MINE SAFETY EQUIPMENT.
+    (a) In General.--Subsection (g) of section 179E &lt;&lt;NOTE: 26 USC 
+179E.&gt;&gt;  is amended by striking ``December 31, 2013'' and inserting 
+``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 179E note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to property placed in service after December 
+31, 2013.
+SEC. 129. EXTENSION OF SPECIAL EXPENSING RULES FOR CERTAIN FILM 
+                        AND TELEVISION PRODUCTIONS.
+    (a) In General.--Subsection (f) of section 181 is amended by 
+striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 181 note.&gt;&gt;  Effective Dates.--The amendment made 
+by this section shall apply to productions commencing after December 31, 
+2013.
+SEC. 130. EXTENSION OF DEDUCTION ALLOWABLE WITH RESPECT TO INCOME 
+                        ATTRIBUTABLE TO DOMESTIC PRODUCTION 
+                        ACTIVITIES IN PUERTO RICO.
+    (a) In General.--Subparagraph (C) of section 199(d)(8) is amended--
+            (1) by striking ``first 8 taxable years'' and inserting 
+        ``first 9 taxable years'', and
+            (2) by striking ``January 1, 2014'' and inserting ``January 
+        1, 2015''.
+    (b) &lt;&lt;NOTE: 26 USC 199 note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to taxable years beginning after December 
+31, 2013.
+SEC. 131. EXTENSION OF MODIFICATION OF TAX TREATMENT OF CERTAIN 
+                        PAYMENTS TO CONTROLLING EXEMPT 
+                        ORGANIZATIONS.
+    (a) In General.--Clause (iv) of section 512(b)(13)(E) is amended by 
+striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 512 note.&gt;&gt;  Effective Date.--The amendment made 
+by this section shall apply to payments received or accrued after 
+December 31, 2013.
+SEC. 132. EXTENSION OF TREATMENT OF CERTAIN DIVIDENDS OF REGULATED 
+                        INVESTMENT COMPANIES.
+    (a) In General.--Paragraphs (1)(C)(v) and (2)(C)(v) of section 
+871(k) are each amended by striking ``December 31, 2013'' and inserting 
+``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 871 note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to taxable years beginning after December 
+31, 2013.
+SEC. 133. EXTENSION OF RIC QUALIFIED INVESTMENT ENTITY TREATMENT 
+                        UNDER FIRPTA.
+    (a) In General.--Clause (ii) of section 897(h)(4)(A) is amended by 
+striking ``December 31, 2013'' and inserting ``December 31, 2014''.
+    (b) &lt;&lt;NOTE: 26 USC 897 note.&gt;&gt;  Effective Date.--
+            (1) In general.--The amendment made by this section shall 
+        take effect on January 1, 2014. Notwithstanding the preceding 
+        sentence, such amendment shall not apply with respect to the 
+        withholding requirement under section 1445 of the Internal 
+        Revenue Code of 1986 for any payment made before the date of the 
+        enactment of this Act.
+[[Page 128 STAT. 4019]]
+            (2) Amounts withheld on or before date of enactment.--In the 
+        case of a regulated investment company--
+                    (A) which makes a distribution after December 31, 
+                2013, and before the date of the enactment of this Act, 
+                and
+                    (B) which would (but for the second sentence of 
+                paragraph (1)) have been required to withhold with 
+                respect to such distribution under section 1445 of such 
+                Code,
+        such investment company shall not be liable to any person to 
+        whom such distribution was made for any amount so withheld and 
+        paid over to the Secretary of the Treasury.
+SEC. 134. EXTENSION OF SUBPART F EXCEPTION FOR ACTIVE FINANCING 
+                        INCOME.
+    (a) Exempt Insurance Income.--Paragraph (10) of section 
+953(e) &lt;&lt;NOTE: 26 USC 953.&gt;&gt;  is amended--
+            (1) by striking ``January 1, 2014'' and inserting ``January 
+        1, 2015'', and
+            (2) by striking ``December 31, 2013'' and inserting 
+        ``December 31, 2014''.
+    (b) Special Rule for Income Derived in the Active Conduct of 
+Banking, Financing, or Similar Businesses.--Paragraph (9) of section 
+954(h) is amended by striking ``January 1, 2014'' and inserting 
+``January 1, 2015''.
+    (c) &lt;&lt;NOTE: 26 USC 953 note.&gt;&gt;  Effective Date.--The amendments made 
+by this section shall apply to taxable years of foreign corporations 
+beginning after December 31, 2013, and to taxable years of United States 
+shareholders with or within which any such taxable year of such foreign 
+corporation ends.
+SEC. 135. EXTENSION OF LOOK-THRU TREATMENT OF PAYMENTS BETWEEN 
+                        RELATED CONTROLLED FOREIGN CORPORATIONS 
+                        UNDER FOREIGN PERSONAL HOLDING COMPANY 
+                        RULES.
+    (a) In General.--Subparagraph (C) of section 954(c)(6) is amended by 
+striking ``Jan</t>
         </is>
       </c>
     </row>
@@ -13371,7 +14847,72 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2754/text?s=1&amp;r=63&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 288]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 3281]]
+Public Law 113-288
+113th Congress
+                                 An Act
+  To amend the Hobby Protection Act to make unlawful the provision of 
+     assistance or support in violation of that Act, and for other 
+            purposes. &lt;&lt;NOTE: Dec. 19, 2014 -  [H.R. 2754]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Collectible Coin 
+Protection Act.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 15 USC 2101 note.&gt;&gt; SHORT TITLE.
+    This Act may be cited as the ``Collectible Coin Protection Act''.
+SEC. 2. PROVISION OF ASSISTANCE OR SUPPORT.
+    The Hobby Protection Act (15 U.S.C. 2101 et seq.) is amended--
+            (1) &lt;&lt;NOTE: 15 USC 2101.&gt;&gt; in section 2--
+                    (A) in subsection (b), by inserting ``, or the sale 
+                in commerce'' after ``distribution in commerce'';
+                    (B) by redesignating subsection (d) as subsection 
+                (e) and inserting after subsection (c) the following:
+    ``(d) Provision of Assistance or Support.--It shall be a violation 
+of subsection (a) or (b) for a person to provide substantial assistance 
+or support to any manufacturer, importer, or seller if that person knows 
+or should have known that the manufacturer, importer, or seller is 
+engaged in any act or practice that violates subsection (a) or (b).''; 
+and
+                    (C) in subsection (e) (as so redesignated), by 
+                striking ``and (b)'' and inserting ``(b), and (d)'';
+            (2) &lt;&lt;NOTE: 15 USC 2102.&gt;&gt; in section 3--
+                    (A) by striking ``If any person'' and inserting 
+                ``(a) In General.--If any person'';
+                    (B) by striking ``or has an agent'' and inserting 
+                ``, has an agent, transacts business, or wherever venue 
+                is proper under section 1391 of title 28, United States 
+                Code''; and
+                    (C) by adding at the end the following:
+    ``(b) Trademark Violations.--If the violation of section 2 (a) or 
+(b) or a rule under section 2(c) also involves unauthorized use of 
+registered trademarks belonging to a collectibles certification service, 
+the owner of such trademarks shall have, in addition to the remedies 
+provided in subsection (a), all rights provided under sections 34, 35, 
+and 36 of the Trademark Act of 1946 (15 U.S.C. 1116, 1117, and 1118) for 
+violations of such Act.''; and
+            (3) &lt;&lt;NOTE: Definitions. 15 USC 2106.&gt;&gt; in section 7, by 
+        adding at the end the following:
+            ``(8) The term `collectibles certification service' means a 
+        person recognized by collectors for providing independent 
+        certification that collectible items are genuine.
+            ``(9) The term `Trademark Act of 1946' means the Act 
+        entitled `An Act to provide for the registration and protection
+[[Page 128 STAT. 3282]]
+        of trademarks used in commerce, to carry out the provisions of 
+        certain international conventions, and for other purposes', 
+        approved July 5, 1946 (15 U.S.C. 1051 et seq.).''.
+    Approved December 19, 2014.
+LEGISLATIVE HISTORY--H.R. 2754:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD:
+                                                        Vol. 159 (2013):
+                                    July 30, considered and passed 
+                                        House.
+                                                        Vol. 160 (2014):
+                                    Dec. 15, considered and passed 
+                                        Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -13413,7 +14954,33 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4030/text?s=1&amp;r=64&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 292]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 3989]]
+Public Law 113-292
+113th Congress
+                                 An Act
+To designate the facility of the United States Postal Service located at 
+18640 NW 2nd Avenue in Miami, Florida, as the ``Father Richard Marquess-
+  Barry Post Office Building''. &lt;&lt;NOTE: Dec. 19, 2014 -  [H.R. 4030]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. FATHER RICHARD MARQUESS-BARRY POST OFFICE BUILDING.
+    (a) Designation.--The facility of the United States Postal Service 
+located at 18640 NW 2nd Avenue in Miami, Florida, shall be known and 
+designated as the ``Father Richard Marquess-Barry Post Office 
+Building''.
+    (b) References.--Any reference in a law, map, regulation, document, 
+paper, or other record of the United States to the facility referred to 
+in subsection (a) shall be deemed to be a reference to the ``Father 
+Richard Marquess-Barry Post Office Building''.
+    Approved December 19, 2014.
+LEGISLATIVE HISTORY--H.R. 4030:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 8, considered and passed House.
+            Dec. 16, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -13647,7 +15214,560 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4681/text?s=1&amp;r=67&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t xml:space="preserve">[113th Congress Public Law 293]
+[From the U.S. Government Publishing Office]
+[[Page 3989]]
+           INTELLIGENCE AUTHORIZATION ACT FOR FISCAL YEAR 2015
+[[Page 128 STAT. 3990]]
+Public Law 113-293
+113th Congress
+                                 An Act
+     To authorize appropriations for fiscal years 2014 and 2015 for 
+ intelligence and intelligence-related activities of the United States 
+     Government, the Community Management Account, and the Central 
+  Intelligence Agency Retirement and Disability System, and for other 
+            purposes. &lt;&lt;NOTE: Dec. 19, 2014 -  [H.R. 4681]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Intelligence 
+Authorization Act for Fiscal Year 2015.&gt;&gt; 
+SECTION 1. SHORT TITLE; TABLE OF CONTENTS.
+    (a) Short Title.--This Act may be cited as the ``Intelligence 
+Authorization Act for Fiscal Year 2015''.
+    (b) Table of Contents.--The table of contents for this Act is as 
+follows:
+Sec. 1. Short title; table of contents.
+Sec. 2. Definitions.
+Sec. 3. Budgetary effects.
+                    TITLE I--INTELLIGENCE ACTIVITIES
+Sec. 101. Authorization of appropriations.
+Sec. 102. Classified Schedule of Authorizations.
+Sec. 103. Personnel ceiling adjustments.
+Sec. 104. Intelligence Community Management Account.
+ TITLE II--CENTRAL INTELLIGENCE AGENCY RETIREMENT AND DISABILITY SYSTEM
+Sec. 201. Authorization of appropriations.
+                      TITLE III--GENERAL PROVISIONS
+                       Subtitle A--General Matters
+Sec. 301. Increase in employee compensation and benefits authorized by 
+           law.
+Sec. 302. Restriction on conduct of intelligence activities.
+Sec. 303. National intelligence strategy.
+Sec. 304. Software licensing.
+Sec. 305. Reporting of certain employment activities by former 
+           intelligence officers and employees.
+Sec. 306. Inclusion of Predominantly Black Institutions in intelligence 
+           officer training program.
+Sec. 307. Management and oversight of financial intelligence.
+Sec. 308. Analysis of private sector policies and procedures for 
+           countering insider threats.
+Sec. 309. Procedures for the retention of incidentally acquired 
+           communications.
+Sec. 310. Clarification of limitation of review to retaliatory security 
+           clearance or access determinations.
+Sec. 311. Feasibility study on consolidating classified databases of 
+           cyber threat indicators and malware samples.
+Sec. 312. Sense of Congress on cybersecurity threat and cybercrime 
+           cooperation with Ukraine.
+Sec. 313. Replacement of locally employed staff serving at United States 
+           diplomatic facilities in the Russian Federation.
+Sec. 314. Inclusion of Sensitive Compartmented Information Facilities in 
+           United States diplomatic facilities in the Russian Federation 
+           and adjacent countries.
+[[Page 128 STAT. 3991]]
+                          Subtitle B--Reporting
+Sec. 321. Report on declassification process.
+Sec. 322. Report on intelligence community efficient spending targets.
+Sec. 323. Annual report on violations of law or executive order.
+Sec. 324. Annual report on intelligence activities of the Department of 
+           Homeland Security.
+Sec. 325. Report on political prison camps in North Korea.
+Sec. 326. Assessment of security of domestic oil refineries and related 
+           rail transportation infrastructure.
+Sec. 327. Enhanced contractor level assessments for the intelligence 
+           community.
+Sec. 328. Assessment of the efficacy of memoranda of understanding to 
+           facilitate intelligence-sharing.
+Sec. 329. Report on foreign man-made electromagnetic pulse weapons.
+Sec. 330. Report on United States counterterrorism strategy to disrupt, 
+           dismantle, and defeat al-Qaeda and its affiliated or 
+           associated groups.
+Sec. 331. Feasibility study on retraining veterans in cybersecurity.
+SEC. 2. &lt;&lt;NOTE: 50 USC 3003.&gt;&gt;  DEFINITIONS.
+    In this Act:
+            (1) Congressional intelligence committees.--The term 
+        ``congressional intelligence committees'' means--
+                    (A) the Select Committee on Intelligence of the 
+                Senate; and
+                    (B) the Permanent Select Committee on Intelligence 
+                of the House of Representatives.
+            (2) Intelligence community.--The term ``intelligence 
+        community'' has the meaning given that term in section 3(4) of 
+        the National Security Act of 1947 (50 U.S.C. 3003(4)).
+SEC. 3. BUDGETARY EFFECTS.
+    The budgetary effects of this Act, for the purpose of complying with 
+the Statutory Pay-As-You-Go-Act of 2010, shall be determined by 
+reference to the latest statement titled ``Budgetary Effects of PAYGO 
+Legislation'' for this Act, submitted for printing in the Congressional 
+Record by the Chairman of the Senate Budget Committee, provided that 
+such statement has been submitted prior to the vote on passage.
+                    TITLE I--INTELLIGENCE ACTIVITIES
+SEC. 101. AUTHORIZATION OF APPROPRIATIONS.
+    Funds are hereby authorized to be appropriated for fiscal year 2015 
+for the conduct of the intelligence and intelligence-related activities 
+of the following elements of the United States Government:
+            (1) The Office of the Director of National Intelligence.
+            (2) The Central Intelligence Agency.
+            (3) The Department of Defense.
+            (4) The Defense Intelligence Agency.
+            (5) The National Security Agency.
+            (6) The Department of the Army, the Department of the Navy, 
+        and the Department of the Air Force.
+            (7) The Coast Guard.
+            (8) The Department of State.
+            (9) The Department of the Treasury.
+            (10) The Department of Energy.
+            (11) The Department of Justice.
+            (12) The Federal Bureau of Investigation.
+            (13) The Drug Enforcement Administration.
+            (14) The National Reconnaissance Office.
+[[Page 128 STAT. 3992]]
+            (15) The National Geospatial-Intelligence Agency.
+            (16) The Department of Homeland Security.
+SEC. 102. CLASSIFIED SCHEDULE OF AUTHORIZATIONS.
+    (a) Specifications of Amounts and Personnel Levels.--The amounts 
+authorized to be appropriated under section 101 and, subject to section 
+103, the authorized personnel ceilings as of September 30, 2015, for the 
+conduct of the intelligence activities of the elements listed in 
+paragraphs (1) through (16) of section 101, are those specified in the 
+classified Schedule of Authorizations prepared to accompany the bill 
+H.R. 4681 of the One Hundred Thirteenth Congress.
+    (b) Availability of Classified Schedule of Authorizations.--
+            (1) Availability.--The classified Schedule of Authorizations 
+        referred to in subsection (a) shall be made available to the 
+        Committee on Appropriations of the Senate, the Committee on 
+        Appropriations of the House of Representatives, and to the 
+        President.
+            (2) Distribution by the president.--Subject to paragraph 
+        (3), the President shall provide for suitable distribution of 
+        the classified Schedule of Authorizations, or of appropriate 
+        portions of the Schedule, within the executive branch.
+            (3) &lt;&lt;NOTE: President.&gt;&gt;  Limits on disclosure.--The 
+        President shall not publicly disclose the classified Schedule of 
+        Authorizations or any portion of such Schedule except--
+                    (A) as provided in section 601(a) of the 
+                Implementing Recommendations of the 9/11 Commission Act 
+                of 2007 (50 U.S.C. 3306(a));
+                    (B) to the extent necessary to implement the budget; 
+                or
+                    (C) as otherwise required by law.
+SEC. 103. PERSONNEL CEILING ADJUSTMENTS.
+    (a) &lt;&lt;NOTE: Determination.&gt;&gt;  Authority for Increases.--The Director 
+of National Intelligence may authorize employment of civilian personnel 
+in excess of the number authorized for fiscal year 2015 by the 
+classified Schedule of Authorizations referred to in section 102(a) if 
+the Director of National Intelligence determines that such action is 
+necessary to the performance of important intelligence functions, except 
+that the number of personnel employed in excess of the number authorized 
+under such section may not, for any element of the intelligence 
+community, exceed 3 percent of the number of civilian personnel 
+authorized under such Schedule for such element.
+    (b) &lt;&lt;NOTE: Guidelines.&gt;&gt;  Treatment of Certain Personnel.--The 
+Director of National Intelligence shall establish guidelines that 
+govern, for each element of the intelligence community, the treatment 
+under the personnel levels authorized under section 102(a), including 
+any exemption from such personnel levels, of employment or assignment 
+in--
+            (1) a student program, trainee program, or similar program;
+            (2) a reserve corps or as a reemployed annuitant; or
+            (3) details, joint duty, or long term, full-time training.
+    (c) Notice to Congressional Intelligence Committees.--The 
+Director &lt;&lt;NOTE: Deadline.&gt;&gt;  of National Intelligence shall notify the 
+congressional intelligence committees in writing at least 15 days prior 
+to each exercise of an authority described in subsection (a).
+[[Page 128 STAT. 3993]]
+SEC. 104. INTELLIGENCE COMMUNITY MANAGEMENT ACCOUNT.
+    (a) Authorization of Appropriations.--There is authorized to be 
+appropriated for the Intelligence Community Management Account of the 
+Director of National Intelligence for fiscal year 2015 the sum of 
+$507,400,000. Within such amount, funds identified in the classified 
+Schedule of Authorizations referred to in section 102(a) for advanced 
+research and development shall remain available until September 30, 
+2016.
+    (b) Authorized Personnel Levels.--The elements within the 
+Intelligence Community Management Account of the Director of National 
+Intelligence are authorized 794 positions as of September 30, 2015. 
+Personnel serving in such elements may be permanent employees of the 
+Office of the Director of National Intelligence or personnel detailed 
+from other elements of the United States Government.
+    (c) Classified Authorizations.--
+            (1) Authorization of appropriations.--In addition to amounts 
+        authorized to be appropriated for the Intelligence Community 
+        Management Account by subsection (a), there are authorized to be 
+        appropriated for the Community Management Account for fiscal 
+        year 2015 such additional amounts as are specified in the 
+        classified Schedule of Authorizations referred to in section 
+        102(a). Such additional amounts for advanced research and 
+        development shall remain available until September 30, 2016.
+            (2) Authorization of personnel.--In addition to the 
+        personnel authorized by subsection (b) for elements of the 
+        Intelligence Community Management Account as of September 30, 
+        2015, there are authorized such additional personnel for the 
+        Community Management Account as of that date as are specified in 
+        the classified Schedule of Authorizations referred to in section 
+        102(a).
+ TITLE II--CENTRAL INTELLIGENCE AGENCY RETIREMENT AND DISABILITY SYSTEM
+SEC. 201. AUTHORIZATION OF APPROPRIATIONS.
+    There is authorized to be appropriated for the Central Intelligence 
+Agency Retirement and Disability Fund for fiscal year 2015 the sum of 
+$514,000,000.
+                      TITLE III--GENERAL PROVISIONS
+                       Subtitle A--General Matters
+SEC. 301. INCREASE IN EMPLOYEE COMPENSATION AND BENEFITS 
+                        AUTHORIZED BY LAW.
+    Appropriations authorized by this Act for salary, pay, retirement, 
+and other benefits for Federal employees may be increased by such 
+additional or supplemental amounts as may be necessary for increases in 
+such compensation or benefits authorized by law.
+[[Page 128 STAT. 3994]]
+SEC. 302. RESTRICTION ON CONDUCT OF INTELLIGENCE ACTIVITIES.
+    The authorization of appropriations by this Act shall not be deemed 
+to constitute authority for the conduct of any intelligence activity 
+which is not otherwise authorized by the Constitution or the laws of the 
+United States.
+SEC. 303. NATIONAL INTELLIGENCE STRATEGY.
+    (a) In General.--Title I of the National Security Act of 1947 (50 
+U.S.C. 3021 et seq.) is amended by inserting after section 108 the 
+following:
+``SEC. 108A. &lt;&lt;NOTE: 50 USC 3043a.&gt;&gt;  NATIONAL INTELLIGENCE 
+                          STRATEGY.
+    ``(a) &lt;&lt;NOTE: Effective date. Deadline. Time period.&gt;&gt;  In 
+General.--Beginning in 2017, and once every 4 years thereafter, the 
+Director of National Intelligence shall develop a comprehensive national 
+intelligence strategy to meet national security objectives for the 
+following 4-year period, or a longer period, if appropriate.
+    ``(b) Requirements.--Each national intelligence strategy required by 
+subsection (a) shall--
+            ``(1) delineate a national intelligence strategy consistent 
+        with--
+                    ``(A) the most recent national security strategy 
+                report submitted pursuant to section 108;
+                    ``(B) the strategic plans of other relevant 
+                departments and agencies of the United States; and
+                    ``(C) other relevant national-level plans;
+            ``(2) address matters related to national and military 
+        intelligence, including counterintelligence;
+            ``(3) identify the major national security missions that the 
+        intelligence community is currently pursuing and will pursue in 
+        the future to meet the anticipated security environment;
+            ``(4) describe how the intelligence community will utilize 
+        personnel, technology, partnerships, and other capabilities to 
+        pursue the major national security missions identified in 
+        paragraph (3);
+            ``(5) assess current, emerging, and future threats to the 
+        intelligence community, including threats from foreign 
+        intelligence and security services and insider threats;
+            ``(6) outline the organizational roles and missions of the 
+        elements of the intelligence community as part of an integrated 
+        enterprise to meet customer demands for intelligence products, 
+        services, and support;
+            ``(7) identify sources of strategic, institutional, 
+        programmatic, fiscal, and technological risk; and
+            ``(8) analyze factors that may affect the intelligence 
+        community's performance in pursuing the major national security 
+        missions identified in paragraph (3) during the following 10-
+        year period.
+    ``(c) &lt;&lt;NOTE: Reports. Deadline.&gt;&gt;  Submission to Congress.--The 
+Director of National Intelligence shall submit to the congressional 
+intelligence committees a report on each national intelligence strategy 
+required by subsection (a) not later than 45 days after the date of the 
+completion of such strategy.''.
+    (b) Table of Contents Amendments.--The table of contents in the 
+first section of the National Security Act of 1947 is amended
+[[Page 128 STAT. 3995]]
+by inserting after the item relating to section 108 the following new 
+item:
+``Sec. 108A. National intelligence strategy.''.
+SEC. 304. SOFTWARE LICENSING.
+    Section 109 of the National Security Act of 1947 (50 U.S.C. 3044) is 
+amended--
+            (1) in subsection (a)(2), by striking ``usage; and'' and 
+        inserting ``usage, including--
+                    ``(A) increasing the centralization of the 
+                management of software licenses;
+                    ``(B) increasing the regular tracking and 
+                maintaining of comprehensive inventories of software 
+                licenses using automated discovery and inventory tools 
+                and metrics;
+                    ``(C) analyzing software license data to inform 
+                investment decisions; and
+                    ``(D) providing appropriate personnel with 
+                sufficient software licenses management training; and'';
+            (2) in subsection (b)--
+                    (A) in paragraph (1), by striking ``; and'' and 
+                inserting a semicolon;
+                    (B) in paragraph (2), by striking ``usage.'' and 
+                inserting ``usage, including--
+                    ``(A) increasing the centralization of the 
+                management of software licenses;
+                    ``(B) increasing the regular tracking and 
+                maintaining of comprehensive inventories of software 
+                licenses using automated discovery and inventory tools 
+                and metrics;
+                    ``(C) analyzing software license data to inform 
+                investment decisions; and
+                    ``(D) providing appropriate personnel with 
+                sufficient software licenses management training; and''; 
+                and
+                    (C) by adding at the end the following new 
+                paragraph:
+            ``(3) based on the assessment required under paragraph (2), 
+        make such recommendations with respect to software procurement 
+        and usage to the Director of National Intelligence as the Chief 
+        Information Officer considers appropriate.''; and
+            (3) by adding at the end the following new subsection:
+    ``(d) &lt;&lt;NOTE: Deadline. Guidelines.&gt;&gt;  Implementation of 
+Recommendations.--Not later than 180 days after the date on which the 
+Director of National Intelligence receives recommendations from the 
+Chief Information Officer of the Intelligence Community in accordance 
+with subsection (b)(3), the Director of National Intelligence shall, to 
+the extent practicable, issue guidelines for the intelligence community 
+on software procurement and usage based on such recommendations.''.
+SEC. 305. REPORTING OF CERTAIN EMPLOYMENT ACTIVITIES BY FORMER 
+                        INTELLIGENCE OFFICERS AND EMPLOYEES.
+    (a) Restriction.--Title III of the National Security Act of 1947 (50 
+U.S.C. 3071 et seq.) is amended by inserting after section 303 the 
+following new section:
+``SEC. 304. &lt;&lt;NOTE: 50 USC 3073a.&gt;&gt;  REPORTING OF CERTAIN 
+                        EMPLOYMENT ACTIVITIES BY FORMER 
+                        INTELLIGENCE OFFICERS AND EMPLOYEES.
+    ``(a) &lt;&lt;NOTE: Regulations.&gt;&gt;  In General.--The head of each element 
+of the intelligence community shall issue regulations requiring each 
+employee of such element occupying a covered position to sign a written 
+agreement
+[[Page 128 STAT. 3996]]
+requiring the regular reporting of covered employment to the head of 
+such element.
+    ``(b) Agreement Elements.--The regulations required under subsection 
+(a) shall provide that an agreement contain provisions requiring each 
+employee occupying a covered position to, during the two-year period 
+beginning on the date on which such employee ceases to occupy such 
+covered position--
+            ``(1) report covered employment to the head of the element 
+        of the intelligence community that employed such employee in 
+        such covered position upon accepting such covered employment; 
+        and
+            ``(2) annually (or more frequently if the head of such 
+        element considers it appropriate) report covered employment to 
+        the head of such element.
+    ``(c) Definitions.--In this section:
+            ``(1) Covered employment.--The term `covered employment' 
+        means direct employment by, representation of, or the provision 
+        of advice relating to national security to the government of a 
+        foreign country or any person whose activities are directly or 
+        indirectly supervised, directed, controlled, financed, or 
+        subsidized, in whole or in major part, by any government of a 
+        foreign country.
+            ``(2) Covered position.--The term `covered position' means a 
+        position within an element of the intelligence community that, 
+        based on the level of access of a person occupying such position 
+        to information regarding sensitive intelligence sources or 
+        methods or other exceptionally sensitive matters, the head of 
+        such element determines should be subject to the requirements of 
+        this section.
+            ``(3) Government of a foreign country.--The term `government 
+        of a foreign country' has the meaning given the term in section 
+        1(e) of the Foreign Agents Registration Act of 1938 (22 U.S.C. 
+        611(e)).''.
+    (b) &lt;&lt;NOTE: Deadlines.&gt;&gt;  Regulations and Certification.--
+            (1) Regulations.--Not later than 90 days after the date of 
+        the enactment of this Act, the head of each element of the 
+        intelligence community shall issue the regulations required 
+        under section 304 of the National Security Act of 1947, as added 
+        by subsection (a) of this section.
+            (2) Certification.--Not later than 180 days after the date 
+        of the enactment of this Act, the Director of National 
+        Intelligence shall submit to the congressional intelligence 
+        committees--
+                    (A) a certification that each head of an element of 
+                the intelligence community has prescribed the 
+                regulations required under section 304 of the National 
+                Security Act of 1947, as added by subsection (a) of this 
+                section; or
+                    (B) if the Director is unable to submit the 
+                certification described under subparagraph (A), an 
+                explanation as to why the Director is unable to submit 
+                such certification, including a designation of which 
+                heads of an element of the intelligence community have 
+                prescribed the regulations required under such section 
+                304 and which have not.
+    (c) Table of Contents Amendments.--The table of contents in the 
+first section of the National Security Act of 1947 is amended--
+[[Page 128 STAT. 3997]]
+            (1) by striking the second item relating to section 302 
+        (Under Secretaries and Assistant Secretaries) and the items 
+        relating to sections 304, 305, and 306; and
+            (2) by inserting after the item relating to section 303 the 
+        following new item:
+``Sec. 304. Reporting of certain employment activities by former 
+           intelligence officers and employees.''.
+SEC. 306. INCLUSION OF PREDOMINANTLY BLACK INSTITUTIONS IN 
+                        INTELLIGENCE OFFICER TRAINING PROGRAM.
+    Section 1024 of the National Security Act of 1947 (50 U.S.C. 3224) 
+is amended--
+            (1) in subsection (c)(1), by inserting ``and Predominantly 
+        Black Institutions'' after ``universities''; and
+            (2) in subsection (g)--
+                    (A) by redesignating paragraph (4) as paragraph (5); 
+                and
+                    (B) by inserting after paragraph (3) the following 
+                new paragraph:
+            ``(4) &lt;&lt;NOTE: Definition.&gt;&gt;  Predominantly black 
+        institution.--The term `Predominantly Black Institution' has the 
+        meaning given the term in section 318 of the Higher education 
+        Act of 1965 (20 U.S.C. 1059e).''.
+SEC. 307. &lt;&lt;NOTE: Deadlines.&gt;&gt;  MANAGEMENT AND OVERSIGHT OF 
+                        FINANCIAL INTELLIGENCE.
+    (a) Requirement for Plan.--Not later than 90 days after the date of 
+the enactment of this Act, the Director of National Intelligence shall 
+prepare a plan for management of the elements of the intelligence 
+community that carry out financial intelligence activities.
+    (b) Contents of Plan.--The plan required by subsection (a) shall 
+establish a governance framework, procedures for sharing and harmonizing 
+the acquisition and use of financial analytic tools, standards for 
+quality of analytic products, procedures for oversight and evaluation of 
+resource allocations associated with the joint development of 
+information sharing efforts and tools, and an education and training 
+model for elements of the intelligence community that carry out 
+financial intelligence activities.
+    (c) Briefing to Congress.--Not later than 180 days after the date of 
+the enactment of this Act, the Director of National Intelligence shall 
+brief the congressional intelligence committees on the actions the 
+Director proposes to implement the plan required by subsection (a).
+SEC. 308. ANALYSIS OF PRIVATE SECTOR POLICIES AND PROCEDURES FOR 
+                        COUNTERING INSIDER THREATS.
+    (a) &lt;&lt;NOTE: Deadline. Consultation.&gt;&gt;  Analysis.--Not later than 180 
+days after the date of the enactment of this Act, the Director of 
+National Intelligence, in consultation with the National 
+Counterintelligence Executive, shall submit to the congressional 
+intelligence committees an analysis of private sector policies and 
+procedures for countering insider threats.
+    (b) Content.--The analysis required by subsection (a) shall 
+include--
+            (1) &lt;&lt;NOTE: Review.&gt;&gt;  a review of whether and how the 
+        intelligence community could utilize private sector hiring and 
+        human resources best
+[[Page 128 STAT. 3998]]
+        practices to screen, vet, and validate the credentials, 
+        capabilities, and character of applicants for positions 
+        involving trusted access to sensitive information;
+            (2) an analysis of private sector policies for holding 
+        supervisors and subordinates accountable for violations of 
+        established security protocols and whether the intelligence 
+        community should adopt similar policies for positions of trusted 
+        access to sensitive information;
+            (3) &lt;&lt;NOTE: Assessment.&gt;&gt;  an assessment of the feasibility 
+        and advisability of applying mandatory leave policies, similar 
+        to those endorsed by the Federal Deposit Insurance Corporation 
+        and the Securities and Exchange Commission to identify fraud in 
+        the financial services industry, to certain positions within the 
+        intelligence community; and
+            (4) &lt;&lt;NOTE: Recommenda- tions.&gt;&gt;  recommendations for how 
+        the intelligence community could utilize private sector risk 
+        indices, such as credit risk scores, to make determinations 
+        about employee access to sensitive information.
+SEC. 309. &lt;&lt;NOTE: 50 USC 1813.&gt;&gt;  PROCEDURES FOR THE RETENTION OF 
+                        INCIDENTALLY ACQUIRED COMMUNICATIONS.
+    (a) Definitions.--In this section:
+            (1) Covered communication.--The term ``covered 
+        communication'' means any nonpublic telephone or electronic 
+        communication acquired without the consent of a person who is a 
+        party to the communication, including communications in 
+        electronic storage.
+            (2) Head of an element of the intelligence community.--The 
+        term ``head of an element of the intelligence community'' means, 
+        as appropriate--
+                    (A) the head of an element of the intelligence 
+                community; or
+                    (B) the head of the department or agency containing 
+                such element.
+            (3) United states person.--The term ``United States person'' 
+        has the meaning given that term in section 101 of the Foreign 
+        Intelligence Surveillance Act of 1978 (50 U.S.C. 1801).
+    (b) Procedures for Covered Communications.--
+            (1) &lt;&lt;NOTE: Deadline.&gt;&gt;  Requirement to adopt.--Not later 
+        than 2 years after the date of the enactment of this Act each 
+        head of an element of the intelligence community shall adopt 
+        procedures approved by the Attorney General for such element 
+        that ensure compliance with the requirements of paragraph (3).
+            (2) Coordination and approval.--The procedures required by 
+        paragraph (1) shall be--
+                    (A) prepared in coordination with the Director of 
+                National Intelligence; and
+                    (B) approved by the Attorney General prior to 
+                issuance.
+            (3) Procedures.--
+                    (A) Application.--The procedures required by 
+                paragraph (1) shall apply to any intelligence collection 
+                activity not otherwise authorized by court order 
+                (including an order or certification issued by a court 
+                established under subsection (a) or (b) of section 103 
+                of the Foreign Intelligence Surveillance Act of 1978 (50 
+                U.S.C. 1803)), subpoena, or similar legal process that 
+                is reasonably anticipated to result in the acquisition 
+                of a covered communication to or from
+[[Page 128 STAT. 3999]]
+                a United States person and shall permit the acquisition, 
+                retention, and dissemination of covered communications 
+                subject to the limitation in subparagraph (B).
+                    (B) &lt;&lt;NOTE: Time period.&gt;&gt;  Limitation on 
+                retention.--A covered communication shall not be 
+                retained in excess of 5 years, unless--
+                          (i) the communication has been affirmatively 
+                      determined, in whole or in part, to constitute 
+                      foreign intelligence or counterintelligence or is 
+                      necessary to understand or assess foreign 
+                      intelligence or counterintelligence;
+                          (ii) the communication is reasonably believed 
+                      to constitute evidence of a crime and is retained 
+                      by a law enforcement agency;
+                          (iii) the communication is enciphered or 
+                      reasonably believed to have a secret meaning;
+                          (iv) all parties to the communication are 
+                      reasonably believed to be non-United States 
+                      persons;
+                          (v) &lt;&lt;NOTE: Reports. Deadline.&gt;&gt;  retention is 
+                      necessary to protect against an imminent threat to 
+                      human life, in which case both the nature of the 
+                      threat and the information to be retained shall be 
+                      reported to the congressional intelligence 
+                      committees not later than 30 days after the date 
+                      such retention is extended under this clause;
+                          (vi) retention is necessary for technical 
+                      assurance or compliance purposes, including a 
+                      court order or discovery obligation, in which case 
+                      access to information retained for technical 
+                      assurance or compliance purposes shall be reported 
+                      to the congressional intelligence committees on an 
+                      annual basis; or
+                          (vii) &lt;&lt;NOTE: Time 
+                      period. Determination. Certification.&gt;&gt;  retention 
+                      for a period in excess of 5 years is approved by 
+                      the head of the element of the intelligence 
+                      community responsible for such retention, based on 
+                      a determination that retention is necessary to 
+                      protect the national security of the United 
+                      States, in which case the head of such element 
+                      shall provide to the congressional intelligence 
+                      committees a written certification describing--
+                                    (I) the reasons extended retention 
+                                is necessary to protect the national 
+                                security of the United States;
+                                    (II) the duration for which the head 
+                                of the element is authorizing retention;
+                                    (III) the particular information to 
+                                be retained; and
+                                    (IV) the measures the element of the 
+                                intelligence community is taking to 
+                        </t>
         </is>
       </c>
     </row>
@@ -13689,7 +15809,559 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1068/text?s=1&amp;r=68&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t xml:space="preserve">[113th Congress Public Law 287]
+[From the U.S. Government Publishing Office]
+[[Page 3093]]
+    ENACTMENT OF TITLE 54--NATIONAL PARK SERVICE AND RELATED PROGRAMS
+[[Page 128 STAT. 3094]]
+Public Law 113-287
+113th Congress
+                                 An Act
+   To enact title 54, United States Code, ``National Park Service and 
+  Related Programs'', as positive law. &lt;&lt;NOTE: Dec. 19, 2014 -  [H.R. 
+                                1068]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. TABLE OF CONTENTS.
+  The table of contents for this Act is as follows:
+Sec. 1.  Table of contents.
+Sec. 2.  Purpose; conformity with original intent.
+Sec. 3.  Enactment of title 54, United States Code.
+Sec. 4.  Conforming amendments.
+Sec. 5.  Conforming cross-references.
+Sec. 6.  Transitional and savings provisions.
+Sec. 7.  Repeals.
+SEC. 2. &lt;&lt;NOTE: 54 USC note prec. 100101.&gt;&gt; PURPOSE; CONFORMITY WITH 
+            ORIGINAL INTENT.
+  (a) Purpose.--The purpose of this Act is to codify certain existing 
+laws relating to the National Park System as title 54, United States 
+Code, ``National Park Service and Related Programs''.
+  (b) Conformity With Original Intent.--In the codification of laws by 
+this Act, the intent is to conform to the understood policy, intent, and 
+purpose of Congress in the original enactments, with such amendments and 
+corrections as will remove ambiguities, contradictions, and other 
+imperfections, in accordance with section 205(c)(1) of House Resolution 
+No. 988, 93d Congress, as enacted into law by Public Law 93-554 (2 
+U.S.C. 285b(1)).
+SEC. 3. &lt;&lt;NOTE: 54 USC note prec. 100101.&gt;&gt; ENACTMENT OF TITLE 54, 
+            UNITED STATES CODE.
+  Title 54, United States Code, ``National Park Service and Related 
+Programs'', is enacted as follows:
+          TITLE 54--NATIONAL PARK SERVICE AND RELATED PROGRAMS
+Subtitle I--National Park System
+        Division A--Establishment and General Administration
+Chap.                                                               Sec.
+            General Provisions                                    100101
+            Establishment, Directors, and Other Employees         100301
+            Areas of National Park System                         100501
+            Resource Management                                   100701
+            Administration                                        100901
+            Donations                                             101101
+            Employees                                             101301
+[[Page 128 STAT. 3095]]
+            Transportation                                        101501
+            Financial Agreements                                  101701
+            Concessions and Commercial Use Authorizations         101901
+            Privileges and Leases                                 102101
+            Programs and Organizations                            102301
+            Museums                                               102501
+            Law Enforcement and Emergency Assistance              102701
+            Land Transfers                                        102901
+            Appropriations and Accounting                         103101
+            National Military Parks                               103301
+             1035 
+through 1047
+                                                                Reserved
+            Miscellaneous                                         104901
+        Division B--System Units and Related Areas--Reserved
+Subtitle II--Outdoor Recreation Programs
+            Coordination of Programs                              200101
+            Land and Water Conservation Fund                      200301
+            Urban Park and Recreation Recovery Program            200501
+Subtitle III--National Preservation Programs
+        Division A--Historic Preservation
+                Subdivision 1--General Provisions
+            Policy                                                300101
+            Definitions                                           300301
+                Subdivision 2--Historic Preservation Program
+            National Register of Historic Places                  302101
+            State Historic Preservation Programs                  302301
+            Certification of Local Governments                    302501
+            Historic Preservation Programs and Authorities for    302701
+                Indian Tribes and Native Hawaiian Organizations
+            Grants                                                302901
+            Historic Preservation Fund                            303101
+             3033 
+Through 3037
+                                                                Reserved
+            Miscellaneous                                         303901
+                Subdivision 3--Advisory Council on Historic 
+                    Preservation
+            Advisory Council on Historic Preservation             304101
+                Subdivision 4--Other Organizations and Programs
+            Historic Light Station Preservation                   305101
+            National Center for Preservation Technology and       305301
+                Training
+            National Building Museum                              305501
+        Subdivision 5--Federal Agency Historic Preservation 
+            Responsibilities
+            Program Responsibilities and Authorities              306101
+                Subdivision 6--Miscellaneous
+            Miscellaneous                                         307101
+        Division B--Organizations and Programs
+                Subdivision 1--Administered by National Park 
+                    Service
+            American Battlefield Protection Program               308101
+            National Underground Railroad Network to Freedom      308301
+            National Women's Rights History Project               308501
+            National Maritime Heritage                            308701
+            Save America's Treasures Program                      308901
+            Commemoration of Former Presidents                    309101
+                Subdivision 2--Administered Jointly With National 
+                    Park Service
+            Preserve America Program                              311101
+                Subdivision 3--Administered by Other Than National 
+                    Park Service
+            National Trust for Historic Preservation in the United312101
+                States
+            Commission for the Preservation of America's Heritage 312301
+                Abroad
+            Preservation of Historical and Archeological Data     312501
+        Division C--American Antiquities
+            Policy and Administrative Provisions                  320101
+            Monuments, Ruins, Sites, and Objects of Antiquity     320301
+          ----------------------------------------------------
+[[Page 128 STAT. 3096]]
+                    Subtitle I--National Park System
+          Division A--Establishment and General Administration
+                    Chapter 1001--General Provisions
+Sec.
+100101.  Promotion and regulation.
+100102.  Definitions.
+Sec. 100101. Promotion and regulation
+  (a) In General.--The Secretary, acting through the Director of the 
+National Park Service, shall promote and regulate the use of the 
+National Park System by means and measures that conform to the 
+fundamental purpose of the System units, which purpose is to conserve 
+the scenery, natural and historic objects, and wild life in the System 
+units and to provide for the enjoyment of the scenery, natural and 
+historic objects, and wild life in such manner and by such means as will 
+leave them unimpaired for the enjoyment of future generations.
+  (b) Declarations.--
+          (1) 1970 declarations.--Congress declares that--
+                  (A) the National Park System, which began with 
+                establishment of Yellowstone National Park in 1872, has 
+                since grown to include superlative natural, historic, 
+                and recreation areas in every major region of the United 
+                States and its territories and possessions;
+                  (B) these areas, though distinct in character, are 
+                united through their interrelated purposes and resources 
+                into one National Park System as cumulative expressions 
+                of a single national heritage;
+                  (C) individually and collectively, these areas derive 
+                increased national dignity and recognition of their 
+                superb environmental quality through their inclusion 
+                jointly with each other in one System preserved and 
+                managed for the benefit and inspiration of all the 
+                people of the United States; and
+                  (D) it is the purpose of this division to include all 
+                these areas in the System and to clarify the authorities 
+                applicable to the System.
+          (2) 1978 reaffirmation.--Congress reaffirms, declares, and 
+        directs that the promotion and regulation of the various System 
+        units shall be consistent with and founded in the purpose 
+        established by subsection (a), to the common benefit of all the 
+        people of the United States. The authorization of activities 
+        shall be construed and the protection, management, and 
+        administration of the System units shall be conducted in light 
+        of the high public value and integrity of the System and shall 
+        not be exercised in derogation of the values and purposes for 
+        which the System units have been established, except as directly 
+        and specifically provided by Congress.
+Sec. 100102. Definitions
+  In this title:
+[[Page 128 STAT. 3097]]
+          (1) Director.--The term ``Director'' means the Director of the 
+        National Park Service.
+          (2) National park system.--The term ``National Park System'' 
+        means the areas of land and water described in section 100501 of 
+        this title.
+          (3) Secretary.--The term ``Secretary'' means the Secretary of 
+        the Interior.
+          (4) Service.--The term ``Service'' means the National Park 
+        Service.
+          (5) System.--The term ``System'' means the National Park 
+        System.
+          (6) System unit.--The term ``System unit'' means one of the 
+        areas described in section 100501 of this title.
+       Chapter 1003--Establishment, Directors, and Other Employees
+Sec.
+100301.  Establishment.
+100302.  Directors and other employees.
+100303.  Effect on other laws.
+Sec. 100301. Establishment
+  There is in the Department of the Interior a service called the 
+National Park Service.
+Sec. 100302. Directors and other employees
+  (a) Director.--
+          (1) Appointment.--The Service shall be under the charge of a 
+        director who shall be appointed by the President, by and with 
+        the advice and consent of the Senate.
+          (2) Qualifications.--The Director shall have substantial 
+        experience and demonstrated competence in land management and 
+        natural or cultural resource conservation.
+          (3) Authority.--Under the direction of the Secretary, the 
+        Director shall have the supervision, management, and control of 
+        System units. In the supervision, management, and control of 
+        System units contiguous to national forests the Secretary of 
+        Agriculture may cooperate with the Service to such extent as may 
+        be requested by the Secretary.
+  (b) Deputy Directors.--The Director shall select 2 Deputy Directors. 
+One Deputy Director shall have responsibility for Service operations, 
+and the other Deputy Director shall have responsibility for other 
+programs assigned to the Service.
+  (c) Other Employees.--The Service shall have such subordinate officers 
+and employees as may be appropriated for by Congress.
+Sec. 100303. Effect on other laws
+  This chapter and sections 100101(a), 100751(a), 100752, 100753, and 
+102101 of this title do not affect or modify section 100902(a) of this 
+title.
+[[Page 128 STAT. 3098]]
+               Chapter 1005--Areas of National Park System
+Sec.
+100501.  Areas included in System.
+100502.  General management plans.
+100503.  Five-year strategic plans.
+100504.  Study and planning of park, parkway, and recreational-area 
+           facilities.
+100505.  Periodic review of System.
+100506.  Boundary changes to System units.
+100507.  Additional areas for System.
+Sec. 100501. Areas included in System
+  The System shall include any area of land and water administered by 
+the Secretary, acting through the Director, for park, monument, 
+historic, parkway, recreational, or other purposes.
+Sec. 100502. General management plans
+  General management plans for the preservation and use of each System 
+unit, including areas within the national capital area, shall be 
+prepared and revised in a timely manner by the Director. On January 1 of 
+each year, the Secretary shall submit to Congress a list indicating the 
+current status of completion or revision of general management plans for 
+each System unit. General management plans for each System unit shall 
+include--
+          (1) measures for the preservation of the area's resources;
+          (2) indications of types and general intensities of 
+        development (including visitor circulation and transportation 
+        patterns, systems, and modes) associated with public enjoyment 
+        and use of the area, including general locations, timing of 
+        implementation, and anticipated costs;
+          (3) identification of and implementation commitments for 
+        visitor carrying capacities for all areas of the System unit; 
+        and
+          (4) indications of potential modifications to the external 
+        boundaries of the System unit, and the reasons for the 
+        modifications.
+Sec. 100503. Five-year strategic plans
+  (a) Strategic and Performance Plans.--Each System unit shall prepare 
+and make available to the public a 5-year strategic plan and an annual 
+performance plan. The plans shall reflect the Service policies, goals, 
+and outcomes represented in the Service-wide strategic plan prepared 
+pursuant to section 306 of title 5.
+  (b) Annual Budget.--
+          (1) In general.--As a part of the annual performance plan for 
+        a System unit prepared pursuant to subsection (a), following 
+        receipt of the appropriation for the unit from the Operations of 
+        the National Park System account (but not later than January 1 
+        of each year), the superintendent of the System unit shall 
+        develop and make available to the public the budget for the 
+        current fiscal year for that System unit.
+          (2) Contents.--The budget shall include--
+                  (A) funding allocations for resource preservation 
+                (including resource management), visitor services 
+                (including maintenance, interpretation, law enforcement, 
+                and search and rescue), and administration; and
+[[Page 128 STAT. 3099]]
+                  (B) allocations into each of the categories in 
+                subparagraph (A) of all funds retained from fees 
+                collected for that year, including special use permits, 
+                concession franchise fees, and recreation use and 
+                entrance fees.
+Sec. 100504. Study and planning of park, parkway, and recreational-area 
+                        facilities
+  (a) In General.--
+          (1) Definition.--In this subsection, the term ``State'' means 
+        a State, the District of Columbia, Puerto Rico, Guam, and the 
+        Virgin Islands.
+          (2) Study.--The Secretary shall cause the Service to make a 
+        comprehensive study, other than on land under the jurisdiction 
+        of the Secretary of Agriculture, of the public park, parkway, 
+        and recreational area programs of the United States, States, and 
+        political subdivisions of States and of areas of land throughout 
+        the United States that are or may be chiefly valuable as public 
+        park, parkway, or recreational areas. A study shall not be made 
+        in any State without the consent and approval of the State 
+        officials, boards, or departments having jurisdiction over the 
+        land. The study shall be such as, in the judgment of the 
+        Secretary, will provide data helpful in developing a plan for 
+        coordinated and adequate public park, parkway, and recreational-
+        area facilities for the people of the United States.
+          (3) Cooperation and agreements with other entities.--In making 
+        the study and to accomplish the purposes of this section, the 
+        Secretary, acting through the Director--
+                  (A) shall seek and accept the cooperation and 
+                assistance of Federal departments or agencies having 
+                jurisdiction of land belonging to the United States; and
+                  (B) may cooperate and make agreements with and seek 
+                and accept the assistance of--
+                        (i) other Federal agencies and 
+                      instrumentalities; and
+                        (ii) States, political subdivisions of States, 
+                      and agencies and instrumentalities of either of 
+                      them.
+          (4) State planning.--For the purpose of developing coordinated 
+        and adequate public park, parkway, and recreational-area 
+        facilities for the people of the United States, the Secretary 
+        may aid States and political subdivisions of States in planning 
+        public park, parkway, and recreational areas and in cooperating 
+        with one another to accomplish these ends. Aid shall be made 
+        available through the Service acting in cooperation with such 
+        State agencies or agencies of political subdivisions of States 
+        as the Secretary considers best.
+  (b) Consent of Congress to Agreements Between States.--The consent of 
+Congress is given to any 2 or more States to negotiate and enter into 
+compacts or agreements with one another with reference to planning, 
+establishing, developing, improving, and maintaining any park, parkway, 
+or recreational area. No compact or agreement shall be effective until 
+approved by the legislatures of the States that are parties to the 
+compact or agreement and by Congress.
+Sec. 100505. Periodic review of System
+  (a) Authority of Secretary To Conduct Review.--The Secretary shall 
+conduct a systematic and comprehensive review of certain aspects of the 
+System and on a periodic basis (but not
+[[Page 128 STAT. 3100]]
+less often than every 3 years) submit to the Committee on Natural 
+Resources and the Committee on Appropriations of the House of 
+Representatives and the Committee on Energy and Natural Resources and 
+the Committee on Appropriations of the Senate a report on the findings 
+of the review, together with recommendations as the Secretary determines 
+to be necessary.
+  (b) Consultation.--In conducting and preparing the report, the 
+Secretary shall consult with appropriate officials of affected Federal, 
+State, and local agencies and national, regional, and local 
+organizations. The consultation shall include holding public hearings 
+that the Secretary determines to be appropriate to provide a full 
+opportunity for public comment.
+  (c) Contents of report.--The report shall contain the following:
+          (1) A comprehensive listing of all authorized but unacquired 
+        parcels of land within the exterior boundaries of each System 
+        unit as of November 28, 1990.
+          (2) A priority listing of all those unacquired parcels by 
+        System unit and for the System as a whole. The list shall 
+        describe the acreage and ownership of each parcel, the estimated 
+        cost of acquisition for each parcel (subject to any statutory 
+        acquisition limitations for the land), and the basis for the 
+        estimate.
+          (3) An analysis and evaluation of the current and future needs 
+        of each System unit for resource management, interpretation, 
+        construction, operation and maintenance, personnel, and housing, 
+        together with an estimate of the costs.
+Sec. 100506. Boundary changes to System units
+  (a) Criteria for Evaluation.--The Secretary shall maintain criteria to 
+evaluate any proposed changes to the boundaries of System units, 
+including--
+          (1) analysis of whether or not an existing boundary provides 
+        for the adequate protection and preservation of the natural, 
+        historic, cultural, scenic and recreational resources integral 
+        to the System unit;
+          (2) an evaluation of each parcel proposed for addition or 
+        deletion to a System unit based on the analysis under paragraph 
+        (1); and
+          (3) an assessment of the impact of potential boundary 
+        adjustments taking into consideration the factors in section 
+        100505(c)(3) of this title and the effect of the adjustments on 
+        the local communities and surrounding area.
+  (b) Proposal of Secretary.--In proposing a boundary change to a System 
+unit, the Secretary shall--
+          (1) consult with affected agencies of State and local 
+        governments, surrounding communities, affected landowners, and 
+        private national, regional, and local organizations;
+          (2) apply the criteria developed pursuant to subsection (a) 
+        and accompany the proposal with a statement reflecting the 
+        results of the application of the criteria; and
+          (3) include with the proposal an estimate of the cost for 
+        acquiring any parcels proposed for acquisition, the basis for 
+        the estimate, and a statement on the relative priority for the 
+        acquisition of each parcel within the priorities for acquisition 
+        of other parcels for the System unit and for the System.
+  (c) Minor Boundary Changes.--
+          (1) In general.--When the Secretary determines that to do so 
+        will contribute to, and is necessary for, the proper
+[[Page 128 STAT. 3101]]
+        preservation, protection, interpretation, or management of a 
+        System unit, the Secretary may, following timely notice in 
+        writing to the Committee on Natural Resources of the House of 
+        Representatives and the Committee on Energy and Natural 
+        Resources of the Senate of the Secretary's intention to do so, 
+        and by publication of a revised boundary map or other 
+        description in the Federal Register--
+                  (A) make minor changes to the boundary of the System 
+                unit, and amounts appropriated from the Fund shall be 
+                available for acquisition of any land, water, and 
+                interests in land or water added to the System unit by 
+                the boundary change subject to such statutory 
+                limitations, if any, on methods of acquisition and 
+                appropriations thereof as may be specifically applicable 
+                to the System unit; and
+                  (B) acquire by donation, purchase with donated funds, 
+                transfer from any other Federal agency, or exchange, 
+                land, water, or interests in land or water adjacent to 
+                the System unit, except that in exercising the 
+                Secretary's authority under this subparagraph the 
+                Secretary--
+                        (i) shall not alienate property administered as 
+                      part of the System to acquire land by exchange;
+                        (ii) shall not acquire property without the 
+                      consent of the owner; and
+                        (iii) may acquire property owned by a State or 
+                      political subdivision of a State only by donation.
+          (2) Consultation.--Prior to making a determination under this 
+        subsection, the Secretary shall consult with the governing body 
+        of the county, city, town, or other jurisdiction or 
+        jurisdictions having primary taxing authority over the land or 
+        interest to be acquired as to the impacts of the proposed 
+        action.
+          (3) Action to advance local public awareness.--The Secretary 
+        shall take such steps as the Secretary considers appropriate to 
+        advance local public awareness of the proposed action.
+          (4) Administration of acquisitions.--Land, water, and 
+        interests in land or water acquired in accordance with this 
+        subsection shall be administered as part of the System unit to 
+        which they are added, subject to the laws and regulations 
+        applicable to the System unit.
+          (5) When authority applies.--For the purposes of paragraph 
+        (1)(A), in all cases except the case of technical boundary 
+        changes (resulting from such causes as survey error or changed 
+        road alignments), the authority of the Secretary under paragraph 
+        (1)(A) shall apply only if each of the following conditions is 
+        met:
+                  (A) The sum of the total acreage of the land, water, 
+                and interests in land or water to be added to the System 
+                unit and the total acreage of the land, water, and 
+                interests in land or water to be deleted from the System 
+                unit is not more than 5 percent of the total Federal 
+                acreage authorized to be included in the System unit and 
+                is less than 200 acres.
+                  (B) The acquisition, if any, is not a major Federal 
+                action significantly affecting the quality of the human 
+                environment, as determined by the Secretary.
+                  (C) The sum of the total appraised value of the land, 
+                water, and interests in land or water to be added to the 
+                System unit and the total appraised value of the land,
+[[Page 128 STAT. 3102]]
+                water, and interests in land or water to be deleted from 
+                the System unit does not exceed $750,000.
+                  (D) The proposed boundary change is not an element of 
+                a more comprehensive boundary change proposal.
+                  (E) The proposed boundary has been subject to a public 
+                review and comment period.
+                  (F) The Director obtains written consent for the 
+                boundary change from all property owners whose land, 
+                water, or interests in land or water, or a portion of 
+                whose land, water, or interests in land or water, will 
+                be added to or deleted from the System unit by the 
+                boundary change.
+                  (G) The land abuts other Federal land administered by 
+                the Director.
+          (6) Act of congress required.--Minor boundary changes 
+        involving only deletions of acreage owned by the Federal 
+        Government and administered by the Service may be made only by 
+        Act of Congress.
+Sec. 100507. Additional areas for System
+  (a) Monitoring Areas for Inclusion in System.--The Secretary shall 
+investigate, study, and continually monitor the welfare of areas whose 
+resources exhibit qualities of national significance and that may have 
+potential for inclusion in the System.
+  (b) Submission of List of Areas Recommended for Study for Potential 
+Inclusion.--
+          (1) When list is to be submitted.--At the beginning of each 
+        calendar year, with the annual budget submission, the Secretary 
+        shall submit to the Committee on Natural Resources of the House 
+        of Representatives and the Committee on Energy and Natural 
+        Resources of the Senate a list of areas recommended for study 
+        for potential inclusion in the System.
+          (2) Factors to be considered.--In developing the list to be 
+        submitted under this subsection, the Secretary shall consider--
+                  (A) the areas that have the greatest potential to meet 
+                the established criteria of national significance, 
+                suitability, and feasibility;
+                  (B) themes, sites, and resources not already 
+                adequately represented in the System; and
+                  (C) public petitions and Congressional resolutions.
+          (3) Accompanying synopsis.--Accompanying the annual listing of 
+        areas shall be a synopsis, for each report previously submitted, 
+        of the current and changed condition of the resource integrity 
+        of the area and other relevant factors, compiled as a result of 
+        continual periodic monitoring and embracing the period since the 
+        previous submission or initial report submission one year 
+        earlier.
+          (4) Congressional authorization required.--No study of the 
+        potential of an area for inclusion in the System may be 
+        initiated except as provided by specific authorization of an Act 
+        of Congress.
+          (5) Authority to conduct certain activities not limited.--This 
+        section and sections 100901(b), 101702(b) and (c), and 102102 of 
+        this title do not limit the authority of the Service to conduct 
+        preliminary resource assessments, gather data on potential study 
+        areas, provide technical and planning assistance, prepare or 
+        process nominations for administrative
+[[Page 128 STAT. 3103]]
+        designations, update previous studies, or complete 
+        reconnaissance surveys of individual areas requiring a total 
+        expenditure of less than $25,000.
+          (6) Study of rivers or trails not affected.--This section does 
+        not apply to or affect or alter the study of--
+                  (A) any river segment for potential addition to the 
+                national wild and scenic rivers system; or
+                  (B) any trail for potential addition to the national 
+                trails system.
+  (c) Study of Areas for Potential Inclusion.--
+          (1) Study to be completed within 3 years.--The Secretary shall 
+        complete the study for each area for potential inclusion in the 
+        System within 3 complete fiscal years following the date on 
+        which funds are first made available for that purpose.
+          (2) Opportunity for public involvement required.--Each study 
+        under this section shall be prepared with appropriate 
+        opportunity for public involvement, including at least one 
+        public meeting in the vicinity of the area under study, and 
+        after reasonable efforts to notify potentially affected 
+        landowners and State and local governments.
+          (3) Considerations.--In conducting the study, the Secretary 
+        shall consider whether the area under study--
+                  (A) possesses nationally significant natural or 
+                cultural resources and represents one of the most 
+                important examples of a particular resource type in the 
+                country; and
+                  (B) is a suitable and feasible addition to the System.
+          (4) Scope of study.--Each study--
+                  (A) with regard to the area being studied, shall 
+                consider--
+                        (i) the rarity and integrity of the resources;
+                        (ii) the threats to those resources;
+                        (iii) whether similar resources are already 
+                      protected in the System or in other public or 
+                      private ownership;
+                        (iv) the public use potential;
+                        (v) the interpretive and educational potential;
+                        (vi) costs associated with acquisition, 
+                      development, and operation;
+                        (vii) the socioeconomic impacts of any 
+                      designation;
+                        (viii) the level of local and general public 
+                      support; and
+                        (ix) whether the area is of appropriate 
+                      configuration to ensure long-term resource 
+                      protection and visitor use;
+                  (B) shall consider </t>
         </is>
       </c>
     </row>
@@ -14297,7 +16969,580 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3979/text?s=1&amp;r=70&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 291]
+[From the U.S. Government Publishing Office]
+CARL LEVIN AND HOWARD P. ``BUCK'' MCKEON NATIONAL DEFENSE AUTHORIZATION 
+                        ACT FOR FISCAL YEAR 2015
+[[Page 128 STAT. 3292]]
+Public Law 113-291
+113th Congress
+                                 An Act
+To authorize appropriations for fiscal year 2015 for military activities 
+of the Department of Defense, for military construction, and for defense 
+activities of the Department of Energy, to prescribe military personnel 
+strengths for such fiscal year, and for other purposes. &lt;&lt;NOTE: Dec. 19, 
+                         2014 -  [H.R. 3979]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Carl Levin and 
+Howard P. ``Buck'' McKeon National Defense Authorization Act for Fiscal 
+Year 2015.&gt;&gt; 
+SECTION 1. SHORT TITLE.
+    (a) Short Title.--This Act may be cited as the ``Carl Levin and 
+Howard P. `Buck' McKeon National Defense Authorization Act for Fiscal 
+Year 2015''.
+    (b) Findings.--Congress makes the following findings:
+            (1)(A) Senator Carl Levin of Michigan was elected a member 
+        of the United States Senate on November 7, 1978, for a full term 
+        beginning January 3, 1979. He has served continuously in the 
+        Senate since that date, and was appointed as a member of the 
+        Committee on Armed Services in January 1979. He has served on 
+        the Committee on Armed Services since that date, a period of 
+        nearly 36 years.
+            (B) A graduate of Detroit Central High School, Senator Levin 
+        went on to Swarthmore College, and graduated from Harvard Law 
+        School in 1959, gaining admittance to the Michigan bar. He 
+        served his State as assistant attorney general and general 
+        counsel of the Michigan Civil Rights Commission from 1964-1967, 
+        and later served his hometown of Detroit as a member of the 
+        Detroit City Council from 1969-1973, and as the council's 
+        president from 1974-1977.
+            (C) Senator Levin first served as chairman of the Committee 
+        on Armed Services of the United States Senate for a period of 
+        the 107th Congress, and has remained chairman since the 110th 
+        Congress began in 2007. He has exercised extraordinary 
+        leadership as either the chairman or ranking minority member of 
+        the committee since the start of the 105th Congress in 1997.
+            (D) Each year, for the past 52 years, the Committee on Armed 
+        Services has reliably passed an annual defense authorization 
+        act, and this will be the 36th that Senator Levin has had a role 
+        in. In his capacity as member, ranking member, and chairman, he 
+        has been an advocate for a strong national defense, and has made 
+        lasting contributions to the security of our Nation.
+            (E) It is altogether fitting and proper that this Act, the 
+        last annual authorization act for the national defense that 
+        Senator Levin manages in and for the United States Senate
+[[Page 128 STAT. 3293]]
+        as chairman of the Committee on Armed Services, be named in his 
+        honor, as provided in subsection (a).
+            (2)(A) Representative Howard P. ``Buck'' McKeon was elected 
+        to the House of Representatives in 1992 to represent 
+        California's 25th Congressional District.
+            (B) Chairman McKeon was born in Los Angeles and grew up in 
+        Tujunga CA. He served a two and a half year mission for the 
+        Church of Jesus Christ of Latter-Day Saints and attended Brigham 
+        Young University. Prior to his election to Congress, he was a 
+        small business owner, and served both on the William S. Hart 
+        Union High School District Board of Trustees and as the first 
+        mayor of the City of Santa Clarita.
+            (C) In the 111th Congress, Chairman McKeon was selected by 
+        his peers as the Ranking Member of the House Armed Services 
+        Committee and has served as Chairman since in the 112th and 
+        113th Congresses. Previously Chairman McKeon had served as the 
+        Chairman of the House Committee on Education and the Workforce.
+            (D) Chairman McKeon is a champion of a strong national 
+        defense, the men and women of America's Armed Forces and their 
+        families, and returning fiscal discipline to the Department of 
+        Defense. His priority has been to ensure our troops deployed 
+        around the world have the equipment, resources, authorities, 
+        training and time they need to successfully complete their 
+        missions and return home.
+            (E) For 52 consecutive years, the House Armed Services 
+        Committee, in a bipartisan, bicameral tradition, has passed and 
+        enacted an annual defense authorization act. Chairman McKeon had 
+        said it has been the privilege of his life to shepherd that 
+        tradition under his tenure.
+            (F) It is therefore fitting this Act, the last national 
+        defense authorization act of his tenure, be named in Chairman 
+        McKeon's honor, as provided in subsection (a).
+    (c) References.--Any reference in this or any other Act to the 
+``National Defense Authorization Act for Fiscal Year 2015'' shall be 
+deemed to refer to the ``Carl Levin and Howard P. `Buck' McKeon National 
+Defense Authorization Act for Fiscal Year 2015''.
+SEC. 2. ORGANIZATION OF ACT INTO DIVISIONS; TABLE OF CONTENTS.
+    (a) Divisions.--This Act is organized into four divisions as 
+follows:
+            (1) Division A--Department of Defense Authorizations.
+            (2) Division B--Military Construction Authorizations.
+            (3) Division C--Department of Energy National Security 
+        Authorizations and Other Authorizations.
+            (4) Division D--Funding Tables.
+    (b) Table of Contents.--The table of contents for this Act is as 
+follows:
+Sec. 1. Short title.
+Sec. 2. Organization of Act into divisions; table of contents.
+Sec. 3. Congressional defense committees.
+Sec. 4. Budgetary effects of this Act.
+Sec. 5. Explanatory statement.
+            DIVISION A--DEPARTMENT OF DEFENSE AUTHORIZATIONS
+                          TITLE I--PROCUREMENT
+               Subtitle A--Authorization of Appropriations
+Sec. 101. Authorization of Appropriations.
+[[Page 128 STAT. 3294]]
+                        Subtitle B--Army Programs
+Sec. 111. Plan on modernization of UH-60A aircraft of Army National 
+           Guard.
+                        Subtitle C--Navy Programs
+Sec. 121. Construction of San Antonio class amphibious ship.
+Sec. 122. Limitation on availability of funds for mission modules for 
+           Littoral Combat Ship.
+Sec. 123. Extension of limitation on availability of funds for Littoral 
+           Combat Ship.
+Sec. 124. Report on test evaluation master plan for Littoral Combat Ship 
+           seaframes and mission modules.
+Sec. 125. Airborne electronic attack capabilities.
+                     Subtitle D--Air Force Programs
+Sec. 131. Prohibition on availability of funds for retirement of MQ-1 
+           Predator aircraft.
+Sec. 132. Prohibition on availability of funds for retirement of U-2 
+           aircraft.
+Sec. 133. Prohibition on availability of funds for retirement of A-10 
+           aircraft.
+Sec. 134. Prohibition on cancellation or modification of avionics 
+           modernization program for C-130 aircraft.
+Sec. 135. Limitation on availability of funds for retirement of Air 
+           Force aircraft.
+Sec. 136. Limitation on availability of funds for retirement of E-3 
+           airborne warning and control system aircraft.
+Sec. 137. Limitation on availability of funds for divestment or transfer 
+           of KC-10 aircraft.
+Sec. 138. Limitation on availability of funds for transfer of Air Force 
+           C-130H and C-130J aircraft.
+Sec. 139. Limitation on availability of funds for transfer of Air Force 
+           KC-135 tankers.
+Sec. 140. Report on C-130 aircraft.
+Sec. 141. Report on status of F-16 aircraft.
+Sec. 142. Report on options to modernize or replace T-1A aircraft.
+Sec. 143. Report on status of air-launched cruise missile capabilities.
+        Subtitle E--Defense-Wide, Joint, and Multiservice Matters
+Sec. 151. Additional oversight requirements for the undersea mobility 
+           acquisition program of the United States Special Operations 
+           Command.
+Sec. 152. Plan for modernization or replacement of digital avionic 
+           equipment.
+Sec. 153. Comptroller General report on F-35 aircraft acquisition 
+           program.
+          TITLE II--RESEARCH, DEVELOPMENT, TEST, AND EVALUATION
+               Subtitle A--Authorization of Appropriations
+Sec. 201. Authorization of Appropriations.
+     Subtitle B--Program Requirements, Restrictions, and Limitations
+Sec. 211. Modification of authority for prizes for advanced technology 
+           achievements.
+Sec. 212. Modification of Manufacturing Technology Program.
+Sec. 213. Revision of requirement for acquisition programs to maintain 
+           defense research facility records.
+Sec. 214. Treatment by Department of Defense Test Resource Management 
+           Center of significant modifications to test and evaluation 
+           facilities and resources.
+Sec. 215. Revision to the service requirement under the Science, 
+           Mathematics, and Research for Transformation Defense 
+           Education Program.
+Sec. 216. Limitation on availability of funds for armored multi-purpose 
+           vehicle program.
+Sec. 217. Limitation on availability of funds for unmanned carrier-
+           launched airborne surveillance and strike system.
+Sec. 218. Limitation on availability of funds for airborne 
+           reconnaissance systems.
+Sec. 219. Limitation on availability of funds for retirement of Joint 
+           Surveillance and Target Attack Radar Systems aircraft.
+                           Subtitle C--Reports
+Sec. 221. Reduction in frequency of reporting by Deputy Assistant 
+           Secretary of Defense for Systems Engineering.
+Sec. 222. Independent assessment of interagency biodefense research and 
+           development.
+Sec. 223. Briefing on modeling and simulation technological and 
+           industrial base in support of requirements of Department of 
+           Defense.
+[[Page 128 STAT. 3295]]
+                        Subtitle D--Other Matters
+Sec. 231. Modification to requirement for contractor cost sharing in 
+           pilot program to include technology protection features 
+           during research and development of certain defense systems.
+Sec. 232. Pilot program on assignment to Defense Advanced Research 
+           Projects Agency of private sector personnel with critical 
+           research and development expertise.
+Sec. 233. Pilot program on enhancement of preparation of dependents of 
+           members of Armed Forces for careers in science, technology, 
+           engineering, and mathematics.
+Sec. 234. Sense of Congress on helicopter health and usage monitoring 
+           system of the Army.
+                  TITLE III--OPERATION AND MAINTENANCE
+               Subtitle A--Authorization of Appropriations
+Sec. 301. Authorization of appropriations.
+                   Subtitle B--Energy and Environment
+Sec. 311. Elimination of fiscal year limitation on prohibition of 
+           payment of fines and penalties from the Environmental 
+           Restoration Account, Defense.
+Sec. 312. Method of funding for cooperative agreements under the Sikes 
+           Act.
+Sec. 313. Report on prohibition of disposal of waste in open-air burn 
+           pits.
+Sec. 314. Business case analysis of any plan to design, refurbish, or 
+           construct a biofuel refinery.
+Sec. 315. Environmental restoration at former Naval Air Station 
+           Chincoteague, Virginia.
+Sec. 316. Limitation on availability of funds for procurement of drop-in 
+           fuels.
+Sec. 317. Decontamination of a portion of former bombardment area on 
+           island of Culebra, Puerto Rico.
+Sec. 318. Alternative fuel automobiles.
+                  Subtitle C--Logistics and Sustainment
+Sec. 321. Modification of quarterly readiness reporting requirement.
+Sec. 322. Additional requirement for strategic policy on prepositioning 
+           of materiel and equipment.
+Sec. 323. Elimination of authority of Secretary of the Army to abolish 
+           arsenals.
+Sec. 324. Modification of annual reporting requirement related to 
+           prepositioning of materiel and equipment.
+                           Subtitle D--Reports
+Sec. 331. Repeal of annual report on Department of Defense operation and 
+           financial support for military museums.
+Sec. 332. Army assessment of regionally aligned forces.
+           Subtitle E--Limitations and Extensions of Authority
+Sec. 341. Limitation on authority to enter into a contract for the 
+           sustainment, maintenance, repair, or overhaul of the F117 
+           engine.
+Sec. 342. Limitation on establishment of regional Special Operations 
+           Forces Coordination Centers.
+Sec. 343. Limitation on transfer of MC-12 aircraft to United States 
+           Special Operations Command.
+                        Subtitle F--Other Matters
+Sec. 351. Clarification of authority relating to provision of 
+           installation-support services through intergovernmental 
+           support agreements.
+Sec. 352. Management of conventional ammunition inventory.
+               TITLE IV--MILITARY PERSONNEL AUTHORIZATIONS
+                        Subtitle A--Active Forces
+Sec. 401. End strengths for active forces.
+Sec. 402. Revisions in permanent active duty end strength minimum 
+           levels.
+                       Subtitle B--Reserve Forces
+Sec. 411. End strengths for Selected Reserve.
+Sec. 412. End strengths for reserves on active duty in support of the 
+           reserves.
+Sec. 413. End strengths for military technicians (dual status).
+Sec. 414. Fiscal year 2015 limitation on number of non-dual status 
+           technicians.
+Sec. 415. Maximum number of reserve personnel authorized to be on active 
+           duty for operational support.
+[[Page 128 STAT. 3296]]
+               Subtitle C--Authorization of Appropriations
+Sec. 421. Military personnel.
+                   TITLE V--MILITARY PERSONNEL POLICY
+                  Subtitle A--Officer Personnel Policy
+Sec. 501. Authority to limit consideration for early retirement by 
+           selective retirement boards to particular warrant officer 
+           year groups and specialties.
+Sec. 502. Authority for three-month deferral of retirement for officers 
+           selected for selective early retirement.
+Sec. 503. Repeal of limits on percentage of officers who may be 
+           recommended for discharge during a fiscal year under enhanced 
+           selective discharge authority.
+Sec. 504. Reports on number and assignment of enlisted aides for 
+           officers of the Army, Navy, Air Force, and Marine Corps.
+Sec. 505. Repeal of requirement for submission to Congress of annual 
+           reports on joint officer management and promotion policy 
+           objectives for joint officers.
+Sec. 506. Options for Phase II of joint professional military education.
+Sec. 507. Elimination of requirement that a qualified aviator or naval 
+           flight officer be in command of an inactivated nuclear-
+           powered aircraft carrier before decommissioning.
+Sec. 508. Required consideration of certain elements of command climate 
+           in performance appraisals of commanding officers.
+                Subtitle B--Reserve Component Management
+Sec. 511. Retention on the reserve active-status list following 
+           nonselection for promotion of certain health professions 
+           officers and first lieutenants and lieutenants (junior grade) 
+           pursuing baccalaureate degrees.
+Sec. 512. Consultation with Chief of the National Guard Bureau in 
+           selection of Directors and Deputy Directors, Army National 
+           Guard and Air National Guard.
+Sec. 513. Centralized database of information on military technician 
+           positions.
+Sec. 514. Report on management of personnel records of members of the 
+           National Guard.
+                 Subtitle C--General Service Authorities
+Sec. 521. Enhancement of participation of mental health professionals in 
+           boards for correction of military records and boards for 
+           review of discharge or dismissal of members of the Armed 
+           Forces.
+Sec. 522. Extension of authority to conduct programs on career 
+           flexibility to enhance retention of members of the Armed 
+           Forces.
+Sec. 523. Provision of information to members of the Armed Forces on 
+           privacy rights relating to receipt of mental health services.
+Sec. 524. Removal of artificial barriers to the service of women in the 
+           Armed Forces.
+  Subtitle D--Military Justice, Including Sexual Assault and Domestic 
+                    Violence Prevention and Response
+Sec. 531. Technical revisions and clarifications of certain provisions 
+           in the National Defense Authorization Act for Fiscal Year 
+           2014 relating to the military justice system.
+Sec. 532. Ordering of depositions under the Uniform Code of Military 
+           Justice.
+Sec. 533. Access to Special Victims' Counsel.
+Sec. 534. Enhancement of victims' rights in connection with prosecution 
+           of certain sex-related offenses.
+Sec. 535. Enforcement of crime victims' rights related to protections 
+           afforded by certain Military Rules of Evidence.
+Sec. 536. Modification of Military Rules of Evidence relating to 
+           admissibility of general military character toward 
+           probability of innocence.
+Sec. 537. Modification of Rule 513 of the Military Rules of Evidence, 
+           relating to the privilege against disclosure of 
+           communications between psychotherapists and patients.
+Sec. 538. Modification of Department of Defense policy on retention of 
+           evidence in a sexual assault case to permit return of 
+           personal property upon completion of related proceedings.
+Sec. 539. Requirements relating to Sexual Assault Forensic Examiners for 
+           the Armed Forces.
+Sec. 540. Modification of term of judges of the United States Court of 
+           Appeals for the Armed Forces.
+[[Page 128 STAT. 3297]]
+Sec. 541. Review of decisions not to refer charges of certain sex-
+           related offenses for trial by court-martial if requested by 
+           chief prosecutor.
+Sec. 542. Analysis and assessment of disposition of most serious 
+           offenses identified in unrestricted reports on sexual 
+           assaults in annual reports on sexual assaults in the Armed 
+           Forces.
+Sec. 543. Plan for limited use of certain information on sexual assaults 
+           in restricted reports by military criminal investigative 
+           organizations.
+Sec. 544. Improved Department of Defense information reporting and 
+           collection of domestic violence incidents involving members 
+           of the Armed Forces.
+Sec. 545. Additional duties for judicial proceedings panel.
+Sec. 546. Defense Advisory Committee on Investigation, Prosecution, and 
+           Defense of Sexual Assault in the Armed Forces.
+Sec. 547. Confidential review of characterization of terms of discharge 
+           of members of the Armed Forces who are victims of sexual 
+           offenses.
+         Subtitle E--Member Education, Training, and Transition
+Sec. 551. Enhancement of authority to assist members of the Armed Forces 
+           to obtain professional credentials.
+Sec. 552. Applicability of sexual assault prevention and response and 
+           related military justice enhancements to military service 
+           academies.
+Sec. 553. Authorized duration of foreign and cultural exchange 
+           activities at military service academies.
+Sec. 554. Enhancement of authority to accept support for Air Force 
+           Academy athletic programs.
+Sec. 555. Pilot program to assist members of the Armed Forces in 
+           obtaining post-service employment.
+Sec. 556. Plan for education of members of Armed Forces on cyber 
+           matters.
+Sec. 557. Enhancement of information provided to members of the Armed 
+           Forces and veterans regarding use of Post-9/11 Educational 
+           Assistance and Federal financial aid through Transition 
+           Assistance Program.
+Sec. 558. Procedures for provision of certain information to State 
+           veterans agencies to facilitate the transition of members of 
+           the Armed Forces from military service to civilian life.
+Subtitle F--Defense Dependents' Education and Military Family Readiness 
+                                 Matters
+Sec. 561. Continuation of authority to assist local educational agencies 
+           that benefit dependents of members of the Armed Forces and 
+           Department of Defense civilian employees.
+Sec. 562. Impact aid for children with severe disabilities.
+Sec. 563. Amendments to the Impact Aid Improvement Act of 2012.
+Sec. 564. Authority to employ non-United States citizens as teachers in 
+           Department of Defense overseas dependents' school system.
+Sec. 565. Inclusion of domestic dependent elementary and secondary 
+           schools among functions of Advisory Council on Dependents' 
+           Education.
+Sec. 566. Protection of child custody arrangements for parents who are 
+           members of the Armed Forces.
+Sec. 567. Improved consistency in data collection and reporting in Armed 
+           Forces suicide prevention efforts.
+Sec. 568. Improved data collection related to efforts to reduce 
+           underemployment of spouses of members of the Armed Forces and 
+           close the wage gap between military spouses and their 
+           civilian counterparts.
+                   Subtitle G--Decorations and Awards
+Sec. 571. Medals for members of the Armed Forces and civilian employees 
+           of the Department of Defense who were killed or wounded in an 
+           attack by a foreign terrorist organization.
+Sec. 572. Authorization for award of the Medal of Honor to members of 
+           the Armed Forces for acts of valor during World War I.
+            Subtitle H--Miscellaneous Reporting Requirements
+Sec. 581. Review and report on military programs and controls regarding 
+           professionalism.
+Sec. 582. Review and report on prevention of suicide among members of 
+           United States Special Operations Forces.
+Sec. 583. Review and report on provision of job placement assistance and 
+           related employment services directly to members of the 
+           reserve components.
+Sec. 584. Report on foreign language, regional expertise, and culture 
+           considerations in overseas military operations.
+Sec. 585. Deadline for submission of report containing results of review 
+           of Office of Diversity Management and Equal Opportunity role 
+           in sexual harassment cases.
+[[Page 128 STAT. 3298]]
+Sec. 586. Independent assessment of risk and resiliency of United States 
+           Special Operations Forces and effectiveness of the 
+           Preservation of the Force and Families and Human Performance 
+           Programs.
+Sec. 587. Comptroller General report on hazing in the Armed Forces.
+Sec. 588. Comptroller General report on impact of certain mental and 
+           physical trauma on discharges from military service for 
+           misconduct.
+                        Subtitle I--Other Matters
+Sec. 591. Inspection of outpatient residential facilities occupied by 
+           recovering service members.
+Sec. 592. Designation of voter assistance offices.
+Sec. 593. Repeal of electronic voting demonstration project.
+Sec. 594. Authority for removal from national cemeteries of remains of 
+           certain deceased members of the Armed Forces who have no 
+           known next of kin.
+Sec. 595. Sense of Congress regarding leaving no member of the Armed 
+           Forces unaccounted for during the drawdown of United States 
+           forces in Afghanistan.
+           TITLE VI--COMPENSATION AND OTHER PERSONNEL BENEFITS
+                     Subtitle A--Pay and Allowances
+Sec. 601. No fiscal year 2015 increase in basic pay for general and flag 
+           officers.
+Sec. 602. Extension of authority to provide temporary increase in rates 
+           of basic allowance for housing under certain circumstances.
+Sec. 603. Inclusion of Chief of the National Guard Bureau and Senior 
+           Enlisted Advisor to the Chief of the National Guard Bureau 
+           among senior members of the Armed Forces for purposes of pay 
+           and allowances.
+Sec. 604. Modification of computation of basic allowance for housing 
+           inside the United States.
+           Subtitle B--Bonuses and Special and Incentive Pays
+Sec. 611. One-year extension of certain bonus and special pay 
+           authorities for reserve forces.
+Sec. 612. One-year extension of certain bonus and special pay 
+           authorities for health care professionals.
+Sec. 613. One-year extension of special pay and bonus authorities for 
+           nuclear officers.
+Sec. 614. One-year extension of authorities relating to title 37 
+           consolidated special pay, incentive pay, and bonus 
+           authorities.
+Sec. 615. One-year extension of authorities relating to payment of other 
+           title 37 bonuses and special pays.
+     Subtitle C--Disability Pay, Retired Pay, and Survivor Benefits
+Sec. 621. Earlier determination of dependent status with respect to 
+           transitional compensation for dependents of certain members 
+           separated for dependent abuse.
+Sec. 622. Modification of determination of retired pay base for officers 
+           retired in general and flag officer grades.
+Sec. 623. Inapplicability of reduced annual adjustment of retired pay 
+           for members of the Armed Forces under the age of 62 under the 
+           Bipartisan Budget Act of 2013 who first become members prior 
+           to January 1, 2016.
+Sec. 624. Survivor Benefit Plan annuities for special needs trusts 
+           established for the benefit of dependent children incapable 
+           of self-support.
+Sec. 625. Modification of per-fiscal year calculation of days of certain 
+           active duty or active service to reduce eligibility age for 
+           retirement for non-regular service.
+Subtitle D--Commissary and Nonappropriated Fund Instrumentality Benefits 
+                             and Operations
+Sec. 631. Procurement of brand-name and other commercial items for 
+           resale by commissary stores.
+Sec. 632. Authority of nonappropriated fund instrumentalities to enter 
+           into contracts with other Federal agencies and 
+           instrumentalities to provide and obtain certain goods and 
+           services.
+Sec. 633. Competitive pricing of legal consumer tobacco products sold in 
+           Department of Defense retail stores.
+Sec. 634. Review of management, food, and pricing options for defense 
+           commissary system.
+                    TITLE VII--HEALTH CARE PROVISIONS
+           Subtitle A--TRICARE and Other Health Care Benefits
+Sec. 701. Mental health assessments for members of the Armed Forces.
+[[Page 128 STAT. 3299]]
+Sec. 702. Modifications of cost-sharing and other requirements for the 
+           TRICARE Pharmacy Benefits Program.
+Sec. 703. Elimination of inpatient day limits and other limits in 
+           provision of mental health services.
+Sec. 704. Authority for provisional TRICARE coverage for emerging health 
+           care services and supplies.
+Sec. 705. Clarification of provision of food to former members and 
+           dependents not receiving inpatient care in military medical 
+           treatment facilities.
+Sec. 706. Availability of breastfeeding support, supplies, and 
+           counseling under the TRICARE program.
+                 Subtitle B--Health Care Administration
+Sec. 711. Provision of notice of change to TRICARE benefits.
+Sec. 712. Surveys on continued viability of TRICARE Standard and TRICARE 
+           Extra.
+Sec. 713. Review of military health system modernization study.
+                  Subtitle C--Reports and Other Matters
+Sec. 721. Designation and responsibilities of senior medical advisor for 
+           Armed Forces Retirement Home.
+Sec. 722. Extension of authority for joint Department of Defense-
+           Department of Veterans Affairs Medical Facility Demonstration 
+           Fund.
+Sec. 723. Report on status of reductions in TRICARE Prime service areas.
+Sec. 724. Extension of authority to provide rehabilitation and 
+           vocational benefits to members of the Armed Forces with 
+           severe injuries or illnesses.
+Sec. 725. Acquisition strategy for health care professional staffing 
+           services.
+Sec. 726. Pilot program on medication therapy management under TRICARE 
+           program.
+Sec. 727. Antimicrobial stewardship program at medical facilities of the 
+           Department of Defense.
+Sec. 728. Report on improvements in the identification and treatment of 
+           mental health conditions and traumatic brain injury among 
+           members of the Armed Forces.
+Sec. 729. Report on efforts to treat infertility of military families.
+Sec. 730. Report on implementation of recommendations of Institute of 
+           Medicine on improvements to certain resilience and prevention 
+           programs of the Department of Defense.
+Sec. 731. Comptroller General report on transition of care for post-
+           traumatic stress disorder or traumatic brain injury.
+Sec. 732. Comptroller General report on mental health stigma reduction 
+           efforts in the Department of Defense.
+Sec. 733. Comptroller General report on women's health care services for 
+           members of the Armed Forces and other covered beneficiaries.
+  TITLE VIII--ACQUISITION POLICY, ACQUISITION MANAGEMENT, AND RELATED 
+                                 MATTERS
+              Subtitle A--Acquisition Policy and Management
+Sec. 801. Modular open systems approaches in acquisition programs.
+Sec. 802. Recharacterization of changes to Major Automated Information 
+           System programs.
+Sec. 803. Amendments relating to defense business systems.
+Sec. 804. Report on implementation of acquisition process for 
+           information technology systems.
+ Subtitle B--Amendments to General Contracting Authorities, Procedures, 
+                             and Limitations
+Sec. 811. Extension and modification of contract authority for advanced 
+           component development and prototype units.
+Sec. 812. Amendments relating to authority of the Defense Advanced 
+           Research Projects Agency to carry out certain prototype 
+           projects.
+Sec. 813. Extension of limitation on aggregate annual amount available 
+           for contract services.
+Sec. 814. Improvement in defense design-build construction process.
+Sec. 815. Permanent authority for use of simplified acquisition 
+           procedures for certain commercial items.
+Sec. 816. Restatement and revision of requirements applicable to 
+           multiyear defense acquisitions to be specifically authorized 
+           by law.
+Sec. 817. Sourcing requirements related to avoiding counterfeit 
+           electronic parts.
+Sec. 818. Amendments to Proof of Concept Commercialization Pilot 
+           Program.
+[[Page 128 STAT. 3300]]
+                   Subtitle C--Industrial Base Matters
+Sec. 821. Temporary extension of and amendments to test program for 
+           negotiation of comprehensive small business subcontracting 
+           plans.
+Sec. 822. Plan for improving data on bundled or consolidated contracts.
+Sec. 823. Authority to provide education to small businesses on certain 
+           requirements of Arms Export Control Act.
+Sec. 824. Matters relating to reverse auctions.
+Sec. 825. Sole source contracts for small business concerns owned and 
+           controlled by women.
+      Subtitle D--Federal Information Technology Acquisition Reform
+Sec. 831. Chief Information Officer authority enhancements.
+Sec. 832. Enhanced transparency and improved risk management in 
+           information technology investments.
+Sec. 833. Portfolio review.
+Sec. 834. Federal data center consolidation ini</t>
         </is>
       </c>
     </row>
@@ -14339,7 +17584,382 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/2519/text?s=1&amp;r=71&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 282]
+[From the U.S. Government Publishing Office]
+[[Page 3065]]
+              NATIONAL CYBERSECURITY PROTECTION ACT OF 2014
+[[Page 128 STAT. 3066]]
+Public Law 113-282
+113th Congress
+                                 An Act
+To codify an existing operations center for cybersecurity. &lt;&lt;NOTE: Dec. 
+                        18, 2014 -  [S. 2519]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: National 
+Cybersecurity Protection Act of 2014.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 6 USC 101 note.&gt;&gt;  SHORT TITLE.
+    This Act may be cited as the ``National Cybersecurity Protection Act 
+of 2014''.
+SEC. 2. &lt;&lt;NOTE: 6 USC 148 note.&gt;&gt;  DEFINITIONS.
+    In this Act--
+            (1) the term ``Center'' means the national cybersecurity and 
+        communications integration center under section 226 of the 
+        Homeland Security Act of 2002, as added by section 3;
+            (2) the term ``critical infrastructure'' has the meaning 
+        given that term in section 2 of the Homeland Security Act of 
+        2002 (6 U.S.C. 101);
+            (3) the term ``cybersecurity risk'' has the meaning given 
+        that term in section 226 of the Homeland Security Act of 2002, 
+        as added by section 3;
+            (4) the term ``information sharing and analysis 
+        organization'' has the meaning given that term in section 212(5) 
+        of the Homeland Security Act of 2002 (6 U.S.C. 131(5));
+            (5) the term ``information system'' has the meaning given 
+        that term in section 3502(8) of title 44, United States Code; 
+        and
+            (6) the term ``Secretary'' means the Secretary of Homeland 
+        Security.
+SEC. 3. NATIONAL CYBERSECURITY AND COMMUNICATIONS INTEGRATION 
+                    CENTER.
+    (a) In General.--Subtitle C of title II of the Homeland Security Act 
+of 2002 (6 U.S.C. 141 et seq.) is amended by adding at the end the 
+following:
+``SEC. 226. &lt;&lt;NOTE: 6 USC 148.&gt;&gt; NATIONAL CYBERSECURITY AND 
+                        COMMUNICATIONS INTEGRATION CENTER.
+    ``(a) Definitions.--In this section--
+            ``(1) the term `cybersecurity risk' means threats to and 
+        vulnerabilities of information or information systems and any 
+        related consequences caused by or resulting from unauthorized 
+        access, use, disclosure, degradation, disruption, modification, 
+        or destruction of information or information systems, including 
+        such related consequences caused by an act of terrorism;
+            ``(2) the term `incident' means an occurrence that--
+[[Page 128 STAT. 3067]]
+                    ``(A) actually or imminently jeopardizes, without 
+                lawful authority, the integrity, confidentiality, or 
+                availability of information on an information system; or
+                    ``(B) constitutes a violation or imminent threat of 
+                violation of law, security policies, security 
+                procedures, or acceptable use policies;
+            ``(3) the term `information sharing and analysis 
+        organization' has the meaning given that term in section 212(5); 
+        and
+            ``(4) the term `information system' has the meaning given 
+        that term in section 3502(8) of title 44, United States Code.
+    ``(b) Center.--There is in the Department a national cybersecurity 
+and communications integration center (referred to in this section as 
+the `Center') to carry out certain responsibilities of the Under 
+Secretary appointed under section 103(a)(1)(H).
+    ``(c) Functions.--The cybersecurity functions of the Center shall 
+include--
+            ``(1) being a Federal civilian interface for the multi-
+        directional and cross-sector sharing of information related to 
+        cybersecurity risks, incidents, analysis, and warnings for 
+        Federal and non-Federal entities;
+            ``(2) providing shared situational awareness to enable real-
+        time, integrated, and operational actions across the Federal 
+        Government and non-Federal entities to address cybersecurity 
+        risks and incidents to Federal and non-Federal entities;
+            ``(3) coordinating the sharing of information related to 
+        cybersecurity risks and incidents across the Federal Government;
+            ``(4) facilitating cross-sector coordination to address 
+        cybersecurity risks and incidents, including cybersecurity risks 
+        and incidents that may be related or could have consequential 
+        impacts across multiple sectors;
+            ``(5)(A) conducting integration and analysis, including 
+        cross-sector integration and analysis, of cybersecurity risks 
+        and incidents; and
+            ``(B) sharing the analysis conducted under subparagraph (A) 
+        with Federal and non-Federal entities;
+            ``(6) upon request, providing timely technical assistance, 
+        risk management support, and incident response capabilities to 
+        Federal and non-Federal entities with respect to cybersecurity 
+        risks and incidents, which may include attribution, mitigation, 
+        and remediation; and
+            ``(7) providing information and recommendations on security 
+        and resilience measures to Federal and non-Federal entities, 
+        including information and recommendations to--
+                    ``(A) facilitate information security; and
+                    ``(B) strengthen information systems against 
+                cybersecurity risks and incidents.
+    ``(d) Composition.--
+            ``(1) In general.--The Center shall be composed of--
+                    ``(A) appropriate representatives of Federal 
+                entities, such as--
+                          ``(i) sector-specific agencies;
+                          ``(ii) civilian and law enforcement agencies; 
+                      and
+                          ``(iii) elements of the intelligence 
+                      community, as that term is defined under section 
+                      3(4) of the National Security Act of 1947 (50 
+                      U.S.C. 3003(4));
+[[Page 128 STAT. 3068]]
+                    ``(B) appropriate representatives of non-Federal 
+                entities, such as--
+                          ``(i) State and local governments;
+                          ``(ii) information sharing and analysis 
+                      organizations; and
+                          ``(iii) owners and operators of critical 
+                      information systems;
+                    ``(C) components within the Center that carry out 
+                cybersecurity and communications activities;
+                    ``(D) a designated Federal official for operational 
+                coordination with and across each sector; and
+                    ``(E) other appropriate representatives or entities, 
+                as determined by the Secretary.
+            ``(2) Incidents.--In the event of an incident, during 
+        exigent circumstances the Secretary may grant a Federal or non-
+        Federal entity immediate temporary access to the Center.
+    ``(e) Principles.--In carrying out the functions under subsection 
+(c), the Center shall ensure--
+            ``(1) to the extent practicable, that--
+                    ``(A) timely, actionable, and relevant information 
+                related to cybersecurity risks, incidents, and analysis 
+                is shared;
+                    ``(B) when appropriate, information related to 
+                cybersecurity risks, incidents, and analysis is 
+                integrated with other relevant information and tailored 
+                to the specific characteristics of a sector;
+                    ``(C) activities are prioritized and conducted based 
+                on the level of risk;
+                    ``(D) industry sector-specific, academic, and 
+                national laboratory expertise is sought and receives 
+                appropriate consideration;
+                    ``(E) continuous, collaborative, and inclusive 
+                coordination occurs--
+                          ``(i) across sectors; and
+                          ``(ii) with--
+                                    ``(I) sector coordinating councils;
+                                    ``(II) information sharing and 
+                                analysis organizations; and
+                                    ``(III) other appropriate non-
+                                Federal partners;
+                    ``(F) as appropriate, the Center works to develop 
+                and use mechanisms for sharing information related to 
+                cybersecurity risks and incidents that are technology-
+                neutral, interoperable, real-time, cost-effective, and 
+                resilient; and
+                    ``(G) the Center works with other agencies to reduce 
+                unnecessarily duplicative sharing of information related 
+                to cybersecurity risks and incidents;
+            ``(2) that information related to cybersecurity risks and 
+        incidents is appropriately safeguarded against unauthorized 
+        access; and
+            ``(3) that activities conducted by the Center comply with 
+        all policies, regulations, and laws that protect the privacy and 
+        civil liberties of United States persons.
+    ``(f) No Right or Benefit.--
+            ``(1) In general.--The provision of assistance or 
+        information to, and inclusion in the Center of, governmental or 
+        private entities under this section shall be at the sole and 
+        unreviewable
+[[Page 128 STAT. 3069]]
+        discretion of the Under Secretary appointed under section 
+        103(a)(1)(H).
+            ``(2) Certain assistance or information.--The provision of 
+        certain assistance or information to, or inclusion in the Center 
+        of, one governmental or private entity pursuant to this section 
+        shall not create a right or benefit, substantive or procedural, 
+        to similar assistance or information for any other governmental 
+        or private entity.''.
+    (b) Technical and Conforming Amendment.--The table of contents in 
+section 1(b) of the Homeland Security Act of 2002 (6 U.S.C. 101 note) is 
+amended by inserting after the item relating to section 225 the 
+following:
+``Sec. 226. National cybersecurity and communications integration 
+           center.''.
+SEC. 4. RECOMMENDATIONS REGARDING NEW AGREEMENTS.
+    (a) In General.--Not later than 180 days after the 
+date &lt;&lt;NOTE: Deadline.&gt;&gt; of enactment of this Act, the Secretary shall 
+submit recommendations on how to expedite the implementation of 
+information-sharing agreements for cybersecurity purposes between the 
+Center and non-Federal entities (referred to in this section as 
+``cybersecurity information-sharing agreements'') to--
+            (1) the Committee on Homeland Security and Governmental 
+        Affairs and the Committee on the Judiciary of the Senate; and
+            (2) the Committee on Homeland Security and the Committee on 
+        the Judiciary of the House of Representatives.
+    (b) Contents.--In submitting recommendations under subsection (a), 
+the Secretary shall--
+            (1) address the development and utilization of a scalable 
+        form that retains all privacy and other protections in 
+        cybersecurity information-sharing agreements that are in effect 
+        as of the date on which the Secretary submits the 
+        recommendations, including Cooperative Research and Development 
+        Agreements; and
+            (2) include in the recommendations any additional 
+        authorities or resources that may be needed to carry out the 
+        implementation of any new cybersecurity information-sharing 
+        agreements.
+SEC. 5. ANNUAL REPORT.
+    Not later than 1 year after the date of enactment of this Act, and 
+every year thereafter for 3 years, the Secretary shall submit to the 
+Committee on Homeland Security and Governmental Affairs and the 
+Committee on the Judiciary of the Senate, the Committee on Homeland 
+Security and the Committee on the Judiciary of the House of 
+Representatives, and the Comptroller General of the United States a 
+report on the Center, which shall include--
+     (a) information on the Center, including--
+            (1) an assessment of the capability and capacity of the 
+        Center to carry out its cybersecurity mission under this Act;
+            (2) the number of representatives from non-Federal entities 
+        that are participating in the Center, including the number of 
+        representatives from States, nonprofit organizations, and 
+        private sector entities, respectively;
+            (3) the number of requests from non-Federal entities to 
+        participate in the Center and the response to such requests;
+[[Page 128 STAT. 3070]]
+            (4) the average length of time taken to resolve requests 
+        described in paragraph (3);
+            (5) the identification of--
+                    (A) any delay in resolving requests described in 
+                paragraph (3) involving security clearance processing; 
+                and
+                    (B) the agency involved with a delay described in 
+                subparagraph (A);
+            (6) a description of any other obstacles or challenges to 
+        resolving requests described in paragraph (3) and a summary of 
+        the reasons for denials of any such requests;
+            (7) the extent to which the Department is engaged in 
+        information sharing with each critical infrastructure sector, 
+        including--
+                    (A) the extent to which each sector has 
+                representatives at the Center;
+                    (B) the extent to which owners and operators of 
+                critical infrastructure in each critical infrastructure 
+                sector participate in information sharing at the Center; 
+                and
+                    (C) the volume and range of activities with respect 
+                to which the Secretary has collaborated with the sector 
+                coordinating councils and the sector-specific agencies 
+                to promote greater engagement with the Center; and
+            (8) the policies and procedures established by the Center to 
+        safeguard privacy and civil liberties.
+SEC. 6. GAO REPORT.
+    Not later than 2 years after the date of enactment of this Act, the 
+Comptroller General of the United States shall submit to the Committee 
+on Homeland Security and Governmental Affairs of the Senate and the 
+Committee on Homeland Security of the House of Representatives a report 
+on the effectiveness of the Center in carrying out its cybersecurity 
+mission.
+SEC. 7. CYBER INCIDENT RESPONSE PLAN; CLEARANCES; BREACHES.
+    (a) Cyber Incident Response Plan; Clearances.--Subtitle C of title 
+II of the Homeland Security Act of 2002 (6 U.S.C. 141 et seq.), as 
+amended by section 3, is amended by adding at the end the following:
+``SEC. 227. &lt;&lt;NOTE: 6 USC 149.&gt;&gt;  CYBER INCIDENT RESPONSE PLAN.
+    ``The Under Secretary appointed under section 103(a)(1)(H) shall, in 
+coordination with appropriate Federal departments and agencies, State 
+and local governments, sector coordinating councils, information sharing 
+and analysis organizations (as defined in section 212(5)), owners and 
+operators of critical infrastructure, and other appropriate entities and 
+individuals, develop, regularly update, maintain, and exercise adaptable 
+cyber incident response plans to address cybersecurity risks (as defined 
+in section 226) to critical infrastructure.
+``SEC. 228. &lt;&lt;NOTE: 6 USC 150.&gt;&gt;  CLEARANCES.
+    ``The Secretary shall make available the process of application for 
+security clearances under Executive Order 13549 (75 Fed. Reg. 162; 
+relating to a classified national security information program) or any 
+successor Executive Order to appropriate representatives
+[[Page 128 STAT. 3071]]
+of sector coordinating councils, sector information sharing and analysis 
+organizations (as defined in section 212(5)), owners and operators of 
+critical infrastructure, and any other person that the Secretary 
+determines appropriate.''.
+    (b) &lt;&lt;NOTE: 44 USC 3543 note.&gt;&gt;  Breaches.--
+            (1) Requirements.--The Director of the Office of Management 
+        and Budget shall ensure that data breach notification policies 
+        and guidelines are updated periodically and require--
+                    (A) &lt;&lt;NOTE: Notifications.&gt;&gt;  except as provided in 
+                paragraph (4), notice by the affected agency to each 
+                committee of Congress described in section 3544(c)(1) of 
+                title 44, United States Code, the Committee on the 
+                Judiciary of the Senate, and the Committee on Homeland 
+                Security and the Committee on the Judiciary of the House 
+                of Representatives, which shall--
+                          (i) &lt;&lt;NOTE: Deadline.&gt;&gt;  be provided 
+                      expeditiously and not later than 30 days after the 
+                      date on which the agency discovered the 
+                      unauthorized acquisition or access; and
+                          (ii) include--
+                                    (I) information about the breach, 
+                                including a summary of any information 
+                                that the agency knows on the date on 
+                                which notification is provided about how 
+                                the breach occurred;
+                                    (II) an estimate of the number of 
+                                individuals affected by the breach, 
+                                based on information that the agency 
+                                knows on the date on which notification 
+                                is provided, including an assessment of 
+                                the risk of harm to affected 
+                                individuals;
+                                    (III) a description of any 
+                                circumstances necessitating a delay in 
+                                providing notice to affected 
+                                individuals; and
+                                    (IV) an estimate of whether and when 
+                                the agency will provide notice to 
+                                affected individuals; and
+                    (B) notice by the affected agency to affected 
+                individuals, pursuant to data breach notification 
+                policies and guidelines, which shall be provided as 
+                expeditiously as practicable and without unreasonable 
+                delay after the agency discovers the unauthorized 
+                acquisition or access.
+            (2) National security; law enforcement; remediation.--The 
+        Attorney General, the head of an element of the intelligence 
+        community (as such term is defined under section 3(4) of the 
+        National Security Act of 1947 (50 U.S.C. 3003(4)), or the 
+        Secretary may delay the notice to affected individuals under 
+        paragraph (1)(B) if the notice would disrupt a law enforcement 
+        investigation, endanger national security, or hamper security 
+        remediation actions.
+            (3) &lt;&lt;NOTE: Time period. Effective date.&gt;&gt;  OMB report.--
+        During the first 2 years beginning after the date of enactment 
+        of this Act, the Director of the Office of Management and Budget 
+        shall, on an annual basis--
+                    (A) assess agency implementation of data breach 
+                notification policies and guidelines in aggregate; and
+                    (B) include the assessment described in clause (i) 
+                in the report required under section 3543(a)(8) of title 
+                44, United States Code.
+            (4) Exception.--Any element of the intelligence community 
+        (as such term is defined under section 3(4) of the National 
+        Security Act of 1947 (50 U.S.C. 3003(4)) that is required to
+[[Page 128 STAT. 3072]]
+        provide notice under paragraph (1)(A) shall only provide such 
+        notice to appropriate committees of Congress.
+    (c) &lt;&lt;NOTE: 6 USC 149 note.&gt;&gt;  Rule of Construction.--Nothing in the 
+amendment made by subsection (a) or in subsection (b)(1) shall be 
+construed to alter any authority of a Federal agency or department.
+    (d) Technical and Conforming Amendment.--The table of contents in 
+section 1(b) of the Homeland Security Act of 2002 (6 U.S.C. 101 note), 
+as amended by section 3, is amended by inserting after the item relating 
+to section 226 the following:
+``Sec. 227. Cyber incident response plan.
+``Sec. 228. Clearances.''.
+SEC. 8. &lt;&lt;NOTE: 6 USC 148 note.&gt;&gt;  RULES OF CONSTRUCTION.
+    (a) Prohibition on New Regulatory Authority.--Nothing in this Act or 
+the amendments made by this Act shall be construed to grant the 
+Secretary any authority to promulgate regulations or set standards 
+relating to the cybersecurity of private sector critical infrastructure 
+that was not in effect on the day before the date of enactment of this 
+Act.
+    (b) Private Entities.--Nothing in this Act or the amendments made by 
+this Act shall be construed to require any private entity--
+            (1) to request assistance from the Secretary; or
+            (2) that requested such assistance from the Secretary to 
+        implement any measure or recommendation suggested by the 
+        Secretary.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--S. 2519:
+---------------------------------------------------------------------------
+SENATE REPORTS: No. 113-240 (Comm. on Homeland Security and Governmental 
+Affairs).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 10, considered and passed Senate.
+            Dec. 11, considered and passed House.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -14381,7 +18001,238 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1204/text?s=1&amp;r=72&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 238]
+[From the U.S. Government Publishing Office]
+[[Page 2841]]
+         AVIATION SECURITY STAKEHOLDER PARTICIPATION ACT OF 2014
+[[Page 128 STAT. 2842]]
+Public Law 113-238
+113th Congress
+                                 An Act
+To amend title 49, United States Code, to direct the Assistant Secretary 
+    of Homeland Security (Transportation Security Administration) to 
+    establish an Aviation Security Advisory Committee, and for other 
+            purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 1204]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Aviation 
+Security Stakeholder Participation Act of 2014.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 49 USC 40101 note.&gt;&gt; SHORT TITLE.
+    This Act may be cited as the ``Aviation Security Stakeholder 
+Participation Act of 2014''.
+SEC. 2. AVIATION SECURITY ADVISORY COMMITTEE.
+    (a) In General.--Subchapter II of chapter 449 of title 49, United 
+States Code, is amended by adding at the end the following:
+``Sec. 44946. &lt;&lt;NOTE: 49 USC 44946.&gt;&gt; Aviation Security Advisory 
+                    Committee
+    ``(a) Establishment.--The Assistant Secretary shall establish within 
+the Transportation Security Administration an aviation security advisory 
+committee.
+    ``(b) Duties.--
+            ``(1) In general. &lt;&lt;NOTE: Consultation.&gt;&gt; --The Assistant 
+        Secretary shall consult the Advisory Committee, as appropriate, 
+        on aviation security matters, including on the development, 
+        refinement, and implementation of policies, programs, 
+        rulemaking, and security directives pertaining to aviation 
+        security, while adhering to sensitive security guidelines.
+            ``(2) Recommendations.--
+                    ``(A) In general.--The Advisory Committee shall 
+                develop, at the request of the Assistant Secretary, 
+                recommendations for improvements to aviation security.
+                    ``(B) Recommendations of subcommittees.--
+                Recommendations agreed upon by the subcommittees 
+                established under this section shall be approved by the 
+                Advisory Committee before transmission to the Assistant 
+                Secretary.
+            ``(3) Periodic reports.--The Advisory Committee shall 
+        periodically submit to the Assistant Secretary--
+                    ``(A) reports on matters identified by the Assistant 
+                Secretary; and
+                    ``(B) reports on other matters identified by a 
+                majority of the members of the Advisory Committee.
+            ``(4) Annual report.--The Advisory Committee shall submit to 
+        the Assistant Secretary an annual report providing information 
+        on the activities, findings, and recommendations of the Advisory 
+        Committee, including its subcommittees, for the preceding 
+        year. &lt;&lt;NOTE: Publication. Public information.&gt;&gt; Not later than 
+        6 months after the date
+[[Page 128 STAT. 2843]]
+        that the Secretary receives the annual report, the Secretary 
+        shall publish a public version describing the Advisory 
+        Committee's activities and such related matters as would be 
+        informative to the public consistent with the policy of section 
+        552(b) of title 5.
+            ``(5) Feedback. &lt;&lt;NOTE: Deadline. Notification. Action 
+        plan.&gt;&gt; --Not later than 90 days after receiving recommendations 
+        transmitted by the Advisory Committee under paragraph (4), the 
+        Assistant Secretary shall respond in writing to the Advisory 
+        Committee with feedback on each of the recommendations, an 
+        action plan to implement any of the recommendations with which 
+        the Assistant Secretary concurs, and a justification for why any 
+        of the recommendations have been rejected.
+            ``(6) Congressional notification. &lt;&lt;NOTE: Deadline.&gt;&gt; --Not 
+        later than 30 days after providing written feedback to the 
+        Advisory Committee under paragraph (5), the Assistant Secretary 
+        shall notify the Committee on Commerce, Science, and 
+        Transportation of the Senate and the Committee on Homeland 
+        Security of the House of Representatives on such feedback, and 
+        provide a briefing upon request.
+            ``(7) Report to congress.--Prior to briefing the Committee 
+        on Commerce, Science, and Transportation of the Senate and the 
+        Committee on Homeland Security of the House of Representatives 
+        under paragraph (6), the Assistant Secretary shall submit to 
+        such committees a report containing information relating to the 
+        recommendations transmitted by the Advisory Committee in 
+        accordance with paragraph (4).
+    ``(c) Membership.--
+            ``(1) Appointment.--
+                    ``(A) &lt;&lt;NOTE: Deadlines.&gt;&gt; In general.--Not later 
+                than 180 days after the date of enactment of the 
+                Aviation Security Stakeholder Participation Act of 2014, 
+                the Assistant Secretary shall appoint the members of the 
+                Advisory Committee.
+                    ``(B) Composition.--The membership of the Advisory 
+                Committee shall consist of individuals representing not 
+                more than 34 member organizations. Each organization 
+                shall be represented by 1 individual (or the 
+                individual's designee).
+                    ``(C) Representation.--The membership of the 
+                Advisory Committee shall include representatives of air 
+                carriers, all-cargo air transportation, indirect air 
+                carriers, labor organizations representing air carrier 
+                employees, labor organizations representing 
+                transportation security officers, aircraft 
+                manufacturers, airport operators, airport construction 
+                and maintenance contractors, labor organizations 
+                representing employees of airport construction and 
+                maintenance contractors, general aviation, privacy 
+                organizations, the travel industry, airport-based 
+                businesses (including minority-owned small businesses), 
+                businesses that conduct security screening operations at 
+                airports, aeronautical repair stations, passenger 
+                advocacy groups, the aviation security technology 
+                industry (including screening technology and 
+                biometrics), victims of terrorist acts against aviation, 
+                and law enforcement and security experts.
+            ``(2) Term of office.--
+[[Page 128 STAT. 2844]]
+                    ``(A) Terms.--The term of each member of the 
+                Advisory Committee shall be 2 years. A member of the 
+                Advisory Committee may be reappointed.
+                    ``(B) Removal.--The Assistant Secretary may review 
+                the participation of a member of the Advisory Committee 
+                and remove such member for cause at any time.
+            ``(3) Prohibition on compensation.--The members of the 
+        Advisory Committee shall not receive pay, allowances, or 
+        benefits from the Government by reason of their service on the 
+        Advisory Committee.
+            ``(4) Meetings.--
+                    ``(A) In general.--The Assistant Secretary shall 
+                require the Advisory Committee to meet at least 
+                semiannually and may convene additional meetings as 
+                necessary.
+                    ``(B) Public meetings.--At least 1 of the meetings 
+                described in subparagraph (A) shall be open to the 
+                public.
+                    ``(C) Attendance. &lt;&lt;NOTE: Records.&gt;&gt; --The Advisory 
+                Committee shall maintain a record of the persons present 
+                at each meeting.
+            ``(5) Member access to sensitive security 
+        information. &lt;&lt;NOTE: Deadline. Determination.&gt;&gt; --Not later than 
+        60 days after the date of a member's appointment, the Assistant 
+        Secretary shall determine if there is cause for the member to be 
+        restricted from possessing sensitive security information. 
+        Without such cause, and upon the member voluntarily signing a 
+        non-disclosure agreement, the member may be granted access to 
+        sensitive security information that is relevant to the member's 
+        advisory duties. The member shall protect the sensitive security 
+        information in accordance with part 1520 of title 49, Code of 
+        Federal Regulations.
+            ``(6) Chairperson.--A stakeholder representative on the 
+        Advisory Committee who is elected by the appointed membership of 
+        the Advisory Committee shall chair the Advisory Committee.
+    ``(d) Subcommittees.--
+            ``(1) Membership.--The Advisory Committee chairperson, in 
+        coordination with the Assistant Secretary, may establish within 
+        the Advisory Committee any subcommittee that the Assistant 
+        Secretary and Advisory Committee determine to be necessary. The 
+        Assistant Secretary and the Advisory Committee shall create 
+        subcommittees to address aviation security issues, including the 
+        following:
+                    ``(A) Air cargo security.--The implementation of the 
+                air cargo security programs established by the 
+                Transportation Security Administration to screen air 
+                cargo on passenger aircraft and all-cargo aircraft in 
+                accordance with established cargo screening mandates.
+                    ``(B) General aviation.--General aviation 
+                facilities, general aviation aircraft, and helicopter 
+                operations at general aviation and commercial service 
+                airports.
+                    ``(C) Perimeter and access control.--Recommendations 
+                on airport perimeter security, exit lane security and 
+                technology at commercial service airports, and access 
+                control issues.
+                    ``(D) Security technology.--Security technology 
+                standards and requirements, including their 
+                harmonization internationally, technology to screen 
+                passengers, passenger baggage, carry-on baggage, and 
+                cargo, and biometric technology.
+[[Page 128 STAT. 2845]]
+            ``(2) Risk-based security.--All subcommittees established by 
+        the Advisory Committee chairperson in coordination with the 
+        Assistant Secretary shall consider risk-based security 
+        approaches in the performance of their functions that weigh the 
+        optimum balance of costs and benefits in transportation 
+        security, including for passenger screening, baggage screening, 
+        air cargo security policies, and general aviation security 
+        matters.
+            ``(3) Meetings and reporting.--Each subcommittee shall meet 
+        at least quarterly and submit to the Advisory Committee for 
+        inclusion in the annual report required under subsection (b)(4) 
+        information, including recommendations, regarding issues within 
+        the subcommittee.
+            ``(4) Subcommittee chairs.--Each subcommittee shall be co-
+        chaired by a Government official and an industry official.
+    ``(e) Subject Matter Experts.--Each subcommittee under this section 
+shall include subject matter experts with relevant expertise who are 
+appointed by the respective subcommittee chairpersons.
+    ``(f) Nonapplicability of FACA.--The Federal Advisory Committee Act 
+(5 U.S.C. App.) shall not apply to the Advisory Committee and its 
+subcommittees.
+    ``(g) Definitions.--In this section:
+            ``(1) Advisory committee.--The term `Advisory Committee' 
+        means the aviation security advisory committee established under 
+        subsection (a).
+            ``(2) Assistant secretary.--The term `Assistant Secretary' 
+        means the Assistant Secretary of Homeland Security 
+        (Transportation Security Administration).
+            ``(3) Perimeter security.--
+                    ``(A) In general.--The term `perimeter security' 
+                means procedures or systems to monitor, secure, and 
+                prevent unauthorized access to an airport, including its 
+                airfield and terminal.
+                    ``(B) Inclusions.--The term `perimeter security' 
+                includes the fence area surrounding an airport, access 
+                gates, and access controls.''.
+[[Page 128 STAT. 2846]]
+    (b) Clerical Amendment.--The analysis for subchapter II of chapter 
+449 of title 49, United States Code, &lt;&lt;NOTE: 49 USC prec. 44901.&gt;&gt;  is 
+amended by adding at the end the following new item:
+``44946. Aviation Security Advisory Committee.''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 1204 (S. 1804):
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-278 (Comm. on Homeland Security).
+SENATE REPORTS: No. 113-273 (Comm. on Commerce, Science, and 
+Transportation) accompanying S. 1804.
+CONGRESSIONAL RECORD:
+                                                        Vol. 159 (2013):
+                                    Dec. 3, considered and passed House.
+                                                        Vol. 160 (2014):
+                                    Dec. 9, considered and passed 
+                                        Senate, amended.
+                                    Dec. 10, House concurred in Senate 
+                                        amendment.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -14992,7 +18843,33 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3044/text?s=1&amp;r=74&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 248]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2884]]
+Public Law 113-248
+113th Congress
+                                 An Act
+    To approve the transfer of Yellow Creek Port properties in Iuka, 
+          Mississippi. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 3044]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. TRANSFER OF YELLOW CREEK PORT PROPERTIES.
+    In &lt;&lt;NOTE: Effective date.&gt;&gt;  accordance with section 4(k) of the 
+Tennessee Valley Authority Act of 1933 (16 U.S.C. 831c(k)), Congress 
+approves the conveyance by the Tennessee Valley Authority, on behalf of 
+the United States, to the State of Mississippi of the Yellow Creek Port 
+properties owned by the United States and in the custody of the 
+Authority at Iuka, Mississippi, as of the date of enactment of this Act.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 3044 (S. 212):
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-553 (Comm. on Transportation and Infrastructure).
+SENATE REPORTS: No. 113-184 (Comm. on Environment and Public Works) 
+accompanying S. 212.
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Sept. 15, considered and passed House.
+            Dec. 11, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15034,7 +18911,68 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/2651/text?s=1&amp;r=75&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 284]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 3089]]
+Public Law 113-284
+113th Congress
+                                 An Act
+To repeal certain mandates of the Department of Homeland Security Office 
+       of Inspector General. &lt;&lt;NOTE: Dec. 18, 2014 -  [S. 2651]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: DHS OIG Mandates 
+Revision Act of 2014.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 6 USC 101 note.&gt;&gt;  SHORT TITLE.
+    This Act may be cited as the ``DHS OIG Mandates Revision Act of 
+2014''.
+SEC. 2. REPEAL OF REPORTING REQUIREMENTS.
+    (a) Repeal of Requirement To Conduct an Annual Evaluation of the 
+Cargo Inspection Targeting System.--
+            (1) Repeal.--Subsections (g) and (h) of section 809 of the 
+        Coast Guard and Maritime Transportation Act of 2004 (Public Law 
+        108-293; 46 U.S.C. 70101 note) are repealed.
+            (2) Conforming amendments.--Section 809 of the Coast Guard 
+        and Maritime Transportation Act of 2004 (Public Law 108-293; 118 
+        Stat. 1085), &lt;&lt;NOTE: 46 USC 70101 note.&gt;&gt;  as amended by 
+        paragraph (1), is amended--
+                    (A) in subsection (a), by striking ``and (j)'' and 
+                inserting ``and (h)''; and
+                    (B) by redesignating subsections (i), (j), and (k) 
+                as subsections (g), (h), and (i), respectively.
+    (b) Repeal of Requirement To Conduct an Annual Review of Coast Guard 
+Performance.--
+            (1) Repeal.--Section 888(f) of the Homeland Security Act of 
+        2002 (6 U.S.C. 468(f)) is repealed.
+            (2) Conforming amendments.--Section 888 of the Homeland 
+        Security Act of 2002 (6 U.S.C. 468), as amended by paragraph 
+        (1), is amended by redesignating subsections (g), (h), and (i) 
+        as subsections (f), (g), and (h), respectively.
+    (c) Annual Review of Grants to States and High-risk Urban Areas.--
+            (1) Repeal.--Section 2022(a)(3) of the Homeland Security Act 
+        of 2002 (6 U.S.C. 612(a)(3)) is repealed.
+            (2) Conforming amendments.--Section 2022(a) of the Homeland 
+        Security Act of 2002 (6 U.S.C. 612(a)), as amended by paragraph 
+        (1), is amended--
+                    (A) by redesignating paragraphs (4), (5), (6), and 
+                (7) as paragraphs (3), (4), (5), and (6), respectively;
+                    (B) in paragraph (4), as redesignated--
+                          (i) by striking ``paragraphs (2) and (3)'' and 
+                      inserting ``paragraph (2)''; and
+[[Page 128 STAT. 3090]]
+                          (ii) by striking ``paragraph (4)'' and 
+                      inserting ``paragraph (3)''.
+            (3) &lt;&lt;NOTE: 6 USC 612 note.&gt;&gt;  Effective date.--The 
+        amendments made by this subsection shall take effect on January 
+        1, 2015.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--S. 2651:
+---------------------------------------------------------------------------
+SENATE REPORTS: No. 113-261 (Comm. on Homeland Security and Governmental 
+Affairs).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Sept. 17, considered and passed Senate.
+            Dec. 10, considered and passed House.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15076,7 +19014,49 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1378/text?s=1&amp;r=76&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 241]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2858]]
+Public Law 113-241
+113th Congress
+                                 An Act
+ To designate the United States Federal Judicial Center located at 333 
+ West Broadway in San Diego, California, as the ``John Rhoades Federal 
+Judicial Center'' and to designate the United States courthouse located 
+at 333 West Broadway in San Diego, California, as the ``James M. Carter 
+    and Judith N. Keep United States Courthouse''. &lt;&lt;NOTE: Dec. 18, 
+                         2014 -  [H.R. 1378]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. JUDICIAL CENTER DESIGNATION.
+    The United States Federal Judicial Center located at 333 West 
+Broadway in San Diego, California, shall be known and designated as the 
+``John Rhoades Federal Judicial Center''. The Judicial Center includes 
+the Federal property located at 221 West Broadway, 333 West Broadway, 
+880 Front Street, 325 West F Street, 808 Union Street, and the adjoining 
+plaza.
+SEC. 2. COURTHOUSE BUILDING DESIGNATION.
+    The United States courthouse located at 333 West Broadway in San 
+Diego, California, shall be known and designated as the ``James M. 
+Carter and Judith N. Keep United States Courthouse''.
+SEC. 3. REFERENCES.
+    Any reference in a law, map, regulation, document, paper, or other 
+record of the United States to the United States Federal Judicial Center 
+referred to in section 1 shall be deemed to be a reference to the ``John 
+Rhoades Federal Judicial Center''. Any reference in a law, map, 
+regulation, document, paper, or other record of the United States to the 
+United States courthouse referred
+[[Page 128 STAT. 2859]]
+to in section 2 shall be deemed to be a reference to the ``James M. 
+Carter and Judith N. Keep United States Courthouse''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 1378:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-406 (Comm. on Transportation and Infrastructure).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 9, considered and passed House.
+            Dec. 15, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15118,7 +19098,67 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4199/text?s=1&amp;r=77&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 256]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2922]]
+Public Law 113-256
+113th Congress
+                                 An Act
+   To name the Department of Veterans Affairs medical center in Waco, 
+  Texas, as the ``Doris Miller Department of Veterans Affairs Medical 
+            Center''. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 4199]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. FINDINGS.
+    Congress makes the following findings:
+            (1) On October 12, 1919, Doris Miller was born in Waco, 
+        Texas.
+            (2) On September 16, 1939, Miller enlisted in the United 
+        States Navy as mess attendant, third class at Naval Recruiting 
+        Station, Dallas, Texas, to serve for a period of six years.
+            (3) On February 16, 1941, Miller received a change of rating 
+        to mess attendant, second class.
+            (4) On June 1, 1942, Miller received a change of rating to 
+        mess attendant, first class.
+            (5) On June 1, 1943, Miller received a change of rating, to 
+        cook, third class.
+            (6) On November 25, 1944, Miller was presumed dead by the 
+        Secretary of the Navy a year and a day after being carried as 
+        missing in action since November 24, 1943, while serving aboard 
+        USS Liscome Bay when that vessel was torpedoed and sunk in the 
+        Pacific Ocean.
+            (7) Miller was awarded the Navy Cross Medal, Purple Heart 
+        Medal, American Defense Service Medal, Asiatic-Pacific Campaign 
+        Medal, and World War II Victory Medal.
+            (8) Miller's citation for the Navy Cross said ``for 
+        distinguished devotion to duty, extraordinary courage and 
+        disregard for his own personal safety during the attack on the 
+        Fleet in Pearl Harbor, Territory of Hawaii, by Japanese forces 
+        on December 7, 1941. While at the side of his Captain on the 
+        bridge, Miller, despite enemy strafing and bombing and in the 
+        face of a serious fire, assisted in moving his Captain, who had 
+        been mortally wounded, to a place of greater safety, and later 
+        manned and operated a machine gun directed at enemy Japanese 
+        attacking aircraft until ordered to leave the bridge.''.
+            (9) On June 20, 1973, the USS Miller (FF-1091), a Knox-class 
+        frigate, was named in honor of Doris Miller.
+SEC. 2. NAME OF DEPARTMENT OF VETERANS AFFAIRS MEDICAL CENTER, 
+                    WACO, TEXAS.
+    The Department of Veterans Affairs medical center in Waco, Texas, 
+shall after the date of the enactment of this Act be known
+[[Page 128 STAT. 2923]]
+and designated as the ``Doris Miller Department of Veterans Affairs 
+Medical Center''. Any reference to such medical center in any law, 
+regulation, map, document, record, or other paper of the United States 
+shall be considered to be a reference to the Doris Miller Department of 
+Veterans Affairs Medical Center.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 4199:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            June 17, considered and passed House.
+            Dec. 9, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15160,7 +19200,182 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1206/text?s=1&amp;r=78&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 239]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2847]]
+Public Law 113-239
+113th Congress
+                                 An Act
+To grant the Secretary of the Interior permanent authority to authorize 
+         States to issue electronic duck stamps, and for other 
+            purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 1206]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Permanent 
+Electronic Duck Stamp Act of 2013.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 16 USC 718o note.&gt;&gt; SHORT TITLE.
+    This Act may be cited as the ``Permanent Electronic Duck Stamp Act 
+of 2013''.
+SEC. 2. &lt;&lt;NOTE: 16 USC 718o.&gt;&gt; DEFINITIONS.
+    In this Act:
+            (1) Actual stamp.--The term ``actual stamp'' means a Federal 
+        migratory-bird hunting and conservation stamp required under the 
+        Act of March 16, 1934 (16 U.S.C. 718a et seq.) (popularly known 
+        as the ``Duck Stamp Act''), that is printed on paper and sold 
+        through the means established by the authority of the Secretary 
+        immediately before the date of enactment of this Act.
+            (2) Automated licensing system.--
+                    (A) In general.--The term ``automated licensing 
+                system'' means an electronic, computerized licensing 
+                system used by a State fish and wildlife agency to issue 
+                hunting, fishing, and other associated licenses and 
+                products.
+                    (B) Inclusion.--The term ``automated licensing 
+                system'' includes a point-of-sale, Internet, telephonic 
+                system, or other electronic applications used for a 
+                purpose described in subparagraph (A).
+            (3) Electronic stamp.--The term ``electronic stamp'' means 
+        an electronic version of an actual stamp that--
+                    (A) is a unique identifier for the individual to 
+                whom it is issued;
+                    (B) can be printed on paper or produced through an 
+                electronic application with the same indicators as the 
+                State endorsement provides;
+                    (C) is issued through a State automated licensing 
+                system that is authorized, under State law and by the 
+                Secretary under this Act, to issue electronic stamps;
+                    (D) is compatible with the hunting licensing system 
+                of the State that issues the electronic stamp; and
+                    (E) is described in the State application approved 
+                by the Secretary under section 4(b).
+            (4) Secretary.--The term ``Secretary'' means the Secretary 
+        of the Interior.
+[[Page 128 STAT. 2848]]
+SEC. 3. &lt;&lt;NOTE: 16 USC 718p.&gt;&gt; AUTHORITY TO ISSUE ELECTRONIC DUCK 
+                    STAMPS.
+    (a) In General.--The Secretary may authorize any State to issue 
+electronic stamps in accordance with this Act.
+    (b) Consultation.--The Secretary shall implement this section in 
+consultation with State management agencies.
+SEC. 4. &lt;&lt;NOTE: 16 USC 718q.&gt;&gt; STATE APPLICATION.
+    (a) Approval of Application Required.--The Secretary may not 
+authorize a State to issue electronic stamps under this Act unless the 
+Secretary has received and approved an application submitted by the 
+State in accordance with this section. The Secretary may determine the 
+number of new States per year to participate in the electronic stamp 
+program.
+    (b) Contents of Application.--The Secretary may not approve a State 
+application unless the application contains--
+            (1) a description of the format of the electronic stamp that 
+        the State will issue under this Act, including identifying 
+        features of the licensee that will be specified on the stamp;
+            (2) a description of any fee the State will charge for 
+        issuance of an electronic stamp;
+            (3) a description of the process the State will use to 
+        account for and transfer to the Secretary the amounts collected 
+        by the State that are required to be transferred to the 
+        Secretary under the program;
+            (4) the manner by which the State will transmit electronic 
+        stamp customer data to the Secretary;
+            (5) the manner by which actual stamps will be delivered;
+            (6) the policies and procedures under which the State will 
+        issue duplicate electronic stamps; and
+            (7) such other policies, procedures, and information as may 
+        be reasonably required by the Secretary.
+    (c) Publication of Deadlines, Eligibility Requirements, and 
+Selection Criteria.--Not later than 30 days before the date on which the 
+Secretary begins accepting applications under this section, the 
+Secretary shall publish--
+            (1) deadlines for submission of applications;
+            (2) eligibility requirements for submitting applications; 
+        and
+            (3) criteria for approving applications.
+SEC. 5. &lt;&lt;NOTE: 16 USC 718r.&gt;&gt; STATE OBLIGATIONS AND AUTHORITIES.
+    (a) Delivery of Actual Stamp.--The Secretary shall require that each 
+individual to whom a State sells an electronic stamp under this Act 
+shall receive an actual stamp--
+            (1) &lt;&lt;NOTE: Deadline.&gt;&gt; by not later than the date on which 
+        the electronic stamp expires under section 6(c); and
+            (2) in a manner agreed upon by the State and Secretary.
+    (b) Collection and Transfer of Electronic Stamp Revenue and Customer 
+Information.--
+            (1) Requirement to transmit.--The Secretary shall require 
+        each State authorized to issue electronic stamps to collect and 
+        submit to the Secretary in accordance with this section--
+                    (A) the first name, last name, and complete mailing 
+                address of each individual that purchases an electronic 
+                stamp from the State;
+                    (B) the face value amount of each electronic stamp 
+                sold by the State; and
+[[Page 128 STAT. 2849]]
+                    (C) the amount of the Federal portion of any fee 
+                required by the agreement for each stamp sold.
+            (2) Time of transmittal. &lt;&lt;NOTE: Contracts.&gt;&gt; --The 
+        Secretary shall require the submission under paragraph (1) to be 
+        made with respect to sales of electronic stamps by a State 
+        according to the written agreement between the Secretary and the 
+        State agency.
+            (3) Additional fees not affected.--This section shall not 
+        apply to the State portion of any fee collected by a State under 
+        subsection (c).
+    (c) Electronic Stamp Issuance Fee.--A State authorized to issue 
+electronic stamps may charge a reasonable fee to cover costs incurred by 
+the State and the Department of the Interior in issuing electronic 
+stamps under this Act, including costs of delivery of actual stamps.
+    (d) Duplicate Electronic Stamps.--A State authorized to issue 
+electronic stamps may issue a duplicate electronic stamp to replace an 
+electronic stamp issued by the State that is lost or damaged.
+    (e) Limitation on Authority To Require Purchase of State License.--A 
+State may not require that an individual purchase a State hunting 
+license as a condition of issuing an electronic stamp under this Act.
+SEC. 6. &lt;&lt;NOTE: 16 USC 718s.&gt;&gt; ELECTRONIC STAMP REQUIREMENTS; 
+                    RECOGNITION OF ELECTRONIC STAMP.
+    (a) Stamp Requirements.--The Secretary shall require an electronic 
+stamp issued by a State under this Act--
+            (1) to have the same format as any other license, 
+        validation, or privilege the State issues under the automated 
+        licensing system of the State; and
+            (2) to specify identifying features of the licensee that are 
+        adequate to enable Federal, State, and other law enforcement 
+        officers to identify the holder.
+    (b) Recognition of Electronic Stamp.--Any electronic stamp issued by 
+a State under this Act shall, during the effective period of the 
+electronic stamp--
+            (1) bestow upon the licensee the same privileges as are 
+        bestowed by an actual stamp;
+            (2) be recognized nationally as a valid Federal migratory 
+        bird hunting and conservation stamp; and
+            (3) authorize the licensee to hunt migratory waterfowl in 
+        any other State, in accordance with the laws of the other State 
+        governing that hunting.
+    (c) Duration.--An electronic stamp issued by a State shall be valid 
+for a period agreed to by the State and the Secretary, which shall not 
+exceed 45 days.
+SEC. 7. &lt;&lt;NOTE: 16 USC 718t.&gt;&gt; TERMINATION OF STATE PARTICIPATION.
+    The &lt;&lt;NOTE: Notification. Deadlines.&gt;&gt; authority of a State to issue 
+electronic stamps under this Act may be terminated--
+            (1) by the Secretary, if the Secretary--
+                    (A) finds that the State has violated any of the 
+                terms of the application of the State approved by the 
+                Secretary under section 4; and
+                    (B) provides to the State written notice of the 
+                termination by not later than the date that is 30 days 
+                before the date of termination; or
+[[Page 128 STAT. 2850]]
+            (2) by the State, by providing written notice to the 
+        Secretary by not later than the date that is 30 days before the 
+        termination date.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 1206:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-67 (Comm. on Natural Resources).
+SENATE REPORTS: No. 113-145 (Comm. on Environment and Public Works).
+CONGRESSIONAL RECORD:
+                                                        Vol. 159 (2013):
+                                    June 3, considered and passed House.
+                                                        Vol. 160 (2014):
+                                    Dec. 15, considered and passed 
+                                        Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15202,7 +19417,35 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5562/text?s=1&amp;r=79&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 267]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2945]]
+Public Law 113-267
+113th Congress
+                                 An Act
+To designate the facility of the United States Postal Service located at 
+     801 West Ocean Avenue in Lompoc, California, as the ``Federal 
+      Correctional Officer Scott J. Williams Memorial Post Office 
+           Building''. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 5562]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. FEDERAL CORRECTIONAL OFFICER SCOTT J. WILLIAMS MEMORIAL 
+                              POST OFFICE BUILDING.
+    (a) Designation.--The facility of the United States Postal Service 
+located at 801 West Ocean Avenue in Lompoc, California, shall be known 
+and designated as the ``Federal Correctional Officer Scott J. Williams 
+Memorial Post Office Building''.
+    (b) References.--Any reference in a law, map, regulation, document, 
+paper, or other record of the United States to the facility referred to 
+in subsection (a) shall be deemed to be a reference to the ``Federal 
+Correctional Officer Scott J. Williams Memorial Post Office Building''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 5562:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 8, considered and passed House.
+            Dec. 15, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15244,7 +19487,34 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5331/text?s=1&amp;r=80&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 266]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2944]]
+Public Law 113-266
+113th Congress
+                                 An Act
+To designate the facility of the United States Postal Service located at 
+ 73839 Gorgonio Drive in Twentynine Palms, California, as the ``Colonel 
+     M.J. `Mac' Dube, USMC Post Office Building''. &lt;&lt;NOTE: Dec. 18, 
+                         2014 -  [H.R. 5331]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. COLONEL M.J. ``MAC'' DUBE, USMC POST OFFICE BUILDING.
+    (a) Designation.--The facility of the United States Postal Service 
+located at 73839 Gorgonio Drive in Twentynine Palms, California, shall 
+be known and designated as the ``Colonel M.J. `Mac' Dube, USMC Post 
+Office Building''.
+    (b) References.--Any reference in a law, map, regulation, document, 
+paper, or other record of the United States to the facility referred to 
+in subsection (a) shall be deemed to be a reference to the ``Colonel 
+M.J. `Mac' Dube, USMC Post Office Building''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 5331:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Nov. 17, considered and passed House.
+            Dec. 15, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15286,7 +19556,475 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2719/text?s=1&amp;r=81&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 245]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2871]]
+Public Law 113-245
+113th Congress
+                                 An Act
+To require the Transportation Security Administration to implement best 
+practices and improve transparency with regard to technology acquisition 
+    programs, and for other purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 
+                                2719]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Transportation 
+Security Acquisition Reform Act.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 6 USC 101 note.&gt;&gt;  SHORT TITLE.
+    This Act may be cited as the ``Transportation Security Acquisition 
+Reform Act''.
+SEC. 2. &lt;&lt;NOTE: 6 USC 561 note.&gt;&gt;  FINDINGS.
+    Congress finds the following:
+            (1) The Transportation Security Administration has not 
+        consistently implemented Department of Homeland Security 
+        policies and Government best practices for acquisition and 
+        procurement.
+            (2) The Transportation Security Administration has only 
+        recently developed a multiyear technology investment plan, and 
+        has underutilized innovation opportunities within the private 
+        sector, including from small businesses.
+            (3) The Transportation Security Administration has faced 
+        challenges in meeting key performance requirements for several 
+        major acquisitions and procurements, resulting in reduced 
+        security effectiveness and wasted expenditures.
+SEC. 3. TRANSPORTATION SECURITY ADMINISTRATION ACQUISITION REFORM.
+    (a) In General.--Title XVI of the Homeland Security Act of 2002 
+(Public Law 107-296; 116 Stat. 2312) &lt;&lt;NOTE: 6 USC prec. 561.&gt;&gt;  is 
+amended to read as follows:
+                  ``TITLE XVI--TRANSPORTATION SECURITY
+                    ``Subtitle A--General Provisions
+``SEC. 1601. &lt;&lt;NOTE: 6 USC 561.&gt;&gt;  DEFINITIONS.
+    ``In this title:
+            ``(1) Administration.--The term `Administration' means the 
+        Transportation Security Administration.
+            ``(2) Administrator.--The term `Administrator' means the 
+        Administrator of the Transportation Security Administration.
+[[Page 128 STAT. 2872]]
+            ``(3) Plan.--The term `Plan' means the strategic 5-year 
+        technology investment plan developed by the Administrator under 
+        section 1611.
+            ``(4) Security-related technology.--The term `security-
+        related technology' means any technology that assists the 
+        Administration in the prevention of, or defense against, threats 
+        to United States transportation systems, including threats to 
+        people, property, and information.
+    ``Subtitle B--Transportation Security Administration Acquisition 
+                              Improvements
+``SEC. 1611. &lt;&lt;NOTE: 6 USC 563.&gt;&gt;  5-YEAR TECHNOLOGY INVESTMENT 
+                          PLAN.
+    ``(a) In General. &lt;&lt;NOTE: Deadline.&gt;&gt; --The Administrator shall--
+            ``(1) not later than 180 days after the date of the 
+        enactment of the Transportation Security Acquisition Reform Act, 
+        develop and submit to Congress a strategic 5-year technology 
+        investment plan, that may include a classified addendum to 
+        report sensitive transportation security risks, technology 
+        vulnerabilities, or other sensitive security information; and
+            ``(2) &lt;&lt;NOTE: Publication. Public information.&gt;&gt;  to the 
+        extent possible, publish the Plan in an unclassified format in 
+        the public domain.
+    ``(b) Consultation.--The Administrator shall develop the Plan in 
+consultation with--
+            ``(1) the Under Secretary for Management;
+            ``(2) the Under Secretary for Science and Technology;
+            ``(3) the Chief Information Officer; and
+            ``(4) the aviation industry stakeholder advisory committee 
+        established by the Administrator.
+    ``(c) Approval.--The Administrator may not publish the Plan under 
+subsection (a)(2) until it has been approved by the Secretary.
+    ``(d) Contents of Plan.--The Plan shall include--
+            ``(1) an analysis of transportation security risks and the 
+        associated capability gaps that would be best addressed by 
+        security-related technology, including consideration of the most 
+        recent quadrennial homeland security review under section 707;
+            ``(2) a set of security-related technology acquisition needs 
+        that--
+                    ``(A) is prioritized based on risk and associated 
+                capability gaps identified under paragraph (1); and
+                    ``(B) includes planned technology programs and 
+                projects with defined objectives, goals, timelines, and 
+                measures;
+            ``(3) an analysis of current and forecast trends in domestic 
+        and international passenger travel;
+            ``(4) an identification of currently deployed security-
+        related technologies that are at or near the end of their 
+        lifecycles;
+            ``(5) an identification of test, evaluation, modeling, and 
+        simulation capabilities, including target methodologies, 
+        rationales, and timelines necessary to support the acquisition 
+        of the security-related technologies expected to meet the needs 
+        under paragraph (2);
+            ``(6) an identification of opportunities for public-private 
+        partnerships, small and disadvantaged company participation, 
+        intragovernment collaboration, university centers of excellence, 
+        and national laboratory technology transfer;
+[[Page 128 STAT. 2873]]
+            ``(7) an identification of the Administration's acquisition 
+        workforce needs for the management of planned security-related 
+        technology acquisitions, including consideration of leveraging 
+        acquisition expertise of other Federal agencies;
+            ``(8) an identification of the security resources, including 
+        information security resources, that will be required to protect 
+        security-related technology from physical or cyber theft, 
+        diversion, sabotage, or attack;
+            ``(9) an identification of initiatives to streamline the 
+        Administration's acquisition process and provide greater 
+        predictability and clarity to small, medium, and large 
+        businesses, including the timeline for testing and evaluation;
+            ``(10) an assessment of the impact to commercial aviation 
+        passengers;
+            ``(11) a strategy for consulting airport management, air 
+        carrier representatives, and Federal security directors whenever 
+        an acquisition will lead to the removal of equipment at 
+        airports, and how the strategy for consulting with such 
+        officials of the relevant airports will address potential 
+        negative impacts on commercial passengers or airport operations; 
+        and
+            ``(12) &lt;&lt;NOTE: Consultation.&gt;&gt;  in consultation with the 
+        National Institutes of Standards and Technology, an 
+        identification of security-related technology interface 
+        standards, in existence or if implemented, that could promote 
+        more interoperable passenger, baggage, and cargo screening 
+        systems.
+    ``(e) Leveraging the Private Sector.--To the extent possible, and in 
+a manner that is consistent with fair and equitable practices, the Plan 
+shall--
+            ``(1) leverage emerging technology trends and research and 
+        development investment trends within the public and private 
+        sectors;
+            ``(2) incorporate private sector input, including from the 
+        aviation industry stakeholder advisory committee established by 
+        the Administrator, through requests for information, industry 
+        days, and other innovative means consistent with the Federal 
+        Acquisition Regulation; and
+            ``(3) &lt;&lt;NOTE: Consultation.&gt;&gt;  in consultation with the 
+        Under Secretary for Science and Technology, identify 
+        technologies in existence or in development that, with or 
+        without adaptation, are expected to be suitable to meeting 
+        mission needs.
+    ``(f) Disclosure. &lt;&lt;NOTE: Lists.&gt;&gt; --The Administrator shall include 
+with the Plan a list of nongovernment persons that contributed to the 
+writing of the Plan.
+    ``(g) Update and Report.--Beginning 2 years after the date the Plan 
+is submitted to Congress under subsection (a), and biennially 
+thereafter, the Administrator shall submit to Congress--
+            ``(1) an update of the Plan; and
+            ``(2) a report on the extent to which each security-related 
+        technology acquired by the Administration since the last 
+        issuance or update of the Plan is consistent with the planned 
+        technology programs and projects identified under subsection 
+        (d)(2) for that security-related technology.
+``SEC. 1612. &lt;&lt;NOTE: 6 USC 563a.&gt;&gt;  ACQUISITION JUSTIFICATION AND 
+                          REPORTS.
+    ``(a) Acquisition Justification.-- &lt;&lt;NOTE: Determination.&gt;&gt; Before 
+the Administration implements any security-related technology 
+acquisition, the Administrator, in accordance with the Department's 
+policies and
+[[Page 128 STAT. 2874]]
+directives, shall determine whether the acquisition is justified by 
+conducting an analysis that includes--
+            ``(1) an identification of the scenarios and level of risk 
+        to transportation security from those scenarios that would be 
+        addressed by the security-related technology acquisition;
+            ``(2) an assessment of how the proposed acquisition aligns 
+        to the Plan;
+            ``(3) a comparison of the total expected lifecycle cost 
+        against the total expected quantitative and qualitative benefits 
+        to transportation security;
+            ``(4) an analysis of alternative security solutions, 
+        including policy or procedure solutions, to determine if the 
+        proposed security-related technology acquisition is the most 
+        effective and cost-efficient solution based on cost-benefit 
+        considerations;
+            ``(5) an assessment of the potential privacy and civil 
+        liberties implications of the proposed acquisition that 
+        includes, to the extent practicable, consultation with 
+        organizations that advocate for the protection of privacy and 
+        civil liberties;
+            ``(6) a determination that the proposed acquisition is 
+        consistent with fair information practice principles issued by 
+        the Privacy Officer of the Department;
+            ``(7) confirmation that there are no significant risks to 
+        human health or safety posed by the proposed acquisition; and
+            ``(8) an estimate of the benefits to commercial aviation 
+        passengers.
+    ``(b) &lt;&lt;NOTE: Time periods.&gt;&gt;  Reports and Certification to 
+Congress.--
+            ``(1) In general. &lt;&lt;NOTE: Contracts.&gt;&gt; --Not later than the 
+        end of the 30-day period preceding the award by the 
+        Administration of a contract for any security-related technology 
+        acquisition exceeding $30,000,000, the Administrator shall 
+        submit to the Committee on Commerce, Science, and Transportation 
+        of the Senate and the Committee on Homeland Security of the 
+        House of Representatives--
+                    ``(A) the results of the comprehensive acquisition 
+                justification under subsection (a); and
+                    ``(B) a certification by the Administrator that the 
+                benefits to transportation security justify the contract 
+                cost.
+            ``(2) Extension due to imminent terrorist threat.--If there 
+        is a known or suspected imminent threat to transportation 
+        security, the Administrator--
+                    ``(A) may reduce the 30-day period under paragraph 
+                (1) to 5 days to rapidly respond to the threat; and
+                    ``(B) &lt;&lt;NOTE: Notification.&gt;&gt;  shall immediately 
+                notify the Committee on Commerce, Science, and 
+                Transportation of the Senate and the Committee on 
+                Homeland Security of the House of Representatives of the 
+                known or suspected imminent threat.
+``SEC. 1613. &lt;&lt;NOTE: 6 USC 563b.&gt;&gt;  ACQUISITION BASELINE 
+                          ESTABLISHMENT AND REPORTS.
+    ``(a) Baseline Requirements.--
+            ``(1) In general.--Before the Administration implements any 
+        security-related technology acquisition, the appropriate 
+        acquisition official of the Department shall establish and 
+        document a set of formal baseline requirements.
+            ``(2) Contents.--The baseline requirements under paragraph 
+        (1) shall--
+[[Page 128 STAT. 2875]]
+                    ``(A) include the estimated costs (including 
+                lifecycle costs), schedule, and performance milestones 
+                for the planned duration of the acquisition;
+                    ``(B) identify the acquisition risks and a plan for 
+                mitigating those risks; and
+                    ``(C) assess the personnel necessary to manage the 
+                acquisition process, manage the ongoing program, and 
+                support training and other operations as necessary.
+            ``(3) &lt;&lt;NOTE: Consultation.&gt;&gt;  Feasibility.--In establishing 
+        the performance milestones under paragraph (2)(A), the 
+        appropriate acquisition official of the Department, to the 
+        extent possible and in consultation with the Under Secretary for 
+        Science and Technology, shall ensure that achieving those 
+        milestones is technologically feasible.
+            ``(4) &lt;&lt;NOTE: Consultation.&gt;&gt;  Test and evaluation plan.--
+        The Administrator, in consultation with the Under Secretary for 
+        Science and Technology, shall develop a test and evaluation plan 
+        that describes--
+                    ``(A) the activities that are expected to be 
+                required to assess acquired technologies against the 
+                performance milestones established under paragraph 
+                (2)(A);
+                    ``(B) the necessary and cost-effective combination 
+                of laboratory testing, field testing, modeling, 
+                simulation, and supporting analysis to ensure that such 
+                technologies meet the Administration's mission needs;
+                    ``(C) an efficient planning schedule to ensure that 
+                test and evaluation activities are completed without 
+                undue delay; and
+                    ``(D) if commercial aviation passengers are expected 
+                to interact with the security-related technology, 
+                methods that could be used to measure passenger 
+                acceptance of and familiarization with the security-
+                related technology.
+            ``(5) Verification and validation.--The appropriate 
+        acquisition official of the Department--
+                    ``(A) subject to subparagraph (B), shall utilize 
+                independent reviewers to verify and validate the 
+                performance milestones and cost estimates developed 
+                under paragraph (2) for a security-related technology 
+                that pursuant to section 1611(d)(2) has been identified 
+                as a high priority need in the most recent Plan; and
+                    ``(B) shall ensure that the use of independent 
+                reviewers does not unduly delay the schedule of any 
+                acquisition.
+            ``(6) Streamlining access for interested vendors.--The 
+        Administrator shall establish a streamlined process for an 
+        interested vendor of a security-related technology to request 
+        and receive appropriate access to the baseline requirements and 
+        test and evaluation plans that are necessary for the vendor to 
+        participate in the acquisitions process for that technology.
+    ``(b) Review of Baseline Requirements and Deviation; Report to 
+Congress.--
+            ``(1) Review.--
+                    ``(A) In general.--The appropriate acquisition 
+                official of the Department shall review and assess each 
+                implemented acquisition to determine if the acquisition 
+                is meeting the baseline requirements established under 
+                subsection (a).
+                    ``(B) Test and evaluation assessment.--The review 
+                shall include an assessment of whether--
+[[Page 128 STAT. 2876]]
+                          ``(i) the planned testing and evaluation 
+                      activities have been completed; and
+                          ``(ii) the results of that testing and 
+                      evaluation demonstrate that the performance 
+                      milestones are technologically feasible.
+            ``(2) Report.--Not later than 30 days after making a finding 
+        described in clause (i), (ii), or (iii) of subparagraph (A), the 
+        Administrator shall submit a report to the Committee on 
+        Commerce, Science, and Transportation of the Senate and the 
+        Committee on Homeland Security of the House of Representatives 
+        that includes--
+                    ``(A) the results of any assessment that finds 
+                that--
+                          ``(i) the actual or planned costs exceed the 
+                      baseline costs by more than 10 percent;
+                          ``(ii) the actual or planned schedule for 
+                      delivery has been delayed by more than 180 days; 
+                      or
+                          ``(iii) there is a failure to meet any 
+                      performance milestone that directly impacts 
+                      security effectiveness;
+                    ``(B) the cause for such excessive costs, delay, or 
+                failure; and
+                    ``(C) &lt;&lt;NOTE: Plans.&gt;&gt;  a plan for corrective 
+                action.
+``SEC. 1614. &lt;&lt;NOTE: Contracts. 6 USC 563c.&gt;&gt;  INVENTORY 
+                          UTILIZATION.
+    ``(a) In General.--Before the procurement of additional quantities 
+of equipment to fulfill a mission need, the Administrator, to the extent 
+practicable, shall utilize any existing units in the Administration's 
+inventory to meet that need.
+    ``(b) Tracking of Inventory.--
+            ``(1) In general.--The Administrator shall establish a 
+        process for tracking--
+                    ``(A) the location of security-related equipment in 
+                the inventory under subsection (a);
+                    ``(B) the utilization status of security-related 
+                technology in the inventory under subsection (a); and
+                    ``(C) the quantity of security-related equipment in 
+                the inventory under subsection (a).
+            ``(2) Internal controls.--The Administrator shall implement 
+        internal controls to ensure up-to-date accurate data on 
+        security-related technology owned, deployed, and in use.
+    ``(c) Logistics Management.--
+            ``(1) In general.--The Administrator shall establish 
+        logistics principles for managing inventory in an effective and 
+        efficient manner.
+            ``(2) Limitation on just-in-time logistics.--The 
+        Administrator may not use just-in-time logistics if doing so--
+                    ``(A) would inhibit necessary planning for large-
+                scale delivery of equipment to airports or other 
+                facilities; or
+                    ``(B) would unduly diminish surge capacity for 
+                response to a terrorist threat.
+``SEC. 1615. &lt;&lt;NOTE: 6 USC 563d.&gt;&gt;  SMALL BUSINESS CONTRACTING 
+                          GOALS.
+     &lt;&lt;NOTE: Deadlines. Reports.&gt;&gt; ``Not later than 90 days after the 
+date of enactment of the Transportation Security Acquisition Reform Act, 
+and annually thereafter, the Administrator shall submit a report to the 
+Committee on Commerce, Science, and Transportation of the Senate and the 
+Committee on Homeland Security of the House of Representatives that 
+includes--
+[[Page 128 STAT. 2877]]
+            ``(1) the Administration's performance record with respect 
+        to meeting its published small-business contracting goals during 
+        the preceding fiscal year;
+            ``(2) if the goals described in paragraph (1) were not met 
+        or the Administration's performance was below the published 
+        small-business contracting goals of the Department--
+                    ``(A) a list of challenges, including deviations 
+                from the Administration's subcontracting plans, and 
+                factors that contributed to the level of performance 
+                during the preceding fiscal year;
+                    ``(B) &lt;&lt;NOTE: Action plan.&gt;&gt;  an action plan, with 
+                benchmarks, for addressing each of the challenges 
+                identified in subparagraph (A) that--
+                          ``(i) &lt;&lt;NOTE: Consultation.&gt;&gt;  is prepared 
+                      after consultation with the Secretary of Defense 
+                      and the heads of Federal departments and agencies 
+                      that achieved their published goals for prime 
+                      contracting with small and minority-owned 
+                      businesses, including small and disadvantaged 
+                      businesses, in prior fiscal years; and
+                          ``(ii) identifies policies and procedures that 
+                      could be incorporated by the Administration in 
+                      furtherance of achieving the Administration's 
+                      published goal for such contracting; and
+            ``(3) a status report on the implementation of the action 
+        plan that was developed in the preceding fiscal year in 
+        accordance with paragraph (2)(B), if such a plan was required.
+``SEC. 1616. &lt;&lt;NOTE: 6 USC 563e.&gt;&gt;  CONSISTENCY WITH THE FEDERAL 
+                          ACQUISITION REGULATION AND DEPARTMENTAL 
+                          POLICIES AND DIRECTIVES.
+    ``The Administrator shall execute the responsibilities set forth in 
+this subtitle in a manner consistent with, and not duplicative of, the 
+Federal Acquisition Regulation and the Department's policies and 
+directives.''.
+    (b) Conforming Amendment.--The table of contents in section 1(b) of 
+the Homeland Security Act of 2002 is amended by striking the items 
+relating to title XVI and inserting the following:
+                  ``TITLE XVI--TRANSPORTATION SECURITY
+                    ``Subtitle A--General Provisions
+``Sec. 1601. Definitions.
+    ``Subtitle B--Transportation Security Administration Acquisition 
+                              Improvements
+``Sec. 1611. 5-year technology investment plan.
+``Sec. 1612. Acquisition justification and reports.
+``Sec. 1613. Acquisition baseline establishment and reports.
+``Sec. 1614. Inventory utilization.
+``Sec. 1615. Small business contracting goals.
+``Sec. 1616. Consistency with the Federal acquisition regulation and 
+           departmental policies and directives.''.
+    (c) Prior Amendments Not Affected. &lt;&lt;NOTE: 6 USC 561 note.&gt;&gt; --
+Nothing in this section may be construed to affect any amendment made by 
+title XVI of the Homeland Security Act of 2002 as in effect before the 
+date of enactment of this Act.
+SEC. 4. GOVERNMENT ACCOUNTABILITY OFFICE REPORTS.
+    (a) &lt;&lt;NOTE: Assessment.&gt;&gt;  Implementation of Previous 
+Recommendations.--Not later than 1 year after the date of enactment of 
+this Act, the Comptroller General of the United States shall submit a 
+report to Congress that contains an assessment of the Transportation 
+Security Administration's implementation of recommendations
+[[Page 128 STAT. 2878]]
+regarding the acquisition of security-related technology that were made 
+by the Government Accountability Office before the date of the enactment 
+of this Act.
+    (b) &lt;&lt;NOTE: Evaluation.&gt;&gt;  Implementation of Subtitle B of Title 
+XVI.--Not later than 1 year after the date of enactment of this Act and 
+3 years thereafter, the Comptroller General of the United States shall 
+submit a report to Congress that contains an evaluation of the 
+Transportation Security Administration's progress in implementing 
+subtitle B of title XVI of the Homeland Security Act of 2002, as amended 
+by section 3, including any efficiencies, cost savings, or delays that 
+have resulted from such implementation.
+SEC. 5. REPORT ON FEASIBILITY OF INVENTORY TRACKING.
+    Not later than 90 days after the date of enactment of this Act, the 
+Administrator of the Transportation Security Administration shall submit 
+a report to Congress on the feasibility of tracking security-related 
+technology, including software solutions, of the Administration through 
+automated information and data capture technologies.
+SEC. 6. GOVERNMENT ACCOUNTABILITY OFFICE REVIEW OF TSA'S TEST AND 
+                    EVALUATION PROCESS.
+     &lt;&lt;NOTE: Deadline. Reports.&gt;&gt; Not later than 1 year after the date 
+of enactment of this Act, the Comptroller General of the United States 
+shall submit a report to Congress that includes--
+            (1) an evaluation of the Transportation Security 
+        Administration's testing and evaluation activities related to 
+        security-related technology;
+            (2) information on the extent to which--
+                    (A) the execution of such testing and evaluation 
+                activities is aligned, temporally and otherwise, with 
+                the Administration's annual budget request, acquisition 
+                needs, planned procurements, and acquisitions for 
+                technology programs and projects; and
+                    (B) security-related technology that has been 
+                tested, evaluated, and certified for use by the 
+                Administration but was not procured by the 
+                Administration, including the reasons the procurement 
+                did not occur; and
+            (3) recommendations--
+                    (A) to improve the efficiency and efficacy of such 
+                testing and evaluation activities; and
+                    (B) to better align such testing and evaluation with 
+                the acquisitions process.
+[[Page 128 STAT. 2879]]
+SEC. 7. NO ADDITIONAL AUTHORIZATION OF APPROPRIATIONS.
+    No additional funds are authorized to be appropriated to carry out 
+this Act or the amendments made by this Act.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 2719 (S. 1893):
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-275 (Comm. on Homeland Security).
+SENATE REPORTS: No. 113-274 (Comm. on Commerce, Science, and Transpor-
+                    tation) accompanying S. 1893.
+CONGRESSIONAL RECORD:
+                                                        Vol. 159 (2013):
+                                    Dec. 3, considered and passed House.
+                                                        Vol. 160 (2014):
+                                    Dec. 9, considered and passed 
+                                        Senate, amended.
+                                    Dec. 10, House concurred in Senate 
+                                        amendment.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15328,7 +20066,121 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2952/text?s=1&amp;r=82&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 246]
+[From the U.S. Government Publishing Office]
+[[Page 2879]]
+                 CYBERSECURITY WORKFORCE ASSESSMENT ACT
+[[Page 128 STAT. 2880]]
+Public Law 113-246
+113th Congress
+                                 An Act
+      To require the Secretary of Homeland Security to assess the 
+   cybersecurity workforce of the Department of Homeland Security and 
+       develop a comprehensive workforce strategy, and for other 
+            purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 2952]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Cybersecurity 
+Workforce Assessment Act.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 6 USC 101 note.&gt;&gt; SHORT TITLE.
+    This Act may be cited as the ``Cybersecurity Workforce Assessment 
+Act''.
+SEC. 2. &lt;&lt;NOTE: 6 USC 146 note.&gt;&gt; DEFINITIONS.
+    In this Act--
+            (1) the term ``Cybersecurity Category'' means a position's 
+        or incumbent's primary work function involving cybersecurity, 
+        which is further defined by Specialty Area;
+            (2) the term ``Department'' means the Department of Homeland 
+        Security;
+            (3) the term ``Secretary'' means the Secretary of Homeland 
+        Security; and
+            (4) the term ``Specialty Area'' means any of the common 
+        types of cybersecurity work as recognized by the National 
+        Initiative for Cybersecurity Education's National Cybersecurity 
+        Workforce Framework report.
+SEC. 3. CYBERSECURITY WORKFORCE ASSESSMENT AND STRATEGY.
+     &lt;&lt;NOTE: Deadlines.6 USC 146.&gt;&gt; (a) Workforce Assessment.
+            (1) In general.--Not later than 180 days after the date of 
+        enactment of this Act, and annually thereafter for 3 years, the 
+        Secretary shall assess the cybersecurity workforce of the 
+        Department.
+            (2) Contents.--The assessment required under paragraph (1) 
+        shall include, at a minimum--
+                    (A) an assessment of the readiness and capacity of 
+                the workforce of the Department to meet its 
+                cybersecurity mission;
+                    (B) information on where cybersecurity workforce 
+                positions are located within the Department;
+                    (C) information on which cybersecurity workforce 
+                positions are--
+                          (i) performed by--
+                                    (I) permanent full-time equivalent 
+                                employees of the Department, including, 
+                                to the greatest extent practicable, 
+                                demographic information about such 
+                                employees;
+[[Page 128 STAT. 2881]]
+                                    (II) independent contractors; and
+                                    (III) individuals employed by other 
+                                Federal agencies, including the National 
+                                Security Agency; or
+                          (ii) vacant; and
+                    (D) information on--
+                          (i) the percentage of individuals within each 
+                      Cybersecurity Category and Specialty Area who 
+                      received essential training to perform their jobs; 
+                      and
+                          (ii) in cases in which such essential training 
+                      was not received, what challenges, if any, were 
+                      encountered with respect to the provision of such 
+                      essential training.
+    (b) Workforce Strategy.--
+            (1) In general.--The Secretary shall--
+                    (A) not later than 1 year after the date of 
+                enactment of this Act, develop a comprehensive workforce 
+                strategy to enhance the readiness, capacity, training, 
+                recruitment, and retention of the cybersecurity 
+                workforce of the Department; and
+                    (B) maintain and, as necessary, update the 
+                comprehensive workforce strategy developed under 
+                subparagraph (A).
+            (2) Contents.--The comprehensive workforce strategy 
+        developed under paragraph (1) shall include a description of--
+                    (A) a multi-phased recruitment plan, including with 
+                respect to experienced professionals, members of 
+                disadvantaged or underserved communities, the 
+                unemployed, and veterans;
+                    (B) a 5-year implementation plan;
+                    (C) a 10-year projection of the cybersecurity 
+                workforce needs of the Department;
+                    (D) any obstacle impeding the hiring and development 
+                of a cybersecurity workforce in the Department; and
+                    (E) any gap in the existing cybersecurity workforce 
+                of the Department and a plan to fill any such gap.
+    (c) Updates.--The Secretary submit to the appropriate congressional 
+committees annual updates on--
+            (1) the cybersecurity workforce assessment required under 
+        subsection (a); and
+            (2) the progress of the Secretary in carrying out the 
+        comprehensive workforce strategy required to be developed under 
+        subsection (b).
+SEC. 4. CYBERSECURITY FELLOWSHIP PROGRAM.
+     &lt;&lt;NOTE: Deadline. Reports.&gt;&gt; Not later than 120 days after the date 
+of enactment of this Act, the Secretary shall submit to the appropriate 
+congressional committees a report on the feasibility, cost, and benefits 
+of establishing a Cybersecurity Fellowship Program to offer a tuition 
+payment plan for individuals pursuing undergraduate and doctoral
+[[Page 128 STAT. 2882]]
+degrees who agree to work for the Department for an agreed-upon period 
+of time.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 2952:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-324 (Comm. on Homeland Security).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            July 28, considered and passed House.
+            Dec. 10, considered and passed Senate, amended.
+            Dec. 11, House concurred in Senate amendments.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15370,7 +20222,127 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5739/text?s=1&amp;r=83&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 270]
+[From the U.S. Government Publishing Office]
+[[Page 2947]]
+                    NO SOCIAL SECURITY FOR NAZIS ACT
+[[Page 128 STAT. 2948]]
+Public Law 113-270
+113th Congress
+                                 An Act
+   To amend the Social Security Act to provide for the termination of 
+   social security benefits for individuals who participated in Nazi 
+  persecution, and for other purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 
+                                5739]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: No Social 
+Security for Nazis Act.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 42 USC 1305 note.&gt;&gt; SHORT TITLE.
+    This Act may be cited as the ``No Social Security for Nazis Act''.
+SEC. 2. &lt;&lt;NOTE: 42 USC 402 note.&gt;&gt; FINDINGS.
+    Congress finds the following:
+            (1) Congress enacted social security legislation to provide 
+        earned benefits for workers and their families, should they 
+        retire, become disabled, or die.
+            (2) Congress never intended for participants in Nazi 
+        persecution to be allowed to enter the United States or to reap 
+        the benefits of United States residency or citizenship, 
+        including participation in the Nation's Social Security program.
+SEC. 3. TERMINATION OF BENEFITS.
+    (a) In General.--Section 202(n)(3) of the Social Security Act (42 
+U.S.C. 402(n)(3)) is amended to read as follows:
+    ``(3) For purposes of paragraphs (1) and (2) of this subsection--
+            ``(A) an individual against whom a final order of removal 
+        has been issued under section 237(a)(4)(D) of the Immigration 
+        and Nationality Act on grounds of participation in Nazi 
+        persecution shall be considered to have been removed under such 
+        section as of the date on which such order became final;
+            ``(B) an individual with respect to whom an order admitting 
+        the individual to citizenship has been revoked and set aside 
+        under section 340 of the Immigration and Nationality Act in any 
+        case in which the revocation and setting aside is based on 
+        conduct described in section 212(a)(3)(E)(i) of such Act 
+        (relating to participation in Nazi persecution), concealment of 
+        a material fact about such conduct, or willful misrepresentation 
+        about such conduct shall be considered to have been removed as 
+        described in paragraph (1) as of the date of such revocation and 
+        setting aside; and
+            ``(C) an individual who pursuant to a settlement agreement 
+        with the Attorney General has admitted to conduct described in 
+        section 212(a)(3)(E)(i) of the Immigration and Nationality Act 
+        (relating to participation in Nazi persecution) and who pursuant 
+        to such settlement agreement has lost status as a national of 
+        the United States by a renunciation under section
+[[Page 128 STAT. 2949]]
+        349(a)(5) of the Immigration and Nationality Act shall be 
+        considered to have been removed as described in paragraph (1) as 
+        of the date of such renunciation.''.
+    (b) Other Benefits.--Section 202(n) of such Act (42 U.S.C. 402(n)) 
+is amended by adding at the end the following:
+    ``(4) In the case of any individual described in paragraph (3) whose 
+monthly benefits are terminated under paragraph (1)--
+            ``(A) no benefits otherwise available under section 202 
+        based on the wages and self-employment income of any other 
+        individual shall be paid to such individual for any month after 
+        such termination; and
+            ``(B) no supplemental security income benefits under title 
+        XVI shall be paid to such individual for any such month, 
+        including supplementary payments pursuant to an agreement for 
+        Federal administration under section 1616(a) and payments 
+        pursuant to an agreement entered into under section 212(b) of 
+        Public Law 93-66''.
+SEC. 4. NOTIFICATIONS.
+    Section 202(n)(2) of the Social Security Act (42 U.S.C. 402(n)(2)) 
+is amended to read as follows:
+             &lt;&lt;NOTE: Deadlines.&gt;&gt; ``(2)(A) In the case of the removal of 
+        any individual under any of the paragraphs of section 237(a) of 
+        the Immigration and Nationality Act (other than under paragraph 
+        (1)(C) of such section) or under section 212(a)(6)(A) of such 
+        Act, the revocation and setting aside of citizenship of any 
+        individual under section 340 of the Immigration and Nationality 
+        Act in any case in which the revocation and setting aside is 
+        based on conduct described in section 212(a)(3)(E)(i) of such 
+        Act (relating to participation in Nazi persecution), or the 
+        renunciation of nationality by any individual under section 
+        349(a)(5) of such Act pursuant to a settlement agreement with 
+        the Attorney General where the individual has admitted to 
+        conduct described in section 212(a)(3)(E)(i) of the Immigration 
+        and Nationality Act (relating to participation in Nazi 
+        persecution) occurring after the date of the enactment of the No 
+        Social Security for Nazis Act, the Attorney General or the 
+        Secretary of Homeland Security shall notify the Commissioner of 
+        Social Security of such removal, revocation and setting aside, 
+        or renunciation of nationality not later than 7 days after such 
+        removal, revocation and setting aside, or renunciation of 
+        nationality (or, in the case of any such removal, revocation and 
+        setting aside, of renunciation of nationality that has occurred 
+        prior to the date of the enactment of the No Social Security for 
+        Nazis Act, not later than 7 days after such date of enactment).
+             &lt;&lt;NOTE: Certifications.&gt;&gt; ``(B)(i) Not later than 30 days 
+        after the enactment of the No Social Security for Nazis Act, the 
+        Attorney General shall certify to the Committee on Ways and 
+        Means of the House of Representatives and the Committee on 
+        Finance of the Senate that the Commissioner of Social Security 
+        has been notified of each removal, revocation and setting aside, 
+        or renunciation of nationality described in subparagraph (A).
+            ``(ii) Not later than 30 days after each notification with 
+        respect to an individual under subparagraph (A), the 
+        Commissioner of Social Security shall certify to the Committee 
+        on Ways and Means of the House of Representatives and the
+[[Page 128 STAT. 2950]]
+        Committee on Finance of the Senate that such individual's 
+        benefits were terminated under this subsection.''.
+SEC. 5. &lt;&lt;NOTE: Applicability. 42 USC 402 note.&gt;&gt; EFFECTIVE DATE.
+    The amendments made by this Act shall apply with respect to benefits 
+paid for any month beginning after the date of the enactment of this 
+Act.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 5739:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 2, considered and passed House.
+            Dec. 4, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15412,7 +20384,38 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2591/text?s=1&amp;r=84&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 243]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2863]]
+Public Law 113-243
+113th Congress
+                                 An Act
+ To amend certain provisions of the FAA Modernization and Reform Act of 
+              2012. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 2591]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. ROLLOVER OF AMOUNTS RECEIVED IN AIRLINE CARRIER 
+                              BANKRUPTCY.
+    (a) Extension of Time To File Claim for Refund.--Section 1106(a)(3) 
+of the FAA Modernization and Reform Act of 2012 (26 U.S.C. 408 note) is 
+amended by striking ``2013'' and inserting ``2015''.
+    (b) Definitions and Special Rules.--Section 1106(c) of such Act is 
+amended--
+            (1) in paragraph (1)(A)(i) by inserting ``or filed on 
+        November 29, 2011,'' after ``2007,''; and
+            (2) in paragraph (2)(B)--
+                    (A) by striking ``terminated or'' and inserting 
+                ``terminated,''; and
+                    (B) by inserting ``, or was frozen effective 
+                November 1, 2012'' after ``Pension Protection Act of 
+                2006''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 2591 (S. 2614):
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 11, considered and passed House.
+            Dec. 13, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15454,7 +20457,114 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5069/text?s=1&amp;r=85&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 264]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2939]]
+Public Law 113-264
+113th Congress
+                                 An Act
+   To amend the Migratory Bird Hunting and Conservation Stamp Act to 
+increase in the price of Migratory Bird Hunting and Conservation Stamps 
+ to fund the acquisition of conservation easements for migratory birds, 
+     and for other purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 5069]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Federal Duck 
+Stamp Act of 2014.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 16 USC 718 note.&gt;&gt; SHORT TITLE.
+    This Act may be cited as the ``Federal Duck Stamp Act of 2014''.
+SEC. 2. INCREASE IN PRICE OF MIGRATORY BIRD HUNTING AND 
+                    CONSERVATION STAMP TO FUND ACQUISITION OF 
+                    CONSERVATION EASEMENTS FOR MIGRATORY BIRDS.
+    The Migratory Bird Hunting and Conservation Stamp Act is amended--
+            (1) in section 2(b) (16 U.S.C. 718b(b))--
+                    (A) by striking ``1990, and'' and inserting 
+                ``1990,''; and
+                    (B) by striking ``for each hunting year thereafter'' 
+                and inserting ``for hunting years 1991 through 2013, and 
+                $25 for each hunting year thereafter'';
+            (2) by adding at the end of section 2 (16 U.S.C. 718b) the 
+        following:
+    ``(c) Reduction in Price of Stamp.-- &lt;&lt;NOTE: Determination.&gt;&gt; The 
+Secretary may reduce the price of each stamp sold under the provisions 
+of this section for a hunting year if the Secretary determines that the 
+increase in the price of the stamp after hunting year 2013 resulted in a 
+reduction in revenues deposited into the fund.''; and
+            (3) in section 4 (16 U.S.C. 718d)--
+                    (A) in subsection (a)(3), by inserting before the 
+                period the following: ``, in which there shall be a 
+                subaccount to which the Secretary of the Treasury shall 
+                transfer all amounts in excess of $15 that are received 
+                from the sale of each stamp sold for each hunting year 
+                after hunting year 2013'';
+                    (B) in subsection (b)(1), by striking ``So much'' 
+                and inserting ``Except as provided in paragraph (4), so 
+                much'';
+                    (C) in subsection (b)(2), by striking ``paragraph 
+                (3)'' and inserting ``paragraphs (3) and (4)''; and
+                    (D) by adding at the end of subsection (b) the 
+                following:
+            ``(4) Conservation easements.--Amounts in the subaccount 
+        referred to in subsection (a)(3) shall be used by the Secretary 
+        solely to acquire easements in real property in the United 
+        States for conservation of migratory birds.''.
+[[Page 128 STAT. 2940]]
+SEC. 3. ANNUAL REPORT ON EXPENDITURES.
+    Section 4 of the Migratory Bird Hunting and Conservation Stamp Act 
+(16 U.S.C. 718d) is further amended--
+            (1) in subsection (c)--
+                    (A) by striking so much as precedes ``The Secretary 
+                may'' and inserting the following:
+    ``(c) Promotion of Stamp Sales.--''; and
+                    (B) by striking paragraph (2); and
+            (2) by adding at the end the following:
+    ``(d) Annual Report.--The Secretary shall include in each annual 
+report of the Commission under section 3 of the Migratory Bird 
+Conservation Act (16 U.S.C. 715b)--
+            ``(1) a description of activities conducted under subsection 
+        (c) in the year covered by the report;
+            ``(2) an annual assessment of the status of wetlands 
+        conservation projects for migratory bird conservation purposes, 
+        including a clear and accurate accounting of--
+                    ``(A) all expenditures by Federal and State agencies 
+                under this section; and
+                    ``(B) all expenditures made for fee-simple 
+                acquisition of Federal lands in the United States, 
+                including the amount paid and acreage of each parcel 
+                acquired in each acquisition;
+            ``(3) an analysis of the refuge lands opened, and refuge 
+        lands closed, for hunting and fishing in the year covered by the 
+        report, including--
+                    ``(A) identification of the specific areas in each 
+                refuge and the reasons for the closure or opening; and
+                    ``(B) a detailed description of each closure 
+                including detailed justification for such closure;
+            ``(4) the total number of acres of refuge land open for 
+        hunting and fishing, and the total number of acres of refuge 
+        land closed for hunting and fishing, in the year covered by the 
+        report; and
+            ``(5) a separate report on the hunting and fishing status of 
+        those lands added to the system in the year covered by the 
+        report.''.
+SEC. 4. EXEMPTION FOR TAKINGS BY RURAL ALASKA SUBSISTENCE USERS.
+    Section 1(a)(2) of the Migratory Bird Hunting and Conservation Stamp 
+Act (16 U.S.C. 718a(a)(2)) is amended by striking ``or'' after the 
+semicolon at the end of subparagraph (B), by striking the period at the 
+end of subparagraph (C) and inserting ``; or'', and by adding at the end 
+the following:
+                    ``(D) by a rural Alaska resident for subsistence 
+                uses (as that term is defined in section 803 of the 
+                Alaska
+[[Page 128 STAT. 2941]]
+                National Interest Lands Conservation Act (16 U.S.C. 
+                3113)).''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 5069:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-622 (Comm. on Natural Resources).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Nov. 17, considered and passed House.
+            Dec. 2, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15496,7 +20606,34 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4926/text?s=1&amp;r=86&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 261]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2934]]
+Public Law 113-261
+113th Congress
+                                 An Act
+To designate a segment of Interstate Route 35 in the State of Minnesota 
+    as the ``James L. Oberstar Memorial Highway''. &lt;&lt;NOTE: Dec. 18, 
+                         2014 -  [H.R. 4926]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. DESIGNATION.
+    The segment of Interstate Route 35 between milepost 133 at Forest 
+Lake, Minnesota, and milepost 259 at Duluth, Minnesota, shall be known 
+and designated as the ``James L. Oberstar Memorial Highway''.
+SEC. 2. REFERENCES.
+    Any reference in a law, map, regulation, document, paper, or other 
+record of the United States to the segment of Interstate Route 35 
+referred to in section 1 shall be deemed to be a reference to the 
+``James L. Oberstar Memorial Highway''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 4926:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-610 (Comm. on Transportation and Infrastructure).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 8, considered and passed House.
+            Dec. 10, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15538,7 +20675,34 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/4416/text?s=1&amp;r=87&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 258]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2927]]
+Public Law 113-258
+113th Congress
+                                 An Act
+To redesignate the facility of the United States Postal Service located 
+at 161 Live Oak Street in Miami, Arizona, as the ``Staff Sergeant Manuel 
+   V. Mendoza Post Office Building''. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 
+                                4416]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. STAFF SERGEANT MANUEL V. MENDOZA POST OFFICE BUILDING.
+    (a) Redesignation.--The facility of the United States Postal Service 
+located at 161 Live Oak Street in Miami, Arizona, shall be known and 
+designated as the ``Staff Sergeant Manuel V. Mendoza Post Office 
+Building''.
+    (b) References.--Any reference in a law, map, regulation, document, 
+paper, or other record of the United States to the facility referred to 
+in subsection (a) shall be deemed to be a reference to the ``Staff 
+Sergeant Manuel V. Mendoza Post Office Building''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 4416:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            July 14, considered and passed House.
+            Dec. 15, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15580,7 +20744,209 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/1000/text?s=1&amp;r=88&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 273]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2967]]
+Public Law 113-273
+113th Congress
+                                 An Act
+   To require the Director of the Office of Management and Budget to 
+ prepare a crosscut budget for restoration activities in the Chesapeake 
+  Bay watershed, and for other purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [S. 
+                                1000]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Chesapeake Bay 
+Accountability and Recovery Act of 2014.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: 33 USC 1267 note.&gt;&gt;  SHORT TITLE.
+    This Act may be cited as the ``Chesapeake Bay Accountability and 
+Recovery Act of 2014''.
+SEC. 2. DEFINITIONS.
+    In this Act:
+            (1) Administrator.--The term ``Administrator'' means the 
+        Administrator of the Environmental Protection Agency.
+            (2) Chesapeake bay state.--The term ``Chesapeake Bay State'' 
+        or ``State'' means any of--
+                    (A) the States of Maryland, West Virginia, Delaware, 
+                and New York;
+                    (B) the Commonwealths of Virginia and Pennsylvania; 
+                and
+                    (C) the District of Columbia.
+            (3) Chesapeake bay watershed.--The term ``Chesapeake Bay 
+        watershed'' means all tributaries, backwaters, and side 
+        channels, including watersheds, draining into the Chesapeake 
+        Bay.
+            (4) Chesapeake executive council.--The term ``Chesapeake 
+        Executive Council'' has the meaning given the term by section 
+        117(a) of the Federal Water Pollution Control Act (33 U.S.C. 
+        1267(a)).
+            (5) Chief executive.--The term ``chief executive'' means, in 
+        the case of a State or Commonwealth, the Governor of the State 
+        or Commonwealth and, in the case of the District of Columbia, 
+        the Mayor of the District of Columbia.
+            (6) Director.--The term ``Director'' means the Director of 
+        the Office of Management and Budget.
+            (7) Federal restoration activity.--
+                    (A) In general.--The term ``Federal restoration 
+                activity'' means a Federal program or project carried 
+                out under Federal authority in existence as of the date 
+                of enactment of this Act with the express intent to 
+                directly protect, conserve, or restore living resources, 
+                habitat, water resources, or water quality in the 
+                Chesapeake Bay watershed, including programs or projects 
+                that provide financial and technical assistance to 
+                promote responsible land use,
+[[Page 128 STAT. 2968]]
+                stewardship, and community engagement in the Chesapeake 
+                Bay watershed.
+                    (B) Categorization.--Federal restoration activities 
+                may be categorized as follows:
+                          (i) Physical restoration.
+                          (ii) Planning.
+                          (iii) Feasibility studies.
+                          (iv) Scientific research.
+                          (v) Monitoring.
+                          (vi) Education.
+                          (vii) Infrastructure development.
+            (8) State restoration activity.--
+                    (A) In general.--The term ``State restoration 
+                activity'' means any State program or project carried 
+                out under State authority that directly or indirectly 
+                protect, conserve, or restore living resources, habitat, 
+                water resources, or water quality in the Chesapeake Bay 
+                watershed, including programs or projects that promote 
+                responsible land use, stewardship, and community 
+                engagement in the Chesapeake Bay watershed.
+                    (B) Categorization.--State restoration activities 
+                may be categorized as follows:
+                          (i) Physical restoration.
+                          (ii) Planning.
+                          (iii) Feasibility studies.
+                          (iv) Scientific research.
+                          (v) Monitoring.
+                          (vi) Education.
+                          (vii) Infrastructure development.
+SEC. 3. CHESAPEAKE BAY CROSSCUT BUDGET.
+    (a) &lt;&lt;NOTE: Consultation. Reports.&gt;&gt;  In General.--The Director, in 
+consultation with the Chesapeake Executive Council, the chief executive 
+of each Chesapeake Bay State, and the Chesapeake Bay Commission, shall 
+submit to Congress a financial report containing--
+            (1) an interagency crosscut budget that displays, as 
+        applicable--
+                    (A) the proposed funding for any Federal restoration 
+                activity to be carried out in the succeeding fiscal 
+                year, including any planned interagency or intra-agency 
+                transfer, for each of the Federal agencies that carry 
+                out restoration activities;
+                    (B) to the extent that information is available, the 
+                estimated funding for any State restoration activity to 
+                be carried out in the succeeding fiscal year;
+                    (C) all expenditures for Federal restoration 
+                activities from the preceding 2 fiscal years, the 
+                current fiscal year, and the succeeding fiscal year;
+                    (D) all expenditures, to the extent that information 
+                is available, for State restoration activities during 
+                the equivalent time period described in subparagraph 
+                (C); and
+                    (E) a section that identifies and evaluates, based 
+                on need and appropriateness, specific opportunities to 
+                consolidate similar programs and activities within the 
+                budget and recommendations to Congress for legislative 
+                action to streamline, consolidate, or eliminate similar 
+                programs and activities within the budget;
+[[Page 128 STAT. 2969]]
+            (2) a detailed accounting of all funds received and 
+        obligated by each Federal agency for restoration activities 
+        during the current and preceding fiscal years, including the 
+        identification of funds that were transferred to a Chesapeake 
+        Bay State for restoration activities;
+            (3) to the extent that information is available, a detailed 
+        accounting from each State of all funds received and obligated 
+        from a Federal agency for restoration activities during the 
+        current and preceding fiscal years; and
+            (4) a description of each of the proposed Federal and State 
+        restoration activities to be carried out in the succeeding 
+        fiscal year (corresponding to those activities listed in 
+        subparagraphs (A) and (B) of paragraph (1)), including--
+                    (A) the project description;
+                    (B) the current status of the project;
+                    (C) the Federal or State statutory or regulatory 
+                authority, program, or responsible agency;
+                    (D) the authorization level for appropriations;
+                    (E) the project timeline, including benchmarks;
+                    (F) references to project documents;
+                    (G) descriptions of risks and uncertainties of 
+                project implementation;
+                    (H) a list of coordinating entities;
+                    (I) a description of the funding history for the 
+                project;
+                    (J) cost sharing; and
+                    (K) alignment with the existing Chesapeake Bay 
+                Agreement, Chesapeake Executive Council goals and 
+                priorities, and Annual Action Plan required by section 
+                205 of Executive Order 13508 (33 U.S.C. 1267 note; 
+                relating to Chesapeake Bay protection and restoration).
+    (b) Minimum Funding Levels.--In describing restoration activities in 
+the report required under subsection (a), the Director shall only 
+include--
+            (1) for the first 3 years that the report is required, 
+        descriptions of--
+                    (A) Federal restoration activities that have funding 
+                amounts greater than or equal to $300,000; and
+                    (B) State restoration activities that have funding 
+                amounts greater than or equal to $300,000; and
+            (2) for every year thereafter, descriptions of--
+                    (A) Federal restoration activities that have funding 
+                amounts greater than or equal to $100,000; and
+                    (B) State restoration activities that have funding 
+                amounts greater than or equal to $100,000.
+    (c) Deadline.--The Director shall submit to Congress the report 
+required by subsection (a) not later than September 30 of each year.
+    (d) Report.--Copies of the report required by subsection (a) shall 
+be submitted to the Committees on Appropriations, Natural Resources, 
+Energy and Commerce, and Transportation and Infrastructure of the House 
+of Representatives and the Committees on Appropriations, Environment and 
+Public Works, and Commerce, Science, and Transportation of the Senate.
+    (e) Effective Date.--This section shall apply beginning with the 
+first fiscal year after the date of enactment of this Act.
+[[Page 128 STAT. 2970]]
+SEC. 4. INDEPENDENT EVALUATOR FOR THE CHESAPEAKE BAY PROGRAM.
+    (a) &lt;&lt;NOTE: Review. Reports.&gt;&gt;  In General.--There shall be an 
+Independent Evaluator for restoration activities in the Chesapeake Bay 
+watershed, who shall review and report on--
+            (1) restoration activities; and
+            (2) any related topics that are suggested by the Chesapeake 
+        Executive Council.
+    (b) Appointment.--
+            (1) In general.-- &lt;&lt;NOTE: Deadline.&gt;&gt; Not later than 30 days 
+        after the date of submission of nominees by the Chesapeake 
+        Executive Council, the Independent Evaluator shall be appointed 
+        by the Administrator from among nominees submitted by the 
+        Chesapeake Executive Council with the consultation of the 
+        scientific community.
+            (2) Nominations.--The Chesapeake Executive Council may 
+        nominate for consideration as Independent Evaluator a science-
+        based institution of higher education.
+            (3) Requirements.--The Administrator shall only select as 
+        Independent Evaluator a nominee that the Administrator 
+        determines demonstrates excellence in marine science, policy 
+        evaluation, or other studies relating to complex environmental 
+        restoration activities.
+    (c) Reports.--Not later than 180 days after the date of appointment 
+and once every 2 years thereafter, the Independent Evaluator shall 
+submit to Congress a report describing the findings and recommendations 
+of reviews conducted under subsection (a).
+SEC. 5. PROHIBITION ON NEW FUNDING.
+    No additional funds are authorized to be appropriated to carry out 
+this Act.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--S. 1000 (H.R. 739):
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-
+453, Pt. 1 (Comm. on Natural Resources) accompanying H.R. 739.
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 2, considered and passed Senate.
+            Dec. 9, 10, considered and passed House.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15622,7 +20988,299 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/1683/text?s=1&amp;r=89&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 276]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2989]]
+Public Law 113-276
+113th Congress
+                                 An Act
+    To provide for the transfer of naval vessels to certain foreign 
+    recipients, and for other purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [S. 
+                                1683]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. APPROPRIATE CONGRESSIONAL COMMITTEES DEFINED.
+    In this Act, the term ``appropriate congressional committees'' 
+means--
+            (1) the Committee on Foreign Relations of the Senate; and
+            (2) the Committee on Foreign Affairs of the House of 
+        Representatives.
+   TITLE I-- &lt;&lt;NOTE: Naval Vessel Transfer Act of 2013.&gt;&gt; TRANSFER OF 
+EXCESS UNITED STATES NAVAL VESSELS
+SEC. 101. SHORT TITLE.
+    This title may be cited as the ``Naval Vessel Transfer Act of 
+2013''.
+SEC. 102. &lt;&lt;NOTE: President.&gt;&gt;  TRANSFER OF NAVAL VESSELS TO 
+                        CERTAIN FOREIGN RECIPIENTS.
+    (a) Transfers by Grant to Mexico.--The President is authorized to 
+transfer to the Government of Mexico the OLIVER HAZARD PERRY class 
+guided missile frigates USS CURTS (FFG-38) and USS MCCLUSKY (FFG-41) on 
+a grant basis under section 516 of the Foreign Assistance Act of 1961 
+(22 U.S.C. 2321j).
+    (b) Transfer by Sale to the Taipei Economic and Cultural 
+Representative Office in the United States.--The President is authorized 
+to transfer the OLIVER HAZARD PERRY class guided missile frigates USS 
+TAYLOR (FFG-50), USS GARY (FFG-51), USS CARR (FFG-52), and USS ELROD 
+(FFG-55) to the Taipei Economic and Cultural Representative Office in 
+the United States (which is the Taiwan instrumentality designated 
+pursuant to section 10(a) of the Taiwan Relations Act (22 U.S.C. 
+3309(a))) on a sale basis under section 21 of the Arms Export Control 
+Act (22 U.S.C. 2761).
+    (c) Alternative Transfer Authority.--Notwithstanding the authority 
+provided in subsections (a) and (b) and to transfer specific vessels to 
+specific countries, the President is authorized to transfer any vessel 
+named in this title to any country named in this section, subject to the 
+same conditions that would apply for such country under this section, 
+such that the total number of vessels transferred
+[[Page 128 STAT. 2990]]
+to such country does not exceed the total number of vessels authorized 
+for transfer to such country by this section.
+    (d) Grants Not Counted in Annual Total of Transferred Excess Defense 
+Articles.--The value of a vessel transferred to another country on a 
+grant basis pursuant to authority provided by subsection (a) shall not 
+be counted against the aggregate value of excess defense articles 
+transferred in any fiscal year under section 516 of the Foreign 
+Assistance Act of 1961 (22 U.S.C. 2321j).
+    (e) Costs of Transfers.--Any expense incurred by the United States 
+in connection with a transfer authorized by this section shall be 
+charged to the recipient notwithstanding section 516(e) of the Foreign 
+Assistance Act of 1961 (22 U.S.C. 2321j(e)).
+    (f) Repair and Refurbishment in United States Shipyards.--To the 
+maximum extent practicable, the President shall require, as a condition 
+of the transfer of a vessel under this section, that the recipient to 
+which the vessel is transferred have such repair or refurbishment of the 
+vessel as is needed, before the vessel joins the naval forces of that 
+recipient, performed at a shipyard located in the United States.
+    (g) &lt;&lt;NOTE: Time period.&gt;&gt;  Expiration of Authority.--The authority 
+to transfer a vessel under this section shall expire at the end of the 
+3-year period beginning on the date of the enactment of this Act.
+                     TITLE II--ADDITIONAL PROVISIONS
+SEC. 201. ENHANCED CONGRESSIONAL OVERSIGHT OF ARMS SALES, 
+                        INCLUDING TO THE MIDDLE EAST.
+    Section 36 of the Arms Export Control Act (22 U.S.C. 2776) is 
+amended by adding at the end the following new subsection:
+    ``(i) Prior Notification of Shipment of 
+Arms. &lt;&lt;NOTE: Deadline. President.&gt;&gt; --At least 30 days prior to a 
+shipment of defense articles subject to the requirements of subsection 
+(b) at the joint request of the Chairman and Ranking Member of the 
+Committee on Foreign Relations of the Senate or the Committee on Foreign 
+Affairs of the House of Representatives, the President shall provide 
+notification of such pending shipment, in unclassified form, with a 
+classified annex as necessary, to the Committee on Foreign Relations of 
+the Senate and the Committee on Foreign Affairs of the House of 
+Representatives.''.
+SEC. 202. INCREASE IN ANNUAL LIMITATION ON TRANSFER OF EXCESS 
+                        DEFENSE ARTICLES.
+    Section 516(g)(1) of the Foreign Assistance Act of 1961 (22 U.S.C. 
+2321j(g)(1)) is amended by striking ``$425,000,000'' and inserting 
+``$500,000,000''.
+SEC. 203. INTEGRATED AIR AND MISSILE DEFENSE PROGRAMS AT TRAINING 
+                        LOCATIONS IN SOUTHWEST ASIA.
+    Section 544(c) of the Foreign Assistance Act of 1961 (22 U.S.C. 
+2347c(c)) is amended by adding at the end the following new paragraph:
+     &lt;&lt;NOTE: President. Reports. Deadline.&gt;&gt; ``(4) The President shall 
+report to the appropriate congressional committees (as defined in 
+section 656(e)) annually on the activities undertaken in the programs 
+authorized under this subsection.''.
+SEC. 204. LICENSING OF CERTAIN COMMERCE-CONTROLLED ITEMS.
+    Section 38 of the Arms Export Control Act (22 U.S.C. 2778) is 
+amended by adding at the end the following new subsection:
+[[Page 128 STAT. 2991]]
+    ``(k) Licensing of Certain Commerce-Controlled Items.--
+            ``(1) In general.--A license or other approval from the 
+        Department of State granted in accordance with this section may 
+        also authorize the export of items subject to the Export 
+        Administration Regulations if such items are to be used in or 
+        with defense articles controlled on the United States Munitions 
+        List.
+            ``(2) Other requirements.-- &lt;&lt;NOTE: Applicability.&gt;&gt; The 
+        following requirements shall apply with respect to a license or 
+        other approval to authorize the export of items subject to the 
+        Export Administration Regulations under paragraph (1):
+                    ``(A) Separate approval from the Department of 
+                Commerce shall not be required for such items if such 
+                items are approved for export under a Department of 
+                State license or other approval.
+                    ``(B) Such items subject to the Export 
+                Administration Regulations that are exported pursuant to 
+                a Department of State license or other approval would 
+                remain under the jurisdiction of the Department of 
+                Commerce with respect to any subsequent transactions.
+                    ``(C) The inclusion of the term `subject to the EAR' 
+                or any similar term on a Department of State license or 
+                approval shall not affect the jurisdiction with respect 
+                to such items.
+            ``(3) Definition.--In this subsection, the term `Export 
+        Administration Regulations' means--
+                    ``(A) the Export Administration Regulations as 
+                maintained and amended under the authority of the 
+                International Emergency Economic Powers Act (50 U.S.C. 
+                1701 et seq.); or
+                    ``(B) any successor regulations.''.
+SEC. 205. AMENDMENTS RELATING TO REMOVAL OF MAJOR DEFENSE 
+                        EQUIPMENT FROM UNITED STATES MUNITIONS 
+                        LIST.
+     &lt;&lt;NOTE: President.&gt;&gt; (a) Requirements for Removal of Major Defense 
+Equipment From United States Munitions List.--Section 38(f) of the Arms 
+Export Control Act (22 U.S.C. 2778(f)) is amended by adding at the end 
+the following:
+            ``(5)(A) Except as provided in subparagraph (B), the 
+        President shall take such actions as may be necessary to require 
+        that, at the time of export or reexport of any major defense 
+        equipment listed on the 600 series of the Commerce Control List 
+        contained in Supplement No. 1 to part 774 of subtitle B of title 
+        15, Code of Federal Regulations, the major defense equipment 
+        will not be subsequently modified so as to transform such major 
+        defense equipment into a defense article.
+            ``(B) The President may authorize the transformation of any 
+        major defense equipment described in subparagraph (A) into a 
+        defense article if the President--
+                    ``(i) &lt;&lt;NOTE: Determination.&gt;&gt;  determines that such 
+                transformation is appropriate and in the national 
+                interests of the United States; and
+                    ``(ii) &lt;&lt;NOTE: Notification.&gt;&gt;  provides notice of 
+                such transformation to the chairman of the Committee on 
+                Foreign Affairs of the House of Representatives and the 
+                chairman of the Committee on Foreign Relations of the 
+                Senate consistent with the notification requirements of 
+                section 36(b)(5)(A) of this Act.
+[[Page 128 STAT. 2992]]
+            ``(C) &lt;&lt;NOTE: Definition.&gt;&gt;  In this paragraph, the term 
+        `defense article' means an item designated by the President 
+        pursuant to subsection (a)(1).''.
+    (b) Notification and Reporting Requirements for Major Defense 
+Equipment Removed From United States Munitions List.--Section 38(f) of 
+the Arms Export Control Act (22 U.S.C. 2778(f)), as amended by this 
+section, is further amended by adding at the end the following:
+            ``(6) &lt;&lt;NOTE: President.&gt;&gt;  The President shall ensure that 
+        any major defense equipment that is listed on the 600 series of 
+        the Commerce Control List contained in Supplement No. 1 to part 
+        774 of subtitle B of title 15, Code of Federal Regulations, 
+        shall continue to be subject to the notification and reporting 
+        requirements of the following provisions of law:
+                    ``(A) Section 516(f) of the Foreign Assistance Act 
+                of 1961 (22 U.S.C. 2321j(f)).
+                    ``(B) Section 655 of the Foreign Assistance Act of 
+                1961 (22 U.S.C. 2415).
+                    ``(C) Section 3(d)(3)(A) of this Act.
+                    ``(D) Section 25 of this Act.
+                    ``(E) Section 36(b), (c), and (d) of this Act.''.
+SEC. 206. AMENDMENT TO DEFINITION OF ``SECURITY ASSISTANCE'' UNDER 
+                        THE FOREIGN ASSISTANCE ACT OF 1961.
+    Section 502B(d) of the Foreign Assistance Act of 1961 (22 U.S.C. 
+2304(d)) is amended--
+            (1) in paragraph (1), by striking ``and'' at the end; and
+            (2) by amending paragraph (2)(C) to read as follows:
+                    ``(C) any license in effect with respect to the 
+                export to or for the armed forces, police, intelligence, 
+                or other internal security forces of a foreign country 
+                of--
+                          ``(i) defense articles or defense services 
+                      under section 38 of the Armed Export Control Act 
+                      (22 U.S.C. 2778); or
+                          ``(ii) items listed under the 600 series of 
+                      the Commerce Control List contained in Supplement 
+                      No. 1 to part 774 of subtitle B of title 15, Code 
+                      of Federal Regulations;''.
+SEC. 207. AMENDMENTS TO DEFINITIONS OF ``DEFENSE ARTICLE'' AND 
+                        ``DEFENSE SERVICE'' UNDER THE ARMS EXPORT 
+                        CONTROL ACT.
+    Section 47 of the Arms Export Control Act (22 U.S.C. 2794) is 
+amended--
+            (1) in the matter preceding subparagraph (A) of paragraph 
+        (3), by striking ``includes'' and inserting ``means, with 
+        respect to a sale or transfer by the United States under the 
+        authority of this Act or any other foreign assistance or sales 
+        program of the United States''; and
+            (2) in paragraph (4), by striking ``includes'' and inserting 
+        ``means, with respect to a sale or transfer by the United States 
+        under the authority of this Act or any other foreign assistance 
+        or sales program of the United States,''.
+SEC. 208. TECHNICAL AMENDMENTS.
+    (a) In General.--The Arms Export Control Act (22 U.S.C. 2751 et 
+seq.) is amended--
+[[Page 128 STAT. 2993]]
+            (1) in sections 3(a), 3(d)(1), 3(d)(3)(A), 3(e), 5(c), 6, 
+        21(g), 36(a), 36(b)(1), 36(b)(5)(C), 36(c)(1), 36(f), 38(f)(1), 
+        40(f)(1), 40(g)(2)(B), 101(b), and 102(a)(2), &lt;&lt;NOTE: 22 USC 
+        2753, 2755, 2756, 2761, 2776, 2778, 2780, 2799.&gt;&gt;  by striking 
+        ``the Speaker of the House of Representatives and'' each place 
+        it appears and inserting ``the Speaker of the House of 
+        Representatives, the Committee on Foreign Affairs of the House 
+        of Representatives, and'';
+            (2) in section 21(i)(1) &lt;&lt;NOTE: 22 USC 2761.&gt;&gt;  by inserting 
+        after ``the Speaker of the House of Representatives'' the 
+        following ``, the Committees on Foreign Affairs and Armed 
+        Services of the House of Representatives,'';
+            (3) in sections 25(e), 38(f)(2), 38(j)(3), and 
+        38(j)(4)(B), &lt;&lt;NOTE: 22 USC 2765, 2778.&gt;&gt;  by striking 
+        ``International Relations'' each place it appears and inserting 
+        ``Foreign Affairs'';
+            (4) in sections 27(f) and 62(a), &lt;&lt;NOTE: 22 USC 2767, 
+        2796.&gt;&gt;  by inserting after ``the Speaker of the House of 
+        Representatives,'' each place it appears the following: ``the 
+        Committee on Foreign Affairs of the House of Representatives,''; 
+        and
+            (5) in section 73(e)(2), &lt;&lt;NOTE: 22 USC 2797.&gt;&gt;  by striking 
+        ``the Committee on National Security and the Committee on 
+        International Relations of the House of Representatives'' and 
+        inserting ``the Committee on Armed Services and the Committee on 
+        Foreign Affairs of the House of Representatives''.
+    (b) Other Technical Amendments.--
+            (1) Arms export control act.--The Arms Export Control Act 
+        (22 U.S.C. 2751 et seq.), as amended by subsection (a), is 
+        further amended--
+                    (A) in section 38-- &lt;&lt;NOTE: 22 USC 2778.&gt;&gt; 
+                          (i) in subsection (b)(1), by redesignating the 
+                      second subparagraph (B) (as added by section 
+                      1255(b) of the Foreign Relations Authorization 
+                      Act, Fiscal Years 1988 and 1989 (Public Law 100-
+                      204; 101 Stat. 1431)) as subparagraph (C);
+                          (ii) in subsection (g)(1)(A)--
+                                    (I) in clause (xi), by striking ``; 
+                                or'' and inserting ``, or''; and
+                                    (II) in clause (xii)--
+                                            (aa) by striking ``section'' 
+                                        and inserting ``sections''; and
+                                            (bb) by striking ``(18 
+                                        U.S.C. 175b)'' and inserting 
+                                        ``(18 U.S.C. 175c)''; and
+                          (iii) in subsection (j)(2), in the matter 
+                      preceding subparagraph (A), by inserting ``in'' 
+                      after ``to''; and
+                    (B) in section 47(2), &lt;&lt;NOTE: 22 USC 2794.&gt;&gt;  in the 
+                matter preceding subparagraph (A), by striking ``sec. 
+                21(a),,'' and inserting ``section 21(a),''.
+            (2) Foreign assistance act of 1961.--Section 502B of the 
+        Foreign Assistance Act of 1961 (22 U.S.C. 2304) is amended--
+                    (A) in subsection (b), by striking ``Wherever 
+                applicable, a description'' and inserting ``Wherever 
+                applicable, such report shall include a description''; 
+                and
+                    (B) in subsection (d)(2)(B), by striking ``credits'' 
+                and inserting ``credits)''.
+[[Page 128 STAT. 2994]]
+SEC. 209. &lt;&lt;NOTE: 5 USC app. 2411 note.&gt;&gt; APPLICATION OF CERTAIN 
+                        PROVISIONS OF EXPORT ADMINISTRATION ACT OF 
+                        1979.
+    (a) Protection of Information.--Section 12(c) of the Export 
+Administration Act of 1979 (50 U.S.C. App. 2411(c)) has been in effect 
+from August 20, 2001, and continues in effect on and after the date of 
+the enactment of this Act, pursuant to the International Emergency 
+Economic Powers Act (50 U.S.C. 1701 et seq.) and notwithstanding section 
+20 of the Export Administration Act of 1979 (50 U.S.C. App. 2419). 
+Section 12(c)(1) of the Export Administration Act of 1979 is a statute 
+covered by section 552(b)(3) of title 5, United States Code.
+    (b) &lt;&lt;NOTE: Time period.&gt;&gt;  Termination Date.--Subsection (a) 
+terminates at the end of the 4-year period beginning on the date of the 
+enactment of this Act.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--S. 1683:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 4, considered and passed Senate.
+            Dec. 10, considered and passed House.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15664,7 +21322,39 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/3008/text?s=1&amp;r=90&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 286]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 3093]]
+Public Law 113-286
+113th Congress
+                                 An Act
+ To extend temporarily the extended period of protection for members of 
+  uniformed services relating to mortgages, mortgage foreclosure, and 
+ eviction, and for other purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [S. 3008]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Foreclosure 
+Relief and Extension for Servicemembers Act of 2014. 50 USC app. 501 
+note.&gt;&gt; 
+SECTION 1. SHORT TITLE.
+    This Act may be cited as the ``Foreclosure Relief and Extension for 
+Servicemembers Act of 2014''.
+SEC. 2. TEMPORARY EXTENSION OF EXTENDED PERIOD OF PROTECTIONS FOR 
+                    MEMBERS OF UNIFORMED SERVICES RELATING TO 
+                    MORTGAGES, MORTGAGE FORECLOSURE, AND EVICTION.
+    Section 710(d) of the Honoring America's Veterans and Caring for 
+Camp Lejeune Families Act of 2012 (Public Law 112-154; 126 Stat. 
+1208) &lt;&lt;NOTE: 50 USC app. 503 note.&gt;&gt;  is amended--
+            (1) in paragraph (1), by striking ``December 31, 2014'' and 
+        inserting ``December 31, 2015''; and
+            (2) in paragraph (3), by striking ``January 1, 2015'' and 
+        inserting ``January 1, 2016''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--S. 3008:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 11, considered and passed Senate.
+            Dec. 12, considered and passed House.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15706,7 +21396,82 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3468/text?s=1&amp;r=91&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 252]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2893]]
+Public Law 113-252
+113th Congress
+                                 An Act
+ To amend the Federal Credit Union Act to extend insurance coverage to 
+ amounts held in a member account on behalf of another person, and for 
+         other purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 3468]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Credit Union 
+Share Insurance Fund Parity Act.&gt;&gt; 
+SECTION 1. SHORT TITLE.
+    This Act may be cited as the ``Credit Union Share Insurance Fund 
+Parity Act''.
+SEC. 2. INSURANCE OF AMOUNTS HELD ON BEHALF OF OTHERS.
+    Section 207(k) of the Federal Credit Union Act (12 U.S.C. 1787(k)) 
+is amended--
+            (1) in paragraph (1)(A)--
+                    (A) by inserting after ``payable to any member'' the 
+                following: ``, or to any person with funds lawfully held 
+                in a member account,''; and
+                    (B) by striking ``and paragraphs (5) and (6)'';
+            (2) in paragraph (2)(A), by striking ``(as determined under 
+        paragraph (5))'';
+            (3) by redesignating paragraph (5) as paragraph (6); and
+            (4) by inserting after paragraph (4) the following:
+            ``(5) Coverage for interest on lawyers trust accounts 
+        (iolta) and other similar escrow accounts.--
+                    ``(A) Pass-through insurance.--The Administration 
+                shall provide pass-through share insurance for the 
+                deposits or shares of any interest on lawyers trust 
+                account (IOLTA) or other similar escrow accounts.
+                    ``(B) Treatment of ioltas.--
+                          ``(i) Treatment as escrow accounts.--For share 
+                      insurance purposes, IOLTAs are treated as escrow 
+                      accounts.
+                          ``(ii) Treatment as member accounts.--IOLTAs 
+                      and other similar escrow accounts are considered 
+                      member accounts for purposes of paragraph (1), if 
+                      the attorney administering the IOLTA or the escrow 
+                      agent administering the escrow account is a member 
+                      of the insured credit union in which the funds are 
+                      held.
+                    ``(C) Definitions.--For purposes of this paragraph:
+                          ``(i) Interest on lawyers trust account.--The 
+                      terms `interest on lawyers trust account' and 
+                      `IOLTA' mean a system in which lawyers place 
+                      certain client funds in interest-bearing or 
+                      dividend-bearing accounts,
+[[Page 128 STAT. 2894]]
+                      with the interest or dividends then used to fund 
+                      programs such as legal service organizations who 
+                      provide services to clients in need.
+                          ``(ii) Pass-through share insurance.--The term 
+                      `pass-through share insurance' means, with respect 
+                      to IOLTAs and other similar escrow accounts, 
+                      insurance coverage based on the interest of each 
+                      person on whose behalf funds are held in such 
+                      accounts by the attorney administering the IOLTA 
+                      or the escrow agent administering a similar escrow 
+                      account, in accordance with regulations issued by 
+                      the Administration.
+                    ``(D) Rule of construction.--No provision of this 
+                paragraph shall be construed as authorizing an insured 
+                credit union to accept the deposits of an IOLTA or 
+                similar escrow account in an amount greater than such 
+                credit union is authorized to accept under any other 
+                provision of Federal or State law.''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 3468:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            May 6, considered and passed House.
+            Dec. 11, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15748,7 +21513,32 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3027/text?s=1&amp;r=92&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 247]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2883]]
+Public Law 113-247
+113th Congress
+                                 An Act
+To designate the facility of the United States Postal Service located at 
+442 Miller Valley Road in Prescott, Arizona, as the ``Barry M. Goldwater 
+         Post Office''. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 3027]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. BARRY M. GOLDWATER POST OFFICE.
+    (a) Designation.--The facility of the United States Postal Service 
+located at 442 Miller Valley Road in Prescott, Arizona, shall be known 
+and designated as the ``Barry M. Goldwater Post Office''.
+    (b) References.--Any reference in a law, map, regulation, document, 
+paper, or other record of the United States to the facility referred to 
+in subsection (a) shall be deemed to be a reference to the ``Barry M. 
+Goldwater Post Office''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 3027:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            July 14, considered and passed House.
+            Dec. 15, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15790,7 +21580,99 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3572/text?s=1&amp;r=93&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 253]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2895]]
+Public Law 113-253
+113th Congress
+                                 An Act
+   To revise the boundaries of certain John H. Chafee Coastal Barrier 
+     Resources System units. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 3572]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: 16 USC 3503 
+note.&gt;&gt; 
+SECTION 1. &lt;&lt;NOTE: North Carolina.&gt;&gt; REPLACEMENT OF JOHN H. CHAFEE 
+                              COASTAL BARRIER RESOURCES SYSTEM 
+                              MAPS.
+    (a) In General.--The maps subtitled ``Lea Island Complex L07''; 
+``Wrightsville Beach Unit L08, Masonboro Island Unit L09''; and 
+``Masonboro Island Unit L09'', included in the set of maps entitled 
+``John H. Chafee Coastal Barrier Resources System'' referred to in 
+section 4(a) of the Coastal Barrier Resources Act (16 U.S.C. 3503(a)) 
+and relating to certain John H. Chafee Coastal Barrier Resources System 
+units in North Carolina, are hereby replaced by other maps relating to 
+the units entitled ``Lea Island Complex L07''; ``Wrightsville Beach Unit 
+L08, Masonboro Island Unit L09''; and ``Masonboro Island Unit L09'', 
+respectively, and dated March 12, 2014.
+    (b) Availability.--The Secretary of the Interior shall keep the 
+replacement maps referred to in subsection (a) on file and available for 
+inspection in accordance with section 4(b) of the Coastal Barrier 
+Resources Act (16 U.S.C. 3503(b)).
+SEC. 2. &lt;&lt;NOTE: Rhode Island.&gt;&gt; REPLACEMENT OF JOHN H. CHAFEE 
+                    COASTAL BARRIER RESOURCES SYSTEM MAP.
+    (a) In General.--The map subtitled ``Sachuest Point Unit RI-04P, 
+Easton Beach Unit RI-05P, Almy Pond Unit RI-06, Hazards Beach Unit RI-
+07'', included in the set of maps entitled ``John H. Chafee Coastal 
+Barrier Resources System'' referred to in section 4(a) of the Coastal 
+Barrier Resources Act (16 U.S.C. 3503(a)) and relating to certain John 
+H. Chafee Coastal Barrier Resources System units in Rhode Island, is 
+hereby replaced by another map relating to the units entitled ``John H. 
+Chafee Coastal Barrier Resources System Sachuest Point Unit RI-04P, 
+Easton Beach Unit RI-05P, Almy Pond Unit RI-06, and Hazards Beach Unit 
+RI-07'' and dated September 16, 2013.
+    (b) Availability.--The Secretary of the Interior shall keep the 
+replacement map referred to in subsection (a) on file and available for 
+inspection in accordance with the provisions of section 4(b) of the 
+Coastal Barrier Resources Act (16 U.S.C. 3503(b)).
+[[Page 128 STAT. 2896]]
+SEC. 3. JOHN H. CHAFEE COASTAL BARRIER RESOURCES SYSTEM GASPARILLA 
+                    ISLAND UNIT, FLORIDA.
+    (a) In General.--The map subtitled ``Gasparilla Island Unit FL-70P'' 
+included in the set of maps entitled ``Coastal Barrier Resources 
+System'' referred to in section 4(a) of the Coastal Barrier Resources 
+Act (16 U.S.C. 3503(a)) and relating to the Gasparilla Island Unit in 
+Florida is hereby replaced by another map relating to the same unit 
+entitled ``John H. Chafee Coastal Barrier Resources System Gasparilla 
+Unit FL-70/FL-70P'', draft dated May 23, 2012.
+    (b) Availability.--The Secretary of the Interior shall keep the 
+replacement map referred to in subsection (a) on file and available for 
+inspection in accordance with section 4(b) of the Coastal Barrier 
+Resources Act (16 U.S.C. 3503(b)).
+SEC. 4. REMOVAL OF PROPERTIES IN SOUTH CAROLINA FROM JOHN H. 
+                    CHAFEE COASTAL BARRIER RESOURCES SYSTEM.
+    (a) In General.--The map subtitled ``Long Pond Unit SC-01'' included 
+in the sets of maps entitled ``Coastal Barrier Resources System'' 
+referred to in section 4(a) of the Coastal Barrier Resources Act (16 
+U.S.C. 3503(a)) and relating to the Long Pond Unit in South Carolina is 
+hereby replaced by another map relating to the same unit entitled ``John 
+H. Chafee Coastal Barrier Resources System Long Pond Unit SC-01'' dated 
+September 30, 2014.
+    (b) Availability.--The Secretary of the Interior shall keep each map 
+revised under subsection (a) on file and available for inspection in 
+accordance with section 4(b) of the Coastal Barrier Resources Act (16 
+U.S.C. 3503(b)).
+SEC. 5. REMOVAL OF PROPERTIES IN SOUTH CAROLINA FROM JOHN H. 
+                    CHAFEE COASTAL BARRIER RESOURCES SYSTEM.
+    (a) In General.--The map subtitled ``Huntington Beach Unit SC-03'' 
+included in the sets of maps entitled ``Coastal Barrier Resources 
+System'' referred to in section 4(a) of the Coastal Barrier Resources 
+Act (16 U.S.C. 3503(a)) and relating to the Huntington Beach Unit in 
+South Carolina is hereby replaced by another map relating to the same 
+unit entitled ``John H. Chafee Coastal Barrier Resources System 
+Huntington Beach Unit SC-03'' dated September 30, 2014.
+    (b) Availability.--The Secretary of the Interior shall keep each map 
+revised under subsection (a) on file and available for
+[[Page 128 STAT. 2897]]
+inspection in accordance with section 4(b) of the Coastal Barrier 
+Resources Act (16 U.S.C. 3503(b)).
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 3572:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-633 (Comm. on Natural Resources).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 1, 2, considered and passed House.
+            Dec. 15, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15832,7 +21714,398 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/1281/text?s=1&amp;r=94&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 240]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2851]]
+Public Law 113-240
+113th Congress
+                                 An Act
+  To amend the Public Health Service Act to reauthorize programs under 
+ part A of title XI of such Act. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 1281]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Newborn 
+Screening Saves Lives Reauthorization Act of 2014. 42 USC 201 note.&gt;&gt; 
+SECTION 1. SHORT TITLE; TABLE OF CONTENTS.
+    (a) Short Title.--This Act may be cited as the ``Newborn Screening 
+Saves Lives Reauthorization Act of 2014''.
+    (b) Table of Contents.--The table of contents of this Act is as 
+follows:
+Sec. 1. Short title; table of contents.
+Sec. 2. Improved newborn and child screening and followup for heritable 
+           disorders.
+Sec. 3. Evaluating the effectiveness of newborn and child screening and 
+           followup programs.
+Sec. 4. Advisory Committee on Heritable Disorders in Newborns and 
+           Children.
+Sec. 5. Clearinghouse of Newborn Screening Information.
+Sec. 6. Laboratory quality and surveillance.
+Sec. 7. Interagency Coordinating Committee on Newborn and Child 
+           Screening.
+Sec. 8. National contingency plan for newborn screening.
+Sec. 9. Hunter Kelly Research Program.
+Sec. 10. Authorization of appropriations.
+Sec. 11. Reports to Congress.
+Sec. 12. Informed consent for newborn screening research.
+SEC. 2. IMPROVED NEWBORN AND CHILD SCREENING AND FOLLOWUP FOR 
+                    HERITABLE DISORDERS.
+    Section 1109 of the Public Health Service Act (42 U.S.C. 300b-8) is 
+amended--
+            (1) in subsection (a)--
+                    (A) in the matter preceding paragraph (1)--
+                          (i) by striking ``subsection (j)'' and 
+                      inserting ``section 1117''; and
+                          (ii) by striking ``and in consultation with 
+                      the Advisory Committee'' and inserting ``and 
+                      taking into consideration the expertise of the 
+                      Advisory Committee'';
+                    (B) by amending paragraph (2) to read as follows:
+            ``(2) to assist in providing health care professionals and 
+        newborn screening laboratory personnel with education in newborn 
+        screening, counseling, and training in--
+                    ``(A) relevant and new technologies in newborn 
+                screening and congenital, genetic, and metabolic 
+                disorders;
+                    ``(B) the importance of the timeliness of 
+                collection, delivery, receipt, and screening of 
+                specimens; and
+                    ``(C) sharing of medical and diagnostic information 
+                with providers and families;'';
+                    (C) in paragraph (3), by striking ``and'' at the 
+                end;
+[[Page 128 STAT. 2852]]
+                    (D) in paragraph (4)--
+                          (i) by striking ``treatment'' and inserting 
+                      ``followup and treatment''; and
+                          (ii) by striking the period and inserting ``; 
+                      and''; and
+                    (E) by adding at the end the following:
+            ``(5) to improve the timeliness of--
+                    ``(A) the collection, delivery, receipt, and 
+                screening of specimens; and
+                    ``(B) the diagnosis of heritable disorders in 
+                newborns.'';
+            (2) in subsection (c), by striking ``application submitted 
+        for a grant under subsection (a)(1)'' and inserting 
+        ``application for a grant under this section'';
+            (3) in subsection (h), by striking ``application submitted 
+        under subsection (c)(2)'' each place it appears and inserting 
+        ``application for a grant under this section''; and
+            (4) by striking subsection (j) (relating to authorization of 
+        appropriations).
+SEC. 3. EVALUATING THE EFFECTIVENESS OF NEWBORN AND CHILD 
+                    SCREENING AND FOLLOWUP PROGRAMS.
+    Section 1110 of the Public Health Service Act (42 U.S.C. 300b-9) is 
+amended--
+            (1) in the section heading, by inserting ``and followup'' 
+        after ``child screening'';
+            (2) in subsection (a), by striking ``of screening,'' and 
+        inserting ``, including with respect to timeliness, of 
+        screening, followup,'';
+            (3) in subsection (b)--
+                    (A) in paragraph (1)--
+                          (i) by striking ``counseling, testing'' and 
+                      inserting ``treatment, counseling, testing, 
+                      followup,''; and
+                          (ii) by inserting before the semicolon the 
+                      following: ``, including, as appropriate, through 
+                      the assessment of health and development outcomes 
+                      for such children through adolescence'';
+                    (B) in paragraph (2)--
+                          (i) by striking ``counseling, testing'' and 
+                      inserting ``treatment, counseling, testing, 
+                      followup,'';
+                          (ii) by inserting ``in a timely manner'' after 
+                      ``in newborns and children''; and
+                          (iii) by striking ``or'' at the end;
+                    (C) in paragraph (3), by striking the period at the 
+                end and inserting a semicolon; and
+                    (D) by adding at the end the following:
+            ``(4) methods that may be identified to improve quality in 
+        the diagnosis, treatment, and disease management of heritable 
+        disorders based on gaps in services or care; or
+            ``(5) methods or best practices by which the eligible 
+        entities described in section 1109 can achieve in a timely 
+        manner--
+                    ``(A) collection, delivery, receipt, and screening 
+                of newborn screening specimens; and
+                    ``(B) diagnosis of heritable disorders in 
+                newborns.''; and
+            (4) by striking subsection (d) (relating to authorization of 
+        appropriations).
+[[Page 128 STAT. 2853]]
+SEC. 4. ADVISORY COMMITTEE ON HERITABLE DISORDERS IN NEWBORNS AND 
+                    CHILDREN.
+    Section 1111 of the Public Health Service Act (42 U.S.C. 300b-10) is 
+amended--
+            (1) in subsection (b)--
+                    (A) by redesignating paragraphs (4) through (6) as 
+                paragraphs (6) through (8), respectively;
+                    (B) by inserting after paragraph (3), the following:
+            ``(4) provide technical assistance, as appropriate, to 
+        individuals and organizations regarding the submission of 
+        nominations to the uniform screening panel, including prior to 
+        the submission of such nominations;
+            ``(5) take appropriate steps, at its discretion, to prepare 
+        for the review of nominations prior to their submission, 
+        including for conditions for which a screening method has been 
+        validated but other nomination criteria are not yet met, in 
+        order to facilitate timely action by the Advisory Committee once 
+        such submission has been received by the Committee;'';
+                    (C) in paragraph (6) (as so redesignated), by 
+                inserting ``, including the cost'' after ``public health 
+                impact''; and
+                    (D) in paragraph (8) (as so redesignated)--
+                          (i) in subparagraph (A), by striking ``achieve 
+                      rapid diagnosis'' and inserting ``achieve best 
+                      practices in rapid diagnosis and appropriate 
+                      treatment'';
+                          (ii) in subparagraph (D), by inserting before 
+                      the semicolon ``, including information on cost 
+                      and incidence'';
+                          (iii) in subparagraph (J), by striking ``and'' 
+                      at the end;
+                          (iv) in subparagraph (K), by striking the 
+                      period and inserting ``; and''; and
+                          (v) by adding at the end the following:
+                    ``(L) the timeliness of collection, delivery, 
+                receipt, and screening of specimens to be tested for 
+                heritable disorders in newborns in order to ensure rapid 
+                diagnosis and followup.'';
+            (2) in subsection (d)--
+                    (A) in paragraph (1)--
+                          (i) by striking ``180'' and inserting ``120''; 
+                      and
+                          (ii) &lt;&lt;NOTE: Determination. Time 
+                      period. Notification.&gt;&gt;  by adding at the end the 
+                      following: ``If the Secretary is unable to make a 
+                      determination to adopt or reject such 
+                      recommendation within such 120-day period, the 
+                      Secretary shall notify the Advisory Committee and 
+                      the appropriate committees of Congress of such 
+                      determination together with an explanation for why 
+                      the Secretary was unable to comply within such 
+                      120-day period, as well as a plan of action for 
+                      consideration of such pending recommendation.'';
+                    (B) by striking paragraph (2);
+                    (C) by redesignating paragraph (3) as paragraph (2); 
+                and
+                    (D) by adding at the end the following:
+            ``(3) Deadline for review.--For each condition nominated to 
+        be added to the recommended uniform screening panel in 
+        accordance with the requirements of this section, the Advisory 
+        Committee shall review and vote on the nominated condition 
+        within 9 months of the date on which the Advisory Committee
+[[Page 128 STAT. 2854]]
+        referred the nominated condition to the condition review 
+        workgroup.'';
+            (3) by redesignating subsections (f) and (g) as subsections 
+        (g) and (h), respectively;
+            (4) by inserting after subsection (e) the following new 
+        subsection:
+    ``(f) Meetings.--The Advisory Committee shall meet at least 4 times 
+each calendar year, or at the discretion of the Designated Federal 
+Officer in consultation with the Chair.'';
+            (5) by amending subsection (g) (as so redesignated) to read 
+        as follows:
+    ``(g) Continuation of Operation of Committee.--
+            ``(1) In general.--Notwithstanding section 14 of the Federal 
+        Advisory Committee Act, the Advisory Committee shall continue to 
+        operate through the end of fiscal year 2019.
+            ``(2) Continuation if not reauthorized.--If at the end of 
+        fiscal year 2019 the duration of the Advisory Committee has not 
+        been extended by statute, the Advisory Committee may be deemed, 
+        for purposes of the Federal Advisory Committee Act, an advisory 
+        committee established by the President or an officer of the 
+        Federal Government under section 9(a) of such Act.''; and
+            (6) by striking subsection (h) (relating to authorization of 
+        appropriations), as redesignated by paragraph (3).
+SEC. 5. CLEARINGHOUSE OF NEWBORN SCREENING INFORMATION.
+    Section 1112 of the Public Health Service Act (42 U.S.C. 300b-11) is 
+amended--
+            (1) in subsection (a)--
+                    (A) in paragraph (2), by striking ``and'' at the 
+                end;
+                    (B) in paragraph (3)--
+                          (i) by striking ``data'' and inserting 
+                      ``information''; and
+                          (ii) by striking the period at the end and 
+                      inserting a semicolon; and
+                    (C) by adding at the end the following new 
+                paragraphs:
+            ``(4) maintain current information on the number of 
+        conditions for which screening is conducted in each State; and
+            ``(5) disseminate available evidence-based guidelines 
+        related to diagnosis, counseling, and treatment with respect to 
+        conditions detected by newborn screening.'';
+            (2) in subsection (b)(4)(D), by striking ``Newborn Screening 
+        Saves Lives Act of 2008'' and inserting ``Newborn Screening 
+        Saves Lives Reauthorization Act of 2014'';
+            (3) in subsection (c)--
+                    (A) by striking ``developing the clearinghouse'' and 
+                inserting ``carrying out activities''; and
+                    (B) by striking ``clearinghouse minimizes 
+                duplication and supplements, not supplants'' and 
+                inserting ``activities minimize duplication and 
+                supplement, not supplant''; and
+            (4) by striking subsection (d) (relating to authorization of 
+        appropriations).
+SEC. 6. LABORATORY QUALITY AND SURVEILLANCE.
+    Section 1113 of the Public Health Service Act (42 U.S.C. 300b-12) is 
+amended--
+            (1) in the section heading, by inserting ``and 
+        surveillance'' before the period;
+[[Page 128 STAT. 2855]]
+            (2) in subsection (a)--
+                    (A) in the matter preceding paragraph (1), by 
+                striking ``and in consultation with the Advisory 
+                Committee'' and inserting ``and taking into 
+                consideration the expertise of the Advisory Committee''; 
+                and
+                    (B) in paragraph (1), by inserting ``timeliness for 
+                processing such tests,'' after ``newborn-screening 
+                tests,''; and
+            (3) by striking subsection (b) (relating to authorization of 
+        appropriations) and inserting the following:
+    ``(b) Surveillance Activities.--The Secretary, acting through the 
+Director of the Centers for Disease Control and Prevention, and taking 
+into consideration the expertise of the Advisory Committee on Heritable 
+Disorders in Newborns and Children established under section 1111, may 
+provide, as appropriate, for the coordination of surveillance 
+activities, including--
+            ``(1) through standardized data collection and reporting, as 
+        well as the use of electronic health records; and
+            ``(2) by promoting data sharing regarding newborn screening 
+        with State-based birth defects and developmental disabilities 
+        monitoring programs.''.
+SEC. 7. INTERAGENCY COORDINATING COMMITTEE ON NEWBORN AND CHILD 
+                    SCREENING.
+    Section 1114 of the Public Health Service Act (42 U.S.C. 300b-13) is 
+amended--
+            (1) in subsection (c), by striking ``the Administrator, the 
+        Director of the Agency for Healthcare Research and Quality,'' 
+        and inserting ``the Administrator of the Health Resources and 
+        Services Administration, the Director of the Agency for 
+        Healthcare Research and Quality, the Commissioner of Food and 
+        Drugs,''; and
+            (2) by striking subsection (e) (relating to authorization of 
+        appropriations).
+SEC. 8. NATIONAL CONTINGENCY PLAN FOR NEWBORN SCREENING.
+    Section 1115(a) of the Public Health Service Act (42 U.S.C. 300b-
+14(a)) is amended--
+            (1) by striking ``consortia'' and inserting ``consortium''; 
+        and
+            (2) &lt;&lt;NOTE: Deadline.&gt;&gt;  by adding at the end the following: 
+        ``The plan shall be updated as needed and at least every five 
+        years.''.
+SEC. 9. HUNTER KELLY RESEARCH PROGRAM.
+    Section 1116 of the Public Health Service Act (42 U.S.C. 300b-15) is 
+amended--
+            (1) in subsection (a)(1)--
+                    (A) in subparagraph (B), by striking ``; and'' and 
+                inserting a semicolon;
+                    (B) by redesignating subparagraph (C) as 
+                subparagraph (E); and
+                    (C) by inserting after subparagraph (B) the 
+                following:
+                    ``(C) providing research findings and data for 
+                newborn conditions under review by the Advisory 
+                Committee on Heritable Disorders in Newborns and 
+                Children to be added to the recommended uniform 
+                screening panel;
+                    ``(D) conducting pilot studies on conditions 
+                recommended by the Advisory Committee on Heritable 
+                Disorders in Newborns and Children to ensure that 
+                screenings are ready for nationwide implementation; 
+                and''; and
+[[Page 128 STAT. 2856]]
+            (2) in subsection (c), by striking ``of the National 
+        Institutes of Health Reform Act of 2006''.
+SEC. 10. AUTHORIZATION OF APPROPRIATIONS.
+    Part A of title XI of the Public Health Service Act (42 U.S.C. 300b-
+1 et seq.) is amended by adding at the end, the following:
+``SEC. 1117. &lt;&lt;NOTE: 42 USC 300b-16.&gt;&gt;  AUTHORIZATION OF 
+                          APPROPRIATIONS FOR NEWBORN SCREENING 
+                          PROGRAMS AND ACTIVITIES.
+    ``There are authorized to be appropriated--
+            ``(1) to carry out sections 1109, 1110, 1111, and 1112, 
+        $11,900,000 for each of fiscal years 2015 through 2019; and
+            ``(2) to carry out section 1113, $8,000,000 for each of 
+        fiscal years 2015 through 2019.''.
+SEC. 11. REPORTS TO CONGRESS.
+    (a) GAO Report on Timeliness of Newborn Screening.--
+            (1) In general.--Not later than 2 years after the date of 
+        enactment of this Act, the Comptroller General of the United 
+        States shall submit a report to the Committee on Health, 
+        Education, Labor, and Pensions of the Senate and the Committee 
+        on Energy and Commerce of the House of Representatives 
+        concerning the timeliness of screening for heritable disorders 
+        in newborns.
+            (2) Contents.--The report submitted under paragraph (1) 
+        shall include the following:
+                    (A) An analysis of information regarding the 
+                timeliness of newborn screening, which may include the 
+                time elapsed from birth to specimen collection, specimen 
+                collection to receipt by laboratory, specimen receipt to 
+                reporting, reporting to followup testing, and followup 
+                testing to confirmed diagnosis.
+                    (B) A summary of any guidelines, recommendations, or 
+                best practices available to States and health care 
+                providers intended to support a timely newborn screening 
+                system.
+                    (C) An analysis of any barriers to maintaining a 
+                timely newborn screening system which may exist and 
+                recommendations for addressing such barriers.
+    (b) &lt;&lt;NOTE: 42 USC 300b-17.&gt;&gt;  Report by Secretary.--
+            (1) In general.--The Secretary of Health and Human Services 
+        shall--
+                    (A) not later than 1 year after the date of 
+                enactment of this Act, submit to the Committee on 
+                Health, Education, Labor, and Pensions of the Senate and 
+                the Committee on Energy and Commerce of the House of 
+                Representatives a report on activities related to--
+                          (i) newborn screening; and
+                          (ii) screening children who have or are at 
+                      risk for heritable disorders; and
+                    (B) not less than every 2 years, submit to such 
+                committees an updated version of such report.
+            (2) Contents.--The report submitted under this subsection 
+        shall contain a description of--
+                    (A) the ongoing activities under sections 1109, 
+                1110, and 1112 through 1115 of the Public Health Service 
+                Act; and
+                    (B) the amounts expended on such activities.
+[[Page 128 STAT. 2857]]
+SEC. 12. &lt;&lt;NOTE: 42 USC 289 note.&gt;&gt;  INFORMED CONSENT FOR NEWBORN 
+                      SCREENING RESEARCH.
+    (a) In General.--Research on newborn dried blood spots shall be 
+considered research carried out on human subjects meeting the definition 
+of section 46.102(f)(2) of title 45, Code of Federal Regulations, for 
+purposes of Federally funded research conducted pursuant to the Public 
+Health Service Act until such time as updates to the Federal Policy for 
+the Protection of Human Subjects (the Common Rule) are promulgated 
+pursuant to subsection (c). For purposes of this subsection, sections 
+46.116(c) and 46.116(d) of title 45, Code of Federal Regulations, shall 
+not apply.
+    (b) &lt;&lt;NOTE: Applicability.&gt;&gt;  Effective Date.--Subsection (a) shall 
+apply only to newborn dried blood spots used for purposes of Federally 
+funded research that were collected not earlier than 90 days after the 
+date of enactment of this Act.
+    (c) &lt;&lt;NOTE: Deadlines.&gt;&gt;  Regulations.--Not later than 6 months 
+after the date of enactment of this Act, the Secretary of Health and 
+Human Services shall promulgate proposed regulations related to the 
+updating of the Federal Policy for the Protection of Human Subjects (the 
+Common Rule), particularly with respect to informed consent. Not later 
+than 2 years after such date of enactment, the Secretary shall 
+promulgate final regulations based on such proposed regulations.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 1281:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-478 (Comm. on Energy and Commerce).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            June 24, considered and passed House.
+            Dec. 8, considered and passed Senate, amended.
+            Dec. 10, House concurred in Senate amendment.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15874,7 +22147,28 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/senate-bill/1474/text?s=1&amp;r=95&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 275]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2988]]
+Public Law 113-275
+113th Congress
+                                 An Act
+   To amend the Violence Against Women Reauthorization Act of 2013 to 
+      repeal a special rule for the State of Alaska, and for other 
+             purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [S. 1474]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+REPEAL OF SPECIAL RULE FOR STATE OF ALASKA.
+    Section 910 of the Violence Against Women Reauthorization Act of 
+2013 (18 U.S.C. 2265 note; Public Law 113-4) is repealed.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--S. 1474:
+---------------------------------------------------------------------------
+SENATE REPORTS: No. 113-260 (Comm. on Indian Affairs).
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 9, considered and passed Senate.
+            Dec. 11, considered and passed House.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15916,7 +22210,352 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/2640/text?s=1&amp;r=96&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 244]
+[From the U.S. Government Publishing Office]
+[[Page 2863]]
+     CROOKED RIVER COLLABORATIVE WATER SECURITY AND JOBS ACT OF 2014
+[[Page 128 STAT. 2864]]
+Public Law 113-244
+113th Congress
+                                 An Act
+  To amend the Wild and Scenic Rivers Act to adjust the Crooked River 
+boundary, to provide water certainty for the City of Prineville, Oregon, 
+     and for other purposes. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 2640]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Crooked River 
+Collaborative Water Security and Jobs Act of 2014. 16 USC 1271 note.&gt;&gt; 
+SECTION 1. SHORT TITLE.
+    This Act may be cited as the ``Crooked River Collaborative Water 
+Security and Jobs Act of 2014''.
+SEC. 2. WILD AND SCENIC RIVER; CROOKED, OREGON.
+    Section 3(a) of the Wild and Scenic Rivers Act (16 U.S.C. 1274(a)) 
+is amended by striking paragraph (72) and inserting the following:
+            ``(72) Crooked, oregon.--
+                    ``(A) In general.--The 14.75-mile segment from the 
+                National Grassland boundary to Dry Creek, to be 
+                administered by the Secretary of the Interior in the 
+                following classes:
+                          ``(i) The 7-mile segment from the National 
+                      Grassland boundary to River Mile 8 south of Opal 
+                      Spring, as a recreational river.
+                          ``(ii) The 7.75-mile segment from a point \1/
+                      4\-mile downstream from the center crest of Bowman 
+                      Dam, as a recreational river.
+                    ``(B) &lt;&lt;NOTE: Contracts. Consultation.&gt;&gt;  
+                Hydropower.--In any license or lease of power privilege 
+                application relating to non-Federal hydropower 
+                development (including turbines and appurtenant 
+                facilities) at Bowman Dam, the applicant, in 
+                consultation with the Director of the Bureau of Land 
+                Management, shall--
+                          ``(i) analyze any impacts to the scenic, 
+                      recreational, and fishery resource values of the 
+                      Crooked River from the center crest of Bowman Dam 
+                      to a point \1/4\-mile downstream that may be 
+                      caused by the proposed hydropower development, 
+                      including the future need to undertake routine and 
+                      emergency repairs;
+                          ``(ii) propose measures to minimize and 
+                      mitigate any impacts analyzed under clause (i); 
+                      and
+                          ``(iii) propose designs and measures to ensure 
+                      that any access facilities associated with 
+                      hydropower development at Bowman Dam shall not 
+                      impede the free-flowing nature of the Crooked 
+                      River below Bowman Dam.''.
+[[Page 128 STAT. 2865]]
+SEC. 3. &lt;&lt;NOTE: 43 USC 615i.&gt;&gt;  CITY OF PRINEVILLE WATER SUPPLY.
+    Section 4 of the Act of August 6, 1956 (70 Stat. 1058; 73 Stat. 554; 
+78 Stat. 954) is amended--
+            (1) by striking ``sec. 4. In order'' and inserting the 
+        following:
+``SEC. 4. CITY OF PRINEVILLE WATER SUPPLY.
+    ``(a) In General.--In order'';
+            (2) in subsection (a) (as so designated), by striking 
+        ``during those months'' and all that follows through ``purpose 
+        of the project''; and
+            (3) by adding at the end the following:
+    ``(b) Annual Release.--
+            ``(1) &lt;&lt;NOTE: Effective date.&gt;&gt;  In general.--Without 
+        further action by the Secretary of the Interior, beginning on 
+        the date of enactment of the Crooked River Collaborative Water 
+        Security and Jobs Act of 2014, 5,100 acre-feet of water shall be 
+        annually released from the project to serve as mitigation for 
+        City of Prineville groundwater pumping, pursuant to and in a 
+        manner consistent with Oregon State law, including any shaping 
+        of the release of the water.
+            ``(2) Payments.--The City of Prineville shall make payments 
+        to the Secretary of the Interior for the water released under 
+        paragraph (1), in accordance with applicable Bureau of 
+        Reclamation policies, directives, and standards.
+    ``(c) Additional Quantities.--Consistent with the National 
+Environmental Policy Act of 1969 (42 U.S.C. 4321 et seq.), the 
+Endangered Species Act of 1973 (16 U.S.C. 1531 et seq.), and other 
+applicable Federal laws, the Secretary of the Interior may contract 
+exclusively with the City of Prineville for additional quantities of 
+water, at the request of the City of Prineville.''.
+SEC. 4. ADDITIONAL PROVISIONS.
+    The Act of August 6, 1956 (70 Stat. 1058; 73 Stat. 554; 78 Stat. 
+954), is amended by adding at the end the following:
+``SEC. 6. FIRST FILL STORAGE AND RELEASE.
+    ``(a) In General.--Other than the 10 cubic feet per second release 
+provided for in section 4, and subject to compliance with the flood 
+curve requirements of the Corps of Engineers, the Secretary shall, on a 
+`first fill' priority basis, store in and when called for in any year 
+release from Prineville Reservoir, whether from carryover, infill, or a 
+combination of both, the following:
+            ``(1) Not more than 68,273 acre-feet of water annually to 
+        fulfill all 16 Bureau of Reclamation contracts existing as of 
+        January 1, 2011.
+            ``(2) Not more than 2,740 acre-feet of water annually to 
+        supply the McKay Creek land, in accordance with section 5 of the 
+        Crooked River Collaborative Water Security and Jobs Act of 2014.
+            ``(3) Not more than 10,000 acre-feet of water annually, to 
+        be made available first to the North Unit Irrigation District, 
+        and subsequently to any other holders of Reclamation contracts 
+        existing as of January 1, 2011 (in that order) pursuant to 
+        Temporary Water Service Contracts, on the request of the North 
+        Unit Irrigation District or the contract holders, consistent 
+        with the same terms and conditions as prior such contracts 
+        between the Bureau of Reclamation and District or contract 
+        holders, as applicable.
+[[Page 128 STAT. 2866]]
+            ``(4) Not more than 5,100 acre-feet of water annually to 
+        mitigate the City of Prineville groundwater pumping under 
+        section 4, with the release of this water to occur not based on 
+        an annual call, but instead pursuant to section 4 and the 
+        release schedule developed pursuant to section 7(b).
+    ``(b) Carryover.--Except for water that may be called for and 
+released after the end of the irrigation season (either as City of 
+Prineville groundwater pumping mitigation or as a voluntary release, in 
+accordance with section 4 of this Act and section 6(c) of the Crooked 
+River Collaborative Water Security and Jobs Act of 2014, respectively), 
+any water stored under this section that is not called for and released 
+by the end of the irrigation season in a given year shall be--
+            ``(1) &lt;&lt;NOTE: Time period.&gt;&gt;  carried over to the subsequent 
+        water year, which, for accounting purposes, shall be considered 
+        to be the 1-year period beginning October 1 and ending September 
+        30, consistent with Oregon State law; and
+            ``(2) accounted for as part of the `first fill' storage 
+        quantities of the subsequent water year, but not to exceed the 
+        maximum `first fill' storage quantities described in subsection 
+        (a).
+``SEC. 7. STORAGE AND RELEASE OF REMAINING STORED WATER 
+                    QUANTITIES.
+    ``(a) Authorization.--
+            ``(1) In general.--The Secretary shall store in and release 
+        from Prineville Reservoir sufficient quantities of remaining 
+        stored quantities to be released pursuant to the annual release 
+        schedule under subsection (b) and to provide instream flows 
+        consistent, to the maximum extent practicable, with the 
+        recommendations for in-channel strategies in the plan prepared 
+        by the Northwest Power and Conservation Council entitled 
+        `Deschutes Subbasin Plan' and dated March 24, 2005, for flow 
+        between Bowman Dam and Lake Billy Chinook.
+            ``(2) Requirements.--In calculating the quantity of released 
+        water under paragraph (1), the Secretary shall--
+                    ``(A) &lt;&lt;NOTE: Compliance.&gt;&gt;  comply with the flood 
+                curve requirements of the Corps of Engineers; and
+                    ``(B) credit toward the requirements of paragraph 
+                (1) the instream flow benefits provided by--
+                          ``(i) the quantities released under section 4;
+                          ``(ii) the `first fill' quantities released 
+                      under section 6; and
+                          ``(iii) any quantities released to comply with 
+                      the flood curve requirements of the Corps of 
+                      Engineers.
+            ``(3) Use of uncontracted water.--If a consultation 
+        conducted under the Endangered Species Act of 1973 (16 U.S.C. 
+        1531 et seq.) or an order of a court in a proceeding under that 
+        Act requires releases of stored water from Prineville Reservoir 
+        for fish and wildlife downstream of Bowman Dam, the Secretary 
+        shall use uncontracted water under paragraph (1).
+            ``(4) State water law.--All releases and downstream uses 
+        authorized under paragraph (1) shall be in accordance with 
+        Oregon State water law.
+    ``(b) &lt;&lt;NOTE: Consultation.&gt;&gt;  Annual Release Schedule.--The 
+Commissioner of Reclamation, in consultation with the Assistant 
+Administrator of Fisheries of the National Marine Fisheries Service and 
+the Director of the United States Fish and Wildlife Service, shall 
+develop annual
+[[Page 128 STAT. 2867]]
+release schedules for the remaining stored water quantities (including 
+the quantities described in subsection (a) and the water serving as 
+mitigation for City of Prineville groundwater pumping pursuant to 
+section 4) that maximizes, to the maximum extent practicable, benefits 
+to downstream fish and wildlife.
+    ``(c) Carryover.--Any water stored under subsection (a) in 1 water 
+year that is not released during the water year--
+            ``(1) shall be carried over to the subsequent water year; 
+        and
+            ``(2)(A) may be released for downstream fish and wildlife 
+        resources, consistent with subsection (b), until the reservoir 
+        reaches maximum capacity in the subsequent water year; and
+            ``(B) once the reservoir reaches maximum capacity under 
+        subparagraph (A), shall be credited to the `first fill' storage 
+        quantities, but not to exceed the maximum `first fill' storage 
+        quantities described in section 6(a).
+    ``(d) Effect.--Nothing in this section affects the authority of the 
+Commissioner of Reclamation to perform all other traditional and routine 
+activities associated with the Crooked River Project.
+``SEC. 8. RESERVOIR LEVELS.
+    ``The Commissioner of Reclamation shall--
+            ``(1) project reservoir water levels over the course of the 
+        year; and
+            ``(2) make the projections under paragraph (1) available 
+        to--
+                    ``(A) &lt;&lt;NOTE: Public information.&gt;&gt;  the public 
+                (including fisheries groups, recreation interests, and 
+                municipal and irrigation stakeholders);
+                    ``(B) the Assistant Administrator of Fisheries of 
+                the National Marine Fisheries Service; and
+                    ``(C) the Director of the United States Fish and 
+                Wildlife Service.
+``SEC. 9. EFFECT.
+    ``Except as otherwise provided in this Act, nothing in this Act--
+            ``(1) modifies contractual rights that may exist between 
+        contractors and the United States under Reclamation contracts;
+            ``(2) amends or reopens contracts referred to in paragraph 
+        (1); or
+            ``(3) modifies any rights, obligations, or requirements that 
+        may be provided or governed by Federal or Oregon State law.''.
+SEC. 5. OCHOCO IRRIGATION DISTRICT.
+    (a) Early Repayment.--
+            (1) In general.--Notwithstanding section 213 of the 
+        Reclamation Reform Act of 1982 (43 U.S.C. 390mm), any landowner 
+        within Ochoco Irrigation District, Oregon (referred to in this 
+        section as the ``district''), may repay, at any time, the 
+        construction costs of the project facilities allocated to the 
+        land of the landowner within the district.
+            (2) Exemption from limitations.--Upon discharge, in full, of 
+        the obligation for repayment of the construction costs allocated 
+        to all land of the landowner in the district, the land shall not 
+        be subject to the ownership and full-cost pricing limitations of 
+        Federal reclamation law (the Act of June 17, 1902 (32 Stat. 388, 
+        chapter 1093), and Acts supplemental to and amendatory of that 
+        Act (43 U.S.C. 371 et seq.)).
+[[Page 128 STAT. 2868]]
+    (b) Certification.--Upon the request of a landowner who has repaid, 
+in full, the construction costs of the project facilities allocated to 
+the land of the landowner within the district, the Secretary of the 
+Interior shall provide the certification described in section 213(b)(1) 
+of the Reclamation Reform Act of 1982 (43 U.S.C. 390mm(b)(1)).
+    (c) Contract Amendment.--On approval of the district directors and 
+notwithstanding project authorizing authority to the contrary, the 
+Reclamation contracts of the district are modified, without further 
+action by the Secretary of the Interior--
+            (1) to authorize the use of water for instream purposes, 
+        including fish or wildlife purposes, in order for the district 
+        to engage in, or take advantage of, conserved water projects and 
+        temporary instream leasing as authorized by Oregon State law;
+            (2) to include within the district boundary approximately 
+        2,742 acres in the vicinity of McKay Creek, resulting in a total 
+        of approximately 44,937 acres within the district boundary;
+            (3) to classify as irrigable approximately 685 acres within 
+        the approximately 2,742 acres of included land in the vicinity 
+        of McKay Creek, with those approximately 685 acres authorized to 
+        receive irrigation water pursuant to water rights issued by the 
+        State of Oregon if the acres have in the past received water 
+        pursuant to State water rights; and
+            (4) to provide the district with stored water from 
+        Prineville Reservoir for purposes of supplying up to the 
+        approximately 685 acres of land added within the district 
+        boundary and classified as irrigable under paragraphs (2) and 
+        (3), with the stored water to be supplied on an acre-per-acre 
+        basis contingent on the transfer of existing appurtenant McKay 
+        Creek water rights to instream use and the issuance of water 
+        rights by the State of Oregon for the use of stored water.
+    (d) Limitation.--Except as otherwise provided in subsections (a) and 
+(c), nothing in this section--
+            (1) modifies contractual rights that may exist between the 
+        district and the United States under the Reclamation contracts 
+        of the district;
+            (2) amends or reopens the contracts referred to in paragraph 
+        (1); or
+            (3) modifies any rights, obligations, or relationships that 
+        may exist between the district and any owner of land within the 
+        district, as may be provided or governed by Federal or Oregon 
+        State law.
+SEC. 6. DRY-YEAR MANAGEMENT PLANNING AND VOLUNTARY RELEASES.
+    (a) Participation in Dry-year Management Planning Meetings.--The 
+Bureau of Reclamation &lt;&lt;NOTE: Native Americans.&gt;&gt;  shall participate in 
+dry-year management planning meetings with the State of Oregon, the 
+Confederated Tribes of the Warm Springs Reservation of Oregon, 
+municipal, agricultural, conservation, recreation, and other interested 
+stakeholders to plan for dry-year conditions.
+    (b) Dry-year Management Plan.--
+            (1) &lt;&lt;NOTE: Deadlines.&gt;&gt;  In general.--Not later than 3 
+        years after the date of enactment of this Act, the Bureau of 
+        Reclamation shall
+[[Page 128 STAT. 2869]]
+        develop a dry-year management plan in coordination with the 
+        participants referred to in subsection (a).
+            (2) Requirements.--The plan developed under paragraph (1) 
+        shall only recommend strategies, measures, and actions that the 
+        irrigation districts and other Bureau of Reclamation contract 
+        holders voluntarily agree to implement.
+            (3) Limitations.--Nothing in the plan developed under 
+        paragraph (1) shall be mandatory or self-implementing.
+    (c) &lt;&lt;NOTE: Contracts. Deadline.&gt;&gt;  Voluntary Release.--In any year, 
+if North Unit Irrigation District or other eligible Bureau of 
+Reclamation contract holders have not initiated contracting with the 
+Bureau of Reclamation for any quantity of the 10,000 acre feet of water 
+described in subsection (a)(3) of section 6 of the Act of August 6, 1956 
+(70 Stat. 1058) (as added by section 4), by June 1 of any calendar year, 
+with the voluntary agreement of North Unit Irrigation District and other 
+Bureau of Reclamation contract holders referred to in that paragraph, 
+the Secretary may release that quantity of water for the benefit of 
+downstream fish and wildlife as described in section 7 of that Act.
+SEC. 7. HYDROPOWER DECISION.
+    Not &lt;&lt;NOTE: Deadline. Determination.&gt;&gt;  later than 3 years after the 
+date of enactment of this Act, the Commissioner of Reclamation shall 
+determine the applicability of the jurisdiction of the Commissioner of 
+Reclamation to non-Federal hydropower development pursuant to--
+            (1) the Memorandum of Understanding between the Federal 
+        Energy Regulatory Commission and the Bureau of Reclamation, 
+        Department of the Interior, entitled ``Establishment of 
+        Processes for the Early Resolution of Issues Related to the 
+        Timely Development of Non-Federal Hydroelectric power at the 
+        Bureau of Reclamation Facilities'' and signed November 6, 1992 
+        (58 Fed. Reg. 3269); or
+            (2) any memorandum of understanding that is subsequent or 
+        related to the memorandum of understanding described in 
+        paragraph (1).
+SEC. 8. &lt;&lt;NOTE: 16 USC 1274 note.&gt;&gt;  RELATION TO EXISTING LAWS AND 
+                    STATUTORY OBLIGATIONS.
+    Nothing in this Act (or an amendment made by this Act)--
+            (1) provides to the Secretary the authority to store and 
+        release the ``first fill'' quantities provided for in section 6 
+        of the Act of August 6, 1956 (70 Stat. 1058) (as added by 
+        section 4) for any purposes other than the purposes provided for 
+        in that section, except for--
+                    (A) the potential instream use resulting from 
+                conserved water projects and temporary instream leasing 
+                as provided for in section 5(c)(1);
+                    (B) the potential release of additional amounts that 
+                may result from voluntary actions agreed to through the 
+                dry-year management plan developed under section 6(b); 
+                and
+                    (C) the potential release of the 10,000 acre feet 
+                for downstream fish and wildlife as provided for in 
+                section 6(c); or
+[[Page 128 STAT. 2870]]
+            (2) alters any responsibilities under Oregon State law or 
+        Federal law, including section 7 of the Endangered Species Act 
+        (16 U.S.C. 1536).
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 2640:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-224 (Comm. on Natural Resources).
+CONGRESSIONAL RECORD:
+                                                        Vol. 159 (2013):
+                                    Oct. 29, considered and passed 
+                                        House.
+                                                        Vol. 160 (2014):
+                                    Dec. 11, considered and passed 
+                                        Senate, amended. House concurred 
+                                        in Senate amendment.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -15958,7 +22597,42 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/3096/text?s=1&amp;r=97&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 249]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2885]]
+Public Law 113-249
+113th Congress
+                                 An Act
+      To designate the building occupied by the Federal Bureau of 
+   Investigation located at 801 Follin Lane, Vienna, Virginia, as the 
+  ``Michael D. Resnick Terrorist Screening Center''. &lt;&lt;NOTE: Dec. 18, 
+                         2014 -  [H.R. 3096]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. DESIGNATION.
+    The building occupied by the Federal Bureau of Investigation located 
+at 801 Follin Lane, Vienna, Virginia, shall be known and designated as 
+the ``Michael D. Resnick Terrorist Screening Center'' during the period 
+in which the building is occupied by the Federal Bureau of 
+Investigation.
+SEC. 2. REFERENCES.
+    During the period in which the building referred to in section 1 is 
+occupied by the Federal Bureau of Investigation, any reference in a law, 
+map, regulation, document, paper, or other record of the United States 
+to that building shall be deemed to be a reference to the ``Michael D. 
+Resnick Terrorist Screening Center''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 3096:
+---------------------------------------------------------------------------
+HOUSE REPORTS: No. 113-235 (Comm. on Transportation and Infrastructure).
+CONGRESSIONAL RECORD:
+                                                        Vol. 159 (2013):
+                                    Sept. 27, considered and passed 
+                                        House.
+                                                        Vol. 160 (2014):
+                                    Dec. 11, considered and passed 
+                                        Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -16000,7 +22674,33 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5687/text?s=1&amp;r=98&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 268]
+[From the U.S. Government Publishing Office]
+[[Page 128 STAT. 2946]]
+Public Law 113-268
+113th Congress
+                                 An Act
+To designate the facility of the United States Postal Service located at 
+   101 East Market Street in Long Beach, California, as the ``Juanita 
+    Millender-McDonald Post Office''. &lt;&lt;NOTE: Dec. 18, 2014 -  [H.R. 
+                                5687]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled,
+SECTION 1. JUANITA MILLENDER-MCDONALD POST OFFICE.
+    (a) Designation.--The facility of the United States Postal Service 
+located at 101 East Market Street in Long Beach, California, shall be 
+known and designated as the ``Juanita Millender-McDonald Post Office''.
+    (b) References.--Any reference in a law, map, regulation, document, 
+paper, or other record of the United States to the facility referred to 
+in section 1 shall be deemed to be a reference to the ``Juanita 
+Millender-McDonald Post Office''.
+    Approved December 18, 2014.
+LEGISLATIVE HISTORY--H.R. 5687:
+---------------------------------------------------------------------------
+CONGRESSIONAL RECORD, Vol. 160 (2014):
+            Dec. 8, considered and passed House.
+            Dec. 15, considered and passed Senate.
+                                  &lt;all&gt;</t>
         </is>
       </c>
     </row>
@@ -16042,7 +22742,537 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Bill Text could not be parsed, link: https://www.congress.gov/bill/113th-congress/house-bill/5859/text?s=1&amp;r=99&amp;q=%7B%22search%22%3A%22congressId%3A113+AND+billStatus%3A%5C%22Introduced%5C%22%22%7D</t>
+          <t>[113th Congress Public Law 272]
+[From the U.S. Government Publishing Office]
+[[Page 2951]]
+                   UKRAINE FREEDOM SUPPORT ACT OF 2014
+[[Page 128 STAT. 2952]]
+Public Law 113-272
+113th Congress
+                                 An Act
+ To impose sanctions with respect to the Russian Federation, to provide 
+ additional assistance to Ukraine, and for other purposes. &lt;&lt;NOTE: Dec. 
+                       18, 2014 -  [H.R. 5859]&gt;&gt; 
+    Be it enacted by the Senate and House of Representatives of the 
+United States of America in Congress assembled, &lt;&lt;NOTE: Ukraine Freedom 
+Support Act of 2014.&gt;&gt; 
+SECTION 1. SHORT TITLE; TABLE OF CONTENTS.
+    (a) &lt;&lt;NOTE: 22 USC 8921 note.&gt;&gt;  Short Title.--This Act may be cited 
+as the ``Ukraine Freedom Support Act of 2014''.
+    (b) Table of Contents.--The table of contents for this Act is as 
+follows:
+Sec. 1. Short title; table of contents.
+Sec. 2. Definitions.
+Sec. 3. Statement of policy regarding Ukraine.
+Sec. 4. Sanctions relating to the defense and energy sectors of the 
+           Russian Federation.
+Sec. 5. Sanctions on Russian and other foreign financial institutions.
+Sec. 6. Increased military assistance for the Government of Ukraine.
+Sec. 7. Expanded nonmilitary assistance for Ukraine.
+Sec. 8. Expanded broadcasting in countries of the former Soviet Union.
+Sec. 9. Support for Russian democracy and civil society organizations.
+Sec. 10. Report on non-compliance by the Russian Federation of its 
+           obligations under the INF Treaty.
+Sec. 11. Rule of construction.
+SEC. 2. &lt;&lt;NOTE: 22 USC 8921.&gt;&gt;  DEFINITIONS.
+    In this Act:
+            (1) Account; correspondent account; payable-through 
+        account.--The terms ``account'', ``correspondent account'', and 
+        ``payable-through account'' have the meanings given those terms 
+        in section 5318A of title 31, United States Code.
+            (2) Appropriate congressional committees.--The term 
+        ``appropriate congressional committees'' means--
+                    (A) the Committee on Foreign Relations and the 
+                Committee on Banking, Housing, and Urban Affairs of the 
+                Senate; and
+                    (B) the Committee on Foreign Affairs and the 
+                Committee on Financial Services of the House of 
+                Representatives.
+            (3) Defense article; defense service; training.--The terms 
+        ``defense article'', ``defense service'', and ``training'' have 
+        the meanings given those terms in section 47 of the Arms Export 
+        Control Act (22 U.S.C. 2794).
+            (4) Financial institution.--The term ``financial 
+        institution'' means a financial institution specified in 
+        subparagraph (A), (B), (C), (D), (E), (F), (G), (H), (I), (J), 
+        (M), or (Y) of section 5312(a)(2) of title 31, United States 
+        Code.
+[[Page 128 STAT. 2953]]
+            (5) Foreign financial institution.--The term ``foreign 
+        financial institution'' has the meaning given that term in 
+        section 561.308 of title 31, Code of Federal Regulations (or any 
+        corresponding similar regulation or ruling).
+            (6) Foreign person.--The term ``foreign person'' means any 
+        individual or entity that is not a United States citizen, a 
+        permanent resident alien, or an entity organized under the laws 
+        of the United States or any jurisdiction within the United 
+        States.
+            (7) Knowingly.--The term ``knowingly'', with respect to 
+        conduct, a circumstance, or a result, means that a person has 
+        actual knowledge, or should have known, of the conduct, the 
+        circumstance, or the result.
+            (8) Russian person.--The term ``Russian person'' means--
+                    (A) an individual who is a citizen or national of 
+                the Russian Federation; or
+                    (B) an entity organized under the laws of the 
+                Russian Federation.
+            (9) Special russian crude oil project.--The term ``special 
+        Russian crude oil project'' means a project intended to extract 
+        crude oil from--
+                    (A) the exclusive economic zone of the Russian 
+                Federation in waters more than 500 feet deep;
+                    (B) Russian Arctic offshore locations; or
+                    (C) shale formations located in the Russian 
+                Federation.
+SEC. 3. &lt;&lt;NOTE: 22 USC 8922.&gt;&gt;  STATEMENT OF POLICY REGARDING 
+                    UKRAINE.
+    It is the policy of the United States to further assist the 
+Government of Ukraine in restoring its sovereignty and territorial 
+integrity to deter the Government of the Russian Federation from further 
+destabilizing and invading Ukraine and other independent countries in 
+Central and Eastern Europe, the Caucasus, and Central Asia. That policy 
+shall be carried into effect, among other things, through a 
+comprehensive effort, in coordination with allies and partners of the 
+United States where appropriate, that includes economic sanctions, 
+diplomacy, assistance for the people of Ukraine, and the provision of 
+military capabilities to the Government of Ukraine that will enhance the 
+ability of that Government to defend itself and to restore its 
+sovereignty and territorial integrity in the face of unlawful actions by 
+the Government of the Russian Federation.
+SEC. 4. &lt;&lt;NOTE: President. 22 USC 8923.&gt;&gt;  SANCTIONS RELATING TO 
+                    THE DEFENSE AND ENERGY SECTORS OF THE RUSSIAN 
+                    FEDERATION.
+    (a) &lt;&lt;NOTE: Deadlines.&gt;&gt;  Sanctions Relating to the Defense 
+Sector.--
+            (1) Rosoboronexport.--Except as provided in subsection (d), 
+        not later than 30 days after the date of the enactment of this 
+        Act, the President shall impose 3 or more of the sanctions 
+        described in subsection (c) with respect to Rosoboronexport.
+            (2) Russian producers, transferors, or brokers of defense 
+        articles. &lt;&lt;NOTE: Determination.&gt;&gt; --Except as provided in 
+        subsection (d), on and after the date that is 45 days after the 
+        date of the enactment of this Act, the President shall impose 3 
+        or more of the sanctions described in subsection (c) with 
+        respect to a foreign person the President determines--
+                    (A) is an entity--
+[[Page 128 STAT. 2954]]
+                          (i) owned or controlled by the Government of 
+                      the Russian Federation or owned or controlled by 
+                      nationals of the Russian Federation; and
+                          (ii) that--
+                                    (I) knowingly manufactures or sells 
+                                defense articles transferred into Syria 
+                                or into the territory of a specified 
+                                country without the consent of the 
+                                internationally recognized government of 
+                                that country;
+                                    (II) transfers defense articles into 
+                                Syria or into the territory of a 
+                                specified country without the consent of 
+                                the internationally recognized 
+                                government of that country; or
+                                    (III) brokers or otherwise assists 
+                                in the transfer of defense articles into 
+                                Syria or into the territory of a 
+                                specified country without the consent of 
+                                the internationally recognized 
+                                government of that country; or
+                    (B) knowingly, on or after the date of the enactment 
+                of this Act, assists, sponsors, or provides financial, 
+                material, or technological support for, or goods or 
+                services to or in support of, an entity described in 
+                subparagraph (A) with respect to an activity described 
+                in clause (ii) of that subparagraph.
+            (3) Specified country defined.--
+                    (A) In general.--In this subsection, the term 
+                ``specified country'' means--
+                          (i) Ukraine, Georgia, and Moldova; and
+                          (ii) any other country designated by the 
+                      President as a country of significant concern for 
+                      purposes of this subsection, such as Poland, 
+                      Lithuania, Latvia, Estonia, and the Central Asia 
+                      republics.
+                    (B) &lt;&lt;NOTE: Deadline.&gt;&gt;  Notice to congress.--The 
+                President shall notify the appropriate congressional 
+                committees in writing not later than 15 days before--
+                          (i) designating a country as a country of 
+                      significant concern under subparagraph (A)(ii); or
+                          (ii) terminating a designation under that 
+                      subparagraph, including the termination of any 
+                      such designation pursuant to subsection (h).
+    (b) &lt;&lt;NOTE: Deadlines.&gt;&gt;  Sanctions Related to the Energy Sector.--
+            (1) Development of special russian crude oil projects.--
+        Except as provided in subsection (d), on and after the date that 
+        is 45 days after the date of the enactment of this Act, the 
+        President may impose 3 or more of the sanctions described in 
+        subsection (c) with respect to a foreign person if the President 
+        determines that the foreign person knowingly makes a significant 
+        investment in a special Russian crude oil project.
+            (2) Authorization for extension of licensing limitations on 
+        certain equipment.--The President, through the Bureau of 
+        Industry and Security of the Department of Commerce or the 
+        Office of Foreign Assets Control of the Department of the 
+        Treasury, as appropriate, may impose additional licensing 
+        requirements for or other restrictions on the export or reexport 
+        of items for use in the energy sector of the Russian Federation, 
+        including equipment used for tertiary oil recovery.
+[[Page 128 STAT. 2955]]
+            (3) &lt;&lt;NOTE: Determination.&gt;&gt;  Contingent sanction relating 
+        to gazprom.--If the President determines that Gazprom is 
+        withholding significant natural gas supplies from member 
+        countries of the North Atlantic Treaty Organization, or further 
+        withholds significant natural gas supplies from countries such 
+        as Ukraine, Georgia, or Moldova, the President shall, not later 
+        than 45 days after making that determination, impose the 
+        sanction described in subsection (c)(7) and at least one 
+        additional sanction described in subsection (c) with respect to 
+        Gazprom.
+    (c) Sanctions Described.--The sanctions the President may impose 
+with respect to a foreign person under subsection (a) or (b) are the 
+following:
+            (1) Export-import bank assistance.--The President may direct 
+        the Export-Import Bank of the United States not to approve the 
+        issuance of any guarantee, insurance, extension of credit, or 
+        participation in the extension of credit in connection with the 
+        export of any goods or services to the foreign person.
+            (2) Procurement sanction.--The President may prohibit the 
+        head of any executive agency (as defined in section 133 of title 
+        41, United States Code) from entering into any contract for the 
+        procurement of any goods or services from the foreign person.
+            (3) Arms export prohibition.--The President may prohibit the 
+        exportation or provision by sale, lease or loan, grant, or other 
+        means, directly or indirectly, of any defense article or defense 
+        service to the foreign person and the issuance of any license or 
+        other approval to the foreign person under section 38 of the 
+        Arms Export Control Act (22 U.S.C. 2778).
+            (4) Dual-use export prohibition.--The President may prohibit 
+        the issuance of any license and suspend any license for the 
+        transfer to the foreign person of any item the export of which 
+        is controlled under the Export Administration Act of 1979 (50 
+        U.S.C. App. 2401 et seq.) (as in effect pursuant to the 
+        International Emergency Economic Powers Act (50 U.S.C. 1701 et 
+        seq.)) or the Export Administration Regulations under subchapter 
+        C of chapter VII of title 15, Code of Federal Regulations.
+            (5) Property transactions.--The President may, pursuant to 
+        such regulations as the President may prescribe, prohibit any 
+        person from--
+                    (A) acquiring, holding, withholding, using, 
+                transferring, withdrawing, transporting, or exporting 
+                any property that is subject to the jurisdiction of the 
+                United States and with respect to which the foreign 
+                person has any interest;
+                    (B) dealing in or exercising any right, power, or 
+                privilege with respect to such property; or
+                    (C) conducting any transaction involving such 
+                property.
+            (6) Banking transactions.--The President may, pursuant to 
+        such regulations as the President may prescribe, prohibit any 
+        transfers of credit or payments between financial institutions 
+        or by, through, or to any financial institution, to the extent 
+        that such transfers or payments are subject to the jurisdiction 
+        of the United States and involve any interest of the foreign 
+        person.
+            (7) Prohibition on investment in equity or debt of 
+        sanctioned person.--The President may, pursuant to such 
+        regulations as the President may prescribe, prohibit any United
+[[Page 128 STAT. 2956]]
+        States person from transacting in, providing financing for, or 
+        otherwise dealing in--
+                    (A) debt--
+                          (i) &lt;&lt;NOTE: Time periods.&gt;&gt;  of longer than 30 
+                      days' maturity of a foreign person with respect to 
+                      which sanctions are imposed under subsection (a) 
+                      or of longer than 90 days' maturity of a foreign 
+                      person with respect to which sanctions are imposed 
+                      under subsection (b); and
+                          (ii) issued on or after the date on which such 
+                      sanctions are imposed with respect to the foreign 
+                      person; or
+                    (B) equity of the foreign person issued on or after 
+                that date.
+            (8) Exclusion from the united states and revocation of visa 
+        or other documentation.--In the case of a foreign person who is 
+        an individual, the President may direct the Secretary of State 
+        to deny a visa to, and the Secretary of Homeland Security to 
+        exclude from the United States, the foreign person, subject to 
+        regulatory exceptions to permit the United States to comply with 
+        the Agreement regarding the Headquarters of the United Nations, 
+        signed at Lake Success June 26, 1947, and entered into force 
+        November 21, 1947, between the United Nations and the United 
+        States, or other applicable international obligations.
+            (9) Sanctions on principal executive officers.--In the case 
+        of a foreign person that is an entity, the President may impose 
+        on the principal executive officer or officers of the foreign 
+        person, or on individuals performing similar functions and with 
+        similar authorities as such officer or officers, any of the 
+        sanctions described in this subsection applicable to 
+        individuals.
+    (d) Exceptions.--
+            (1) Importation of goods.--
+                    (A) In general.--The authority to block and prohibit 
+                all transactions in all property and interests in 
+                property under subsection (c)(5) shall not include the 
+                authority to impose sanctions on the importation of 
+                goods.
+                    (B) Good defined.--In this paragraph, the term 
+                ``good'' has the meaning given that term in section 16 
+                of the Export Administration Act of 1979 (50 U.S.C. App. 
+                2415) (as continued in effect pursuant to the 
+                International Emergency Economic Powers Act (50 U.S.C. 
+                1701 et seq.)).
+            (2) Additional exceptions.--The President shall not be 
+        required to apply or maintain the sanctions under subsection (a) 
+        or (b)--
+                    (A) in the case of procurement of defense articles 
+                or defense services under existing contracts, 
+                subcontracts, or other business agreements, including 
+                ancillary or incidental contracts for goods, or for 
+                services or funding (including necessary financial 
+                services) associated with such goods, as necessary to 
+                give effect to such contracts, subcontracts, or other 
+                business agreements, and the exercise of options for 
+                production quantities to satisfy requirements essential 
+                to the national security of the United States--
+                          (i) &lt;&lt;NOTE: Determination.&gt;&gt;  if the President 
+                      determines in writing that--
+                                    (I) the foreign person to which the 
+                                sanctions would otherwise be applied is 
+                                a sole source supplier of the defense 
+                                articles or services;
+[[Page 128 STAT. 2957]]
+                                    (II) the defense articles or 
+                                services are essential;
+                                    (III) alternative sources are not 
+                                readily or reasonably available; and
+                                    (IV) the national interests of the 
+                                United States would be adversely 
+                                affected by the application or 
+                                maintenance of such sanctions; or
+                          (ii) if the President determines in writing 
+                      that--
+                                    (I) such articles or services are 
+                                essential to the national security under 
+                                defense coproduction agreements; and
+                                    (II) the national interests of the 
+                                United States would be adversely 
+                                affected by the application or 
+                                maintenance of such sanctions;
+                    (B) in the case of procurement, to eligible 
+                products, as defined in section 308(4) of the Trade 
+                Agreements Act of 1979 (19 U.S.C. 2518(4)), of any 
+                foreign country or instrumentality designated under 
+                section 301(b)(1) of that Act (19 U.S.C. 2511(b)(1));
+                    (C) to products, technology, or services provided 
+                under contracts, subcontracts, or other business 
+                agreements (including ancillary or incidental contracts 
+                for goods, or for services or funding (including 
+                necessary financial services) associated with such 
+                goods, as necessary to give effect to such contracts, 
+                subcontracts, or other business agreements) entered into 
+                before the date on which the President publishes in the 
+                Federal Register the name of the foreign person with 
+                respect to which the sanctions are to be imposed;
+                    (D) to--
+                          (i) spare parts that are essential to United 
+                      States products or production;
+                          (ii) component parts, but not finished 
+                      products, essential to United States products or 
+                      production; or
+                          (iii) routine servicing and maintenance of 
+                      United States products, to the extent that 
+                      alternative sources are not readily or reasonably 
+                      available;
+                    (E) to information and technology essential to 
+                United States products or production; or
+                    (F) to food, medicine, medical devices, or 
+                agricultural commodities (as those terms are defined in 
+                section 101 of the Comprehensive Iran Sanctions, 
+                Accountability, and Divestment Act of 2010 (22 U.S.C. 
+                8511)).
+    (e) National Security Waiver.--
+            (1) In general.--The President may waive the application of 
+        sanctions under subsection (a) or (b) with respect to a foreign 
+        person if the President--
+                    (A) &lt;&lt;NOTE: Determination.&gt;&gt;  determines that the 
+                waiver is in the national security interest of the 
+                United States; and
+                    (B) &lt;&lt;NOTE: Reports.&gt;&gt;  submits to the appropriate 
+                congressional committees a report on the determination 
+                and the reasons for the determination.
+            (2) Form of report.--The report required by paragraph (1)(B) 
+        shall be submitted in unclassified form, but may include a 
+        classified annex.
+    (f) Transaction-specific National Security Waiver.--
+[[Page 128 STAT. 2958]]
+            (1) In general.--The President may waive the application of 
+        sanctions under subsection (a) or (b) with respect to a specific 
+        transaction if the President--
+                    (A) &lt;&lt;NOTE: Determination.&gt;&gt;  determines that the 
+                transaction is in the national security interest of the 
+                United States; and
+                    (B) &lt;&lt;NOTE: Reports.&gt;&gt;  submits to the appropriate 
+                congressional committees a detailed report on the 
+                determination and the specific reasons for the 
+                determination that a waiver with respect to the 
+                transaction is necessary and appropriate.
+            (2) Form of report.--The report required by paragraph (1)(B) 
+        shall be submitted in unclassified form, but may include a 
+        classified annex.
+    (g) Implementation; Penalties.--
+            (1) Implementation.--The President may exercise all 
+        authorities provided under sections 203 and 205 of the 
+        International Emergency Economic Powers Act (50 U.S.C. 1702 and 
+        1704) to carry out the purposes of this section.
+            (2) &lt;&lt;NOTE: Applicability.&gt;&gt;  Penalties.--The penalties 
+        provided for in subsections (b) and (c) of section 206 of the 
+        International Emergency Economic Powers Act (50 U.S.C. 1705) 
+        shall apply to a person that violates, attempts to violate, or 
+        conspires to violate, or causes a violation of, subsection (a) 
+        or (b) of this section, or an order or regulation prescribed 
+        under either such subsection, to the same extent that such 
+        penalties apply to a person that commits an unlawful act 
+        described in section 206(a) of the International Emergency 
+        Economic Powers Act.
+    (h) Termination.--
+            (1) &lt;&lt;NOTE: Certification.&gt;&gt;  In general.--Except as 
+        provided in paragraph (2), this section, and sanctions imposed 
+        under this section, shall terminate on the date on which the 
+        President submits to the appropriate congressional committees a 
+        certification that the Government of the Russian Federation has 
+        ceased ordering, controlling, or otherwise directing, 
+        supporting, or financing, significant acts intended to undermine 
+        the peace, security, stability, sovereignty, or territorial 
+        integrity of Ukraine, including through an agreement between the 
+        appropriate parties.
+            (2) Applicability with respect to syria.--The termination 
+        date under paragraph (1) shall not apply with respect to the 
+        provisions of subsection (a) relating to the transfer of defense 
+        articles into Syria or sanctions imposed pursuant to such 
+        provisions.
+SEC. 5. &lt;&lt;NOTE: President. 22 USC 8924.&gt;&gt;  SANCTIONS ON RUSSIAN 
+                    AND OTHER FOREIGN FINANCIAL INSTITUTIONS.
+    (a) Facilitation of Certain Defense- and Energy-Related 
+Transactions.--The President may impose the sanction described in 
+subsection (c) with respect to a foreign financial institution that the 
+President determines knowingly engages, on or after the date of the 
+enactment of this Act, in significant transactions involving activities 
+described in subparagraph (A)(ii) or (B) of section 4(a)(2) or paragraph 
+(1) or (3) of section 4(b) for persons with respect to which sanctions 
+are imposed under section 4.
+    (b) Facilitation of Financial Transactions on Behalf of Specially 
+Designated Nationals. &lt;&lt;NOTE: Determination. Deadline.&gt;&gt; --The President 
+may impose the sanction described in subsection (c) with respect to a 
+foreign financial institution if the President determines that the 
+foreign financial institution has, on or after the date that is 180 days
+[[Page 128 STAT. 2959]]
+after the date of the enactment of this Act, knowingly facilitated a 
+significant financial transaction on behalf of any Russian person 
+included on the list of specially designated nationals and blocked 
+persons maintained by the Office of Foreign Assets Control of the 
+Department of the Treasury, pursuant to--
+            (1) this Act;
+            (2) Executive Order No. 13660 (79 Fed. Reg. 13,493), 13661 
+        (79 Fed. Reg. 15,535), or 13662 (79 Fed. Reg. 16,169); or
+            (3) any other Executive order addressing the crisis in 
+        Ukraine.
+    (c) Sanction Described.--The sanction described in this subsection 
+is, with respect to a foreign financial institution, a prohibition on 
+the opening, and a prohibition or the imposition of strict conditions on 
+the maintaining, in the United States of a correspondent account or a 
+payable-through account by the foreign financial institution.
+    (d) National Security Waiver.--The President may waive the 
+application of sanctions under this section with respect to a foreign 
+financial institution if the President--
+            (1) &lt;&lt;NOTE: Determination.&gt;&gt;  determines that the waiver is 
+        in the national security interest of the United States; and
+            (2) submits to the appropriate congressional committees a 
+        report on the determination and the reasons for the 
+        determination.
+    (e) Implementation; Penalties.--
+            (1) Implementation.--The President may exercise all 
+        authorities provided under sections 203 and 205 of the 
+        International Emergency Economic Powers Act (50 U.S.C. 1702 and 
+        1704) to carry out the purposes of this section.
+            (2) Penalties.--The penalties provided for in subsections 
+        (b) and (c) of section 206 of the International Emergency 
+        Economic Powers Act (50 U.S.C. 1705) shall apply to a person 
+        that violates, attempts to violate, or conspires to violate, or 
+        causes a violation of, subsection (a) or (b) of this section, or 
+        an order or regulation prescribed under either such subsection, 
+        to the same extent that such penalties apply to a person that 
+        commits an unlawful act described in section 206(a) of the 
+        International Emergency Economic Powers Act.
+    (f) &lt;&lt;NOTE: Certification.&gt;&gt;  Termination.--This section, and 
+sanctions imposed under this section, shall terminate on the date on 
+which the President submits to the appropriate congressional committees 
+the certification described in section 4(h).
+SEC. 6. &lt;&lt;NOTE: 22 USC 8925.&gt;&gt;  INCREASED MILITARY ASSISTANCE FOR 
+                    THE GOVERNMENT OF UKRAINE.
+    (a) &lt;&lt;NOTE: President.&gt;&gt;  In General.--The President is authorized 
+to provide defense articles, defense services, and training to the 
+Government of Ukraine for the purpose of countering offensive weapons 
+and reestablishing the sovereignty and territorial integrity of Ukraine, 
+including anti-tank and anti-armor weapons, crew weapons and ammunition, 
+counter-artillery radars to identify and target artillery batteries, 
+fire control, range finder, and optical and guidance and control 
+equipment, tactical troop-operated surveillance drones, and secure 
+command and communications equipment, pursuant to the provisions of the 
+Arms Export Control Act (22 U.S.C. 2751 et seq.), the Foreign Assistance 
+Act of 1961 (22 U.S.C. 2151 et seq.), and other relevant provisions of 
+law.
+[[Page 128 STAT. 2960]]
+    (b) &lt;&lt;NOTE: President.&gt;&gt;  Report Required.--Not later than 60 days 
+after the date of the enactment of this Act, the President shall submit 
+a report detailing the anticipated defense articles, defense services, 
+and training to be provided pursuant to this section and a timeline for 
+the provision of such defense articles, defense services, and training, 
+to--
+            (1) the Committee on Foreign Relations, the Committee on 
+        Appropriations, and the Committee on Armed Services of the 
+        Senate; and
+            (2) the Committee on Foreign Affairs, the Committee on 
+        Appropriations, and the Committee on Armed Services of the House 
+        of Representatives.
+    (c) Authorization of Appropriations.--
+            (1) In general.--There are authorized to be appropriated to 
+        the Secretary of State $100,000,000 for fiscal year 2015, 
+        $125,000,000 for fiscal year 2016, and $125,000,000 for fiscal 
+        year 2017 to carry out activities under this section.
+            (2) Availability of amounts.--Amounts authorized to be 
+        appropriated pursuant to paragraph (1) shall remain available 
+        for obligation and expenditure through the end of fiscal year 
+        2018.
+    (d) Authority for the Use of Funds.--The funds made available 
+pursuant to subsection (c) for provision of defense articles, defense 
+services, and training may be used to procure such articles, services, 
+and training from the United States Government or other appropriate 
+sources.
+    (e) Protection of Civilians.--It is the sense of Congress that the 
+Government of Ukraine should take all appropriate steps to protect 
+civilians.
+SEC. 7. &lt;&lt;NOTE: 22 USC 8926.&gt;&gt;  EXPANDED NONMILITARY ASSISTANCE 
+                    FOR UKRAINE.
+    (a) Assistance to Internally Displaced People in Ukraine.--
+            (1) &lt;&lt;NOTE: Deadline. Plans.&gt;&gt;  In general.--Not later than 
+        30 days after the date of the enactment of this Act, the 
+        Secretary of State shall submit a plan, including actions by the 
+        United States Government, other governments, and international 
+        organizations, to meet the need for protection of and assistance 
+        for internally displaced persons in Ukraine, to--
+                    (A) the Committee on Foreign Relations, the 
+                Committee on Appropriations, and the Committee on Energy 
+                and Natural Resources of the Senate; and
+                    (B) the Committee on Foreign Affairs, the Committee 
+                on Appropriations, and the Committee on Energy and 
+                Commerce of the House of Representatives.
+            (2) Elements.--The plan required by paragraph (1) should 
+        include, as appropriate, activities in support of--
+                    (A) helping to establish a functional and adequately 
+                resourced central registration system in Ukraine that 
+                can ensure coordination of efforts to provide assistance 
+                to internally displaced persons in different regions;
+                    (B) encouraging adoption of legislation in Ukraine 
+                that protects internally displaced p</t>
         </is>
       </c>
     </row>
